--- a/supply-data/CNRFC_Stations.xlsx
+++ b/supply-data/CNRFC_Stations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jgy-work/R/GitHub/dwr-dwast/supply-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5861C1-8F59-9149-85C6-DF7592066865}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC514326-F0DB-5049-A6CC-AA6B66DDE6EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="400" yWindow="500" windowWidth="46620" windowHeight="27020" xr2:uid="{D4E5C831-60D4-4B8F-AF4C-C6D6ED9C7D43}"/>
   </bookViews>
@@ -4520,6 +4520,10 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5B98DAC8-BDE0-F74B-9E55-1E5C1134DBAB}" name="Table2" displayName="Table2" ref="A1:N162" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:N162" xr:uid="{E84F4AD3-4A51-E946-B388-2B8174838873}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N162">
+    <sortCondition ref="A1:A162"/>
+  </sortState>
   <tableColumns count="14">
     <tableColumn id="15" xr3:uid="{264A2268-577C-C74A-8894-FCF538A172B4}" name="huc8_name"/>
     <tableColumn id="1" xr3:uid="{E59CBF81-85E8-F841-85FE-5961159B7E9C}" name="River Group"/>
@@ -4840,10 +4844,10 @@
   <dimension ref="A1:N162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C55" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C91" sqref="C91"/>
+      <selection pane="bottomRight" activeCell="E125" sqref="E125:G125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4910,6495 +4914,6495 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>830</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>488</v>
       </c>
       <c r="C2" t="s">
-        <v>166</v>
+        <v>535</v>
       </c>
       <c r="E2" t="s">
-        <v>167</v>
+        <v>536</v>
       </c>
       <c r="F2">
-        <v>38.763890000000004</v>
+        <v>39.291670000000003</v>
       </c>
       <c r="G2">
-        <v>-120.32832999999999</v>
+        <v>-119.31111</v>
       </c>
       <c r="H2">
-        <v>3840</v>
+        <v>4215</v>
       </c>
       <c r="I2" t="s">
         <v>1228</v>
       </c>
       <c r="J2" t="s">
-        <v>1006</v>
+        <v>1108</v>
       </c>
       <c r="K2" t="s">
-        <v>868</v>
+        <v>830</v>
       </c>
       <c r="L2" t="s">
-        <v>1130</v>
-      </c>
-      <c r="M2" t="s">
-        <v>1392</v>
+        <v>1108</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>614</v>
+        <v>722</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>160</v>
+        <v>830</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>543</v>
       </c>
       <c r="C3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D3" t="s">
-        <v>169</v>
+        <v>562</v>
       </c>
       <c r="E3" t="s">
-        <v>170</v>
+        <v>563</v>
       </c>
       <c r="F3">
-        <v>38.77111</v>
+        <v>40.9925</v>
       </c>
       <c r="G3">
-        <v>-120.81528</v>
+        <v>-117.31667</v>
       </c>
       <c r="H3">
-        <v>931</v>
+        <v>4360</v>
       </c>
       <c r="I3" t="s">
         <v>1228</v>
       </c>
       <c r="J3" t="s">
-        <v>1007</v>
+        <v>1108</v>
       </c>
       <c r="K3" t="s">
-        <v>869</v>
+        <v>830</v>
       </c>
       <c r="L3" t="s">
-        <v>1130</v>
+        <v>1108</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>615</v>
+        <v>734</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>830</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>543</v>
       </c>
       <c r="C4" t="s">
-        <v>135</v>
+        <v>552</v>
       </c>
       <c r="E4" t="s">
-        <v>136</v>
+        <v>553</v>
       </c>
       <c r="F4">
-        <v>39.110280000000003</v>
+        <v>40.685000000000002</v>
       </c>
       <c r="G4">
-        <v>-120.43056</v>
+        <v>-115.8125</v>
       </c>
       <c r="H4">
-        <v>5263</v>
+        <v>5140</v>
       </c>
       <c r="I4" t="s">
         <v>1228</v>
       </c>
       <c r="J4" t="s">
-        <v>999</v>
+        <v>1108</v>
       </c>
       <c r="K4" t="s">
-        <v>861</v>
+        <v>830</v>
       </c>
       <c r="L4" t="s">
-        <v>1129</v>
+        <v>1108</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>607</v>
+        <v>729</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>173</v>
+        <v>830</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>543</v>
       </c>
       <c r="C5" t="s">
-        <v>171</v>
+        <v>548</v>
       </c>
       <c r="E5" t="s">
-        <v>172</v>
+        <v>549</v>
       </c>
       <c r="F5">
-        <v>38.700000000000003</v>
+        <v>41.18056</v>
       </c>
       <c r="G5">
-        <v>-121.16694</v>
+        <v>-115.49306</v>
       </c>
       <c r="H5">
-        <v>350</v>
+        <v>5370</v>
       </c>
       <c r="I5" t="s">
         <v>1228</v>
       </c>
       <c r="J5" t="s">
-        <v>1008</v>
+        <v>1108</v>
       </c>
       <c r="K5" t="s">
-        <v>870</v>
+        <v>830</v>
       </c>
       <c r="L5" t="s">
-        <v>1131</v>
-      </c>
-      <c r="M5" t="s">
-        <v>1405</v>
+        <v>1108</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>616</v>
+        <v>727</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>830</v>
       </c>
       <c r="B6" t="s">
-        <v>131</v>
+        <v>543</v>
       </c>
       <c r="C6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D6" t="s">
-        <v>143</v>
+        <v>560</v>
       </c>
       <c r="E6" t="s">
-        <v>144</v>
+        <v>561</v>
       </c>
       <c r="F6">
-        <v>39.071669999999997</v>
+        <v>40.666670000000003</v>
       </c>
       <c r="G6">
-        <v>-120.42167000000001</v>
+        <v>-116.93056</v>
       </c>
       <c r="H6">
-        <v>5240</v>
+        <v>4500</v>
       </c>
       <c r="I6" t="s">
         <v>1228</v>
       </c>
       <c r="J6" t="s">
-        <v>1001</v>
+        <v>1108</v>
       </c>
       <c r="K6" t="s">
-        <v>863</v>
+        <v>830</v>
       </c>
       <c r="L6" t="s">
-        <v>1129</v>
+        <v>1108</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>609</v>
+        <v>733</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>160</v>
+        <v>830</v>
       </c>
       <c r="B7" t="s">
-        <v>131</v>
+        <v>543</v>
       </c>
       <c r="C7" t="s">
-        <v>161</v>
+        <v>556</v>
       </c>
       <c r="E7" t="s">
-        <v>162</v>
+        <v>557</v>
       </c>
       <c r="F7">
-        <v>38.823889999999999</v>
+        <v>40.727780000000003</v>
       </c>
       <c r="G7">
-        <v>-120.36</v>
+        <v>-116.00833</v>
       </c>
       <c r="H7">
-        <v>5454</v>
+        <v>4932</v>
       </c>
       <c r="I7" t="s">
         <v>1228</v>
       </c>
       <c r="J7" t="s">
-        <v>1005</v>
+        <v>1108</v>
       </c>
       <c r="K7" t="s">
-        <v>867</v>
+        <v>830</v>
       </c>
       <c r="L7" t="s">
-        <v>1130</v>
-      </c>
-      <c r="M7" t="s">
-        <v>1411</v>
+        <v>1108</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>613</v>
+        <v>731</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>830</v>
       </c>
       <c r="B8" t="s">
-        <v>131</v>
+        <v>543</v>
       </c>
       <c r="C8" t="s">
-        <v>155</v>
-      </c>
-      <c r="D8" t="s">
-        <v>156</v>
+        <v>550</v>
       </c>
       <c r="E8" t="s">
-        <v>157</v>
+        <v>551</v>
       </c>
       <c r="F8">
-        <v>39.00611</v>
+        <v>40.936109999999999</v>
       </c>
       <c r="G8">
-        <v>-120.75972</v>
+        <v>-115.62361</v>
       </c>
       <c r="H8">
-        <v>1070</v>
+        <v>5142</v>
       </c>
       <c r="I8" t="s">
         <v>1228</v>
       </c>
       <c r="J8" t="s">
-        <v>1003</v>
+        <v>1108</v>
       </c>
       <c r="K8" t="s">
-        <v>865</v>
+        <v>830</v>
       </c>
       <c r="L8" t="s">
-        <v>1129</v>
+        <v>1108</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>611</v>
+        <v>728</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>830</v>
       </c>
       <c r="B9" t="s">
-        <v>131</v>
+        <v>543</v>
       </c>
       <c r="C9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D9" t="s">
-        <v>138</v>
+        <v>564</v>
       </c>
       <c r="E9" t="s">
-        <v>139</v>
+        <v>565</v>
       </c>
       <c r="F9">
-        <v>39.025280000000002</v>
+        <v>40.691670000000002</v>
       </c>
       <c r="G9">
-        <v>-120.59444000000001</v>
+        <v>-118.20278</v>
       </c>
       <c r="H9">
-        <v>2540</v>
+        <v>4130</v>
       </c>
       <c r="I9" t="s">
         <v>1228</v>
       </c>
       <c r="J9" t="s">
-        <v>1000</v>
+        <v>1108</v>
       </c>
       <c r="K9" t="s">
-        <v>862</v>
+        <v>830</v>
       </c>
       <c r="L9" t="s">
-        <v>1129</v>
+        <v>1108</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>608</v>
+        <v>735</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>134</v>
+        <v>830</v>
       </c>
       <c r="B10" t="s">
-        <v>131</v>
+        <v>543</v>
       </c>
       <c r="C10" t="s">
-        <v>132</v>
+        <v>568</v>
       </c>
       <c r="E10" t="s">
-        <v>133</v>
+        <v>569</v>
       </c>
       <c r="F10">
-        <v>38.936109999999999</v>
+        <v>41.533329999999999</v>
       </c>
       <c r="G10">
-        <v>-121.02278</v>
+        <v>-117.42778</v>
       </c>
       <c r="H10">
-        <v>715</v>
+        <v>4700</v>
       </c>
       <c r="I10" t="s">
         <v>1228</v>
       </c>
       <c r="J10" t="s">
-        <v>998</v>
+        <v>1108</v>
       </c>
       <c r="K10" t="s">
-        <v>860</v>
+        <v>830</v>
       </c>
       <c r="L10" t="s">
-        <v>1129</v>
-      </c>
-      <c r="M10" t="s">
-        <v>1419</v>
+        <v>1108</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>606</v>
+        <v>736</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>134</v>
+        <v>830</v>
       </c>
       <c r="B11" t="s">
-        <v>131</v>
+        <v>543</v>
       </c>
       <c r="C11" t="s">
-        <v>153</v>
+        <v>546</v>
       </c>
       <c r="E11" t="s">
-        <v>154</v>
+        <v>547</v>
       </c>
       <c r="F11">
-        <v>39.024169999999998</v>
+        <v>41.252780000000001</v>
       </c>
       <c r="G11">
-        <v>-120.7175</v>
+        <v>-115.25556</v>
       </c>
       <c r="H11">
-        <v>1302</v>
+        <v>5504</v>
       </c>
       <c r="I11" t="s">
         <v>1228</v>
       </c>
       <c r="J11" t="s">
-        <v>1002</v>
+        <v>1108</v>
       </c>
       <c r="K11" t="s">
-        <v>864</v>
+        <v>830</v>
       </c>
       <c r="L11" t="s">
-        <v>1129</v>
+        <v>1108</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>610</v>
+        <v>726</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>160</v>
+        <v>830</v>
       </c>
       <c r="B12" t="s">
-        <v>131</v>
+        <v>543</v>
       </c>
       <c r="C12" t="s">
-        <v>158</v>
+        <v>558</v>
       </c>
       <c r="E12" t="s">
-        <v>159</v>
+        <v>559</v>
       </c>
       <c r="F12">
-        <v>38.86806</v>
+        <v>40.607219999999998</v>
       </c>
       <c r="G12">
-        <v>-120.44306</v>
+        <v>-116.20193999999999</v>
       </c>
       <c r="H12">
-        <v>4870</v>
+        <v>4826</v>
       </c>
       <c r="I12" t="s">
         <v>1228</v>
       </c>
       <c r="J12" t="s">
-        <v>1004</v>
+        <v>1108</v>
       </c>
       <c r="K12" t="s">
-        <v>866</v>
+        <v>830</v>
       </c>
       <c r="L12" t="s">
-        <v>1130</v>
-      </c>
-      <c r="M12" t="s">
-        <v>1435</v>
+        <v>1108</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>612</v>
+        <v>732</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>830</v>
       </c>
       <c r="B13" t="s">
-        <v>122</v>
+        <v>543</v>
       </c>
       <c r="C13" t="s">
-        <v>125</v>
+        <v>554</v>
       </c>
       <c r="E13" t="s">
-        <v>126</v>
+        <v>555</v>
       </c>
       <c r="F13">
-        <v>39.08</v>
+        <v>40.825000000000003</v>
       </c>
       <c r="G13">
-        <v>-122.53361</v>
+        <v>-116.58333</v>
       </c>
       <c r="H13">
-        <v>1502</v>
+        <v>4670</v>
       </c>
       <c r="I13" t="s">
         <v>1228</v>
       </c>
       <c r="J13" t="s">
-        <v>996</v>
+        <v>1108</v>
       </c>
       <c r="K13" t="s">
-        <v>858</v>
+        <v>830</v>
       </c>
       <c r="L13" t="s">
-        <v>1127</v>
+        <v>1108</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>604</v>
+        <v>730</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>130</v>
+        <v>830</v>
       </c>
       <c r="B14" t="s">
-        <v>122</v>
+        <v>243</v>
       </c>
       <c r="C14" t="s">
-        <v>128</v>
+        <v>248</v>
       </c>
       <c r="E14" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="F14">
-        <v>38.512999999999998</v>
+        <v>42.447220000000002</v>
       </c>
       <c r="G14">
-        <v>-122.104</v>
+        <v>-121.2375</v>
       </c>
       <c r="H14">
-        <v>455</v>
+        <v>4305</v>
       </c>
       <c r="I14" t="s">
         <v>1228</v>
       </c>
       <c r="J14" t="s">
-        <v>997</v>
+        <v>1107</v>
       </c>
       <c r="K14" t="s">
-        <v>859</v>
+        <v>830</v>
       </c>
       <c r="L14" t="s">
-        <v>1128</v>
+        <v>1107</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>605</v>
+        <v>643</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1203</v>
+        <v>830</v>
       </c>
       <c r="B15" t="s">
-        <v>340</v>
+        <v>243</v>
       </c>
       <c r="C15" t="s">
-        <v>363</v>
+        <v>252</v>
       </c>
       <c r="E15" t="s">
-        <v>364</v>
+        <v>253</v>
       </c>
       <c r="F15">
-        <v>36.900280000000002</v>
+        <v>42.584719999999997</v>
       </c>
       <c r="G15">
-        <v>-121.59667</v>
+        <v>-121.84860999999999</v>
       </c>
       <c r="H15">
-        <v>82</v>
+        <v>4202</v>
       </c>
       <c r="I15" t="s">
         <v>1228</v>
       </c>
       <c r="J15" t="s">
-        <v>1065</v>
+        <v>1107</v>
       </c>
       <c r="K15" t="s">
-        <v>927</v>
+        <v>830</v>
       </c>
       <c r="L15" t="s">
-        <v>1159</v>
+        <v>1107</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>679</v>
+        <v>645</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1202</v>
+        <v>830</v>
       </c>
       <c r="B16" t="s">
-        <v>340</v>
+        <v>243</v>
       </c>
       <c r="C16" t="s">
-        <v>353</v>
+        <v>258</v>
       </c>
       <c r="E16" t="s">
-        <v>354</v>
+        <v>259</v>
       </c>
       <c r="F16">
-        <v>36.245829999999998</v>
+        <v>42.25</v>
       </c>
       <c r="G16">
-        <v>-121.77222</v>
+        <v>-121.81528</v>
       </c>
       <c r="H16">
-        <v>240</v>
+        <v>4098</v>
       </c>
       <c r="I16" t="s">
         <v>1228</v>
       </c>
       <c r="J16" t="s">
-        <v>1062</v>
+        <v>1107</v>
       </c>
       <c r="K16" t="s">
-        <v>924</v>
+        <v>830</v>
       </c>
       <c r="L16" t="s">
-        <v>1158</v>
+        <v>1107</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>676</v>
+        <v>648</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1204</v>
+        <v>830</v>
       </c>
       <c r="B17" t="s">
-        <v>340</v>
+        <v>243</v>
       </c>
       <c r="C17" t="s">
-        <v>367</v>
+        <v>250</v>
       </c>
       <c r="E17" t="s">
-        <v>368</v>
+        <v>251</v>
       </c>
       <c r="F17">
-        <v>37.088610000000003</v>
+        <v>42.486109999999996</v>
       </c>
       <c r="G17">
-        <v>-121.53806</v>
+        <v>-121.27778000000001</v>
       </c>
       <c r="H17">
-        <v>802</v>
+        <v>4325</v>
       </c>
       <c r="I17" t="s">
         <v>1228</v>
       </c>
       <c r="J17" t="s">
-        <v>1066</v>
+        <v>1107</v>
       </c>
       <c r="K17" t="s">
-        <v>928</v>
+        <v>830</v>
       </c>
       <c r="L17" t="s">
-        <v>1160</v>
+        <v>1107</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>680</v>
+        <v>644</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1205</v>
+        <v>830</v>
       </c>
       <c r="B18" t="s">
-        <v>340</v>
+        <v>243</v>
       </c>
       <c r="C18" t="s">
-        <v>383</v>
+        <v>254</v>
       </c>
       <c r="E18" t="s">
-        <v>384</v>
+        <v>255</v>
       </c>
       <c r="F18">
-        <v>37.4925</v>
+        <v>42.740279999999998</v>
       </c>
       <c r="G18">
-        <v>-121.81973000000001</v>
+        <v>-121.83333</v>
       </c>
       <c r="H18">
-        <v>775</v>
+        <v>4483</v>
       </c>
       <c r="I18" t="s">
         <v>1228</v>
       </c>
       <c r="J18" t="s">
-        <v>1068</v>
+        <v>1107</v>
       </c>
       <c r="K18" t="s">
-        <v>930</v>
+        <v>830</v>
       </c>
       <c r="L18" t="s">
-        <v>1161</v>
+        <v>1107</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>682</v>
+        <v>646</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1203</v>
+        <v>830</v>
       </c>
       <c r="B19" t="s">
-        <v>340</v>
+        <v>243</v>
       </c>
       <c r="C19" t="s">
-        <v>359</v>
+        <v>256</v>
       </c>
       <c r="E19" t="s">
-        <v>360</v>
+        <v>257</v>
       </c>
       <c r="F19">
-        <v>36.851939999999999</v>
+        <v>42.564999999999998</v>
       </c>
       <c r="G19">
-        <v>-121.42889</v>
+        <v>-121.87833000000001</v>
       </c>
       <c r="H19">
-        <v>260</v>
+        <v>4148</v>
       </c>
       <c r="I19" t="s">
         <v>1228</v>
       </c>
       <c r="J19" t="s">
-        <v>1064</v>
+        <v>1107</v>
       </c>
       <c r="K19" t="s">
-        <v>926</v>
+        <v>830</v>
       </c>
       <c r="L19" t="s">
-        <v>1159</v>
+        <v>1107</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>678</v>
+        <v>647</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1204</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>369</v>
+        <v>26</v>
       </c>
       <c r="E20" t="s">
-        <v>370</v>
+        <v>27</v>
       </c>
       <c r="F20">
-        <v>37.20167</v>
+        <v>40.398330000000001</v>
       </c>
       <c r="G20">
-        <v>-121.98806</v>
+        <v>-122.14528</v>
       </c>
       <c r="H20">
-        <v>665</v>
+        <v>415</v>
       </c>
       <c r="I20" t="s">
         <v>1228</v>
       </c>
       <c r="J20" t="s">
-        <v>1067</v>
+        <v>977</v>
       </c>
       <c r="K20" t="s">
-        <v>929</v>
+        <v>839</v>
       </c>
       <c r="L20" t="s">
-        <v>1160</v>
-      </c>
-      <c r="N20" s="4" t="s">
-        <v>681</v>
+        <v>1115</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>1201</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>347</v>
+        <v>37</v>
       </c>
       <c r="E21" t="s">
-        <v>348</v>
+        <v>38</v>
       </c>
       <c r="F21">
-        <v>35.755830000000003</v>
+        <v>40.01417</v>
       </c>
       <c r="G21">
-        <v>-120.89111</v>
+        <v>-121.94722</v>
       </c>
       <c r="H21">
-        <v>825</v>
+        <v>479</v>
       </c>
       <c r="I21" t="s">
         <v>1228</v>
       </c>
       <c r="J21" t="s">
-        <v>1059</v>
+        <v>981</v>
       </c>
       <c r="K21" t="s">
-        <v>921</v>
+        <v>843</v>
       </c>
       <c r="L21" t="s">
-        <v>1157</v>
-      </c>
-      <c r="M21" t="s">
-        <v>1417</v>
+        <v>1119</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>673</v>
+        <v>591</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1203</v>
+        <v>1198</v>
       </c>
       <c r="B22" t="s">
-        <v>340</v>
+        <v>315</v>
       </c>
       <c r="C22" t="s">
-        <v>355</v>
+        <v>316</v>
       </c>
       <c r="E22" t="s">
-        <v>356</v>
+        <v>317</v>
       </c>
       <c r="F22">
-        <v>36.609439999999999</v>
+        <v>39.172220000000003</v>
       </c>
       <c r="G22">
-        <v>-121.20193999999999</v>
+        <v>-123.66833</v>
       </c>
       <c r="H22">
-        <v>925</v>
+        <v>20</v>
       </c>
       <c r="I22" t="s">
         <v>1228</v>
       </c>
       <c r="J22" t="s">
-        <v>1063</v>
+        <v>1053</v>
       </c>
       <c r="K22" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="L22" t="s">
-        <v>1159</v>
+        <v>1154</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1201</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>349</v>
+        <v>49</v>
       </c>
       <c r="E23" t="s">
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="F23">
-        <v>35.627780000000001</v>
+        <v>39.726109999999998</v>
       </c>
       <c r="G23">
-        <v>-120.68556</v>
+        <v>-121.70778</v>
       </c>
       <c r="H23">
-        <v>700</v>
+        <v>320</v>
       </c>
       <c r="I23" t="s">
         <v>1228</v>
       </c>
       <c r="J23" t="s">
-        <v>1060</v>
+        <v>985</v>
       </c>
       <c r="K23" t="s">
-        <v>922</v>
+        <v>847</v>
       </c>
       <c r="L23" t="s">
-        <v>1157</v>
+        <v>1121</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>674</v>
+        <v>595</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1202</v>
+        <v>1213</v>
       </c>
       <c r="B24" t="s">
-        <v>340</v>
+        <v>389</v>
       </c>
       <c r="C24" t="s">
-        <v>351</v>
+        <v>412</v>
       </c>
       <c r="E24" t="s">
-        <v>352</v>
+        <v>413</v>
       </c>
       <c r="F24">
-        <v>36.474440000000001</v>
+        <v>34.17944</v>
       </c>
       <c r="G24">
-        <v>-121.72778</v>
+        <v>-119.03888999999999</v>
       </c>
       <c r="H24">
-        <v>270</v>
+        <v>70</v>
       </c>
       <c r="I24" t="s">
         <v>1228</v>
       </c>
       <c r="J24" t="s">
-        <v>1061</v>
+        <v>1079</v>
       </c>
       <c r="K24" t="s">
-        <v>923</v>
+        <v>941</v>
       </c>
       <c r="L24" t="s">
-        <v>1158</v>
+        <v>1169</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>675</v>
+        <v>693</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="B25" t="s">
         <v>340</v>
       </c>
       <c r="C25" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="E25" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="F25">
-        <v>35.789439999999999</v>
+        <v>36.245829999999998</v>
       </c>
       <c r="G25">
-        <v>-120.88333</v>
+        <v>-121.77222</v>
       </c>
       <c r="H25">
-        <v>800</v>
+        <v>240</v>
       </c>
       <c r="I25" t="s">
         <v>1228</v>
       </c>
       <c r="J25" t="s">
-        <v>1058</v>
+        <v>1062</v>
       </c>
       <c r="K25" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="L25" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1223</v>
+        <v>1202</v>
       </c>
       <c r="B26" t="s">
-        <v>488</v>
+        <v>340</v>
       </c>
       <c r="C26" t="s">
-        <v>507</v>
-      </c>
-      <c r="D26" t="s">
-        <v>508</v>
+        <v>351</v>
       </c>
       <c r="E26" t="s">
-        <v>509</v>
+        <v>352</v>
       </c>
       <c r="F26">
-        <v>39.386940000000003</v>
+        <v>36.474440000000001</v>
       </c>
       <c r="G26">
-        <v>-120.09444000000001</v>
+        <v>-121.72778</v>
       </c>
       <c r="H26">
-        <v>5500</v>
+        <v>270</v>
       </c>
       <c r="I26" t="s">
         <v>1228</v>
       </c>
       <c r="J26" t="s">
-        <v>1097</v>
+        <v>1061</v>
       </c>
       <c r="K26" t="s">
-        <v>959</v>
+        <v>923</v>
       </c>
       <c r="L26" t="s">
-        <v>1179</v>
+        <v>1158</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>715</v>
+        <v>675</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1226</v>
+        <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>488</v>
+        <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>539</v>
+        <v>17</v>
       </c>
       <c r="E27" t="s">
-        <v>540</v>
+        <v>18</v>
       </c>
       <c r="F27">
-        <v>38.327779999999997</v>
+        <v>40.714170000000003</v>
       </c>
       <c r="G27">
-        <v>-119.21389000000001</v>
+        <v>-122.41611</v>
       </c>
       <c r="H27">
-        <v>6561</v>
+        <v>1075</v>
       </c>
       <c r="I27" t="s">
         <v>1228</v>
       </c>
       <c r="J27" t="s">
-        <v>1105</v>
+        <v>974</v>
       </c>
       <c r="K27" t="s">
-        <v>967</v>
+        <v>836</v>
       </c>
       <c r="L27" t="s">
-        <v>1182</v>
+        <v>1113</v>
       </c>
       <c r="M27" t="s">
-        <v>1396</v>
+        <v>1431</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>724</v>
+        <v>584</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1224</v>
+        <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>488</v>
+        <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>527</v>
+        <v>24</v>
       </c>
       <c r="E28" t="s">
-        <v>528</v>
+        <v>25</v>
       </c>
       <c r="F28">
-        <v>38.713889999999999</v>
+        <v>40.598059999999997</v>
       </c>
       <c r="G28">
-        <v>-119.76389</v>
+        <v>-122.53694</v>
       </c>
       <c r="H28">
-        <v>5400</v>
+        <v>1310</v>
       </c>
       <c r="I28" t="s">
         <v>1228</v>
       </c>
       <c r="J28" t="s">
-        <v>1101</v>
+        <v>976</v>
       </c>
       <c r="K28" t="s">
-        <v>963</v>
+        <v>838</v>
       </c>
       <c r="L28" t="s">
-        <v>1180</v>
+        <v>1113</v>
+      </c>
+      <c r="M28" t="s">
+        <v>1436</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>719</v>
+        <v>586</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1223</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>488</v>
+        <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>496</v>
+        <v>29</v>
       </c>
       <c r="E29" t="s">
-        <v>497</v>
+        <v>30</v>
       </c>
       <c r="F29">
-        <v>39.325000000000003</v>
+        <v>40.384999999999998</v>
       </c>
       <c r="G29">
-        <v>-120.28139</v>
+        <v>-122.23889</v>
       </c>
       <c r="H29">
-        <v>5924</v>
+        <v>364</v>
       </c>
       <c r="I29" t="s">
         <v>1228</v>
       </c>
       <c r="J29" t="s">
-        <v>1093</v>
+        <v>978</v>
       </c>
       <c r="K29" t="s">
-        <v>955</v>
+        <v>840</v>
       </c>
       <c r="L29" t="s">
-        <v>1179</v>
+        <v>1116</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>710</v>
+        <v>588</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1223</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>488</v>
+        <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>510</v>
-      </c>
-      <c r="D30" t="s">
-        <v>511</v>
+        <v>32</v>
       </c>
       <c r="E30" t="s">
-        <v>512</v>
+        <v>33</v>
       </c>
       <c r="F30">
-        <v>39.428060000000002</v>
+        <v>40.505279999999999</v>
       </c>
       <c r="G30">
-        <v>-120.03306000000001</v>
+        <v>-122.23222</v>
       </c>
       <c r="H30">
-        <v>5153</v>
+        <v>386</v>
       </c>
       <c r="I30" t="s">
         <v>1228</v>
       </c>
       <c r="J30" t="s">
-        <v>1098</v>
+        <v>979</v>
       </c>
       <c r="K30" t="s">
-        <v>960</v>
+        <v>841</v>
       </c>
       <c r="L30" t="s">
-        <v>1179</v>
-      </c>
-      <c r="M30" t="s">
-        <v>1403</v>
+        <v>1117</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>716</v>
+        <v>589</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>830</v>
+        <v>1204</v>
       </c>
       <c r="B31" t="s">
-        <v>488</v>
+        <v>340</v>
       </c>
       <c r="C31" t="s">
-        <v>535</v>
+        <v>367</v>
       </c>
       <c r="E31" t="s">
-        <v>536</v>
+        <v>368</v>
       </c>
       <c r="F31">
-        <v>39.291670000000003</v>
+        <v>37.088610000000003</v>
       </c>
       <c r="G31">
-        <v>-119.31111</v>
+        <v>-121.53806</v>
       </c>
       <c r="H31">
-        <v>4215</v>
+        <v>802</v>
       </c>
       <c r="I31" t="s">
         <v>1228</v>
       </c>
       <c r="J31" t="s">
-        <v>1108</v>
+        <v>1066</v>
       </c>
       <c r="K31" t="s">
-        <v>830</v>
+        <v>928</v>
       </c>
       <c r="L31" t="s">
-        <v>1108</v>
+        <v>1160</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>722</v>
+        <v>680</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1224</v>
+        <v>1204</v>
       </c>
       <c r="B32" t="s">
-        <v>488</v>
+        <v>340</v>
       </c>
       <c r="C32" t="s">
-        <v>529</v>
-      </c>
-      <c r="D32" t="s">
-        <v>530</v>
+        <v>369</v>
       </c>
       <c r="E32" t="s">
-        <v>531</v>
+        <v>370</v>
       </c>
       <c r="F32">
-        <v>38.84722</v>
+        <v>37.20167</v>
       </c>
       <c r="G32">
-        <v>-119.70278</v>
+        <v>-121.98806</v>
       </c>
       <c r="H32">
-        <v>4988</v>
+        <v>665</v>
       </c>
       <c r="I32" t="s">
         <v>1228</v>
       </c>
       <c r="J32" t="s">
-        <v>1102</v>
+        <v>1067</v>
       </c>
       <c r="K32" t="s">
-        <v>964</v>
+        <v>929</v>
       </c>
       <c r="L32" t="s">
-        <v>1180</v>
-      </c>
-      <c r="M32" t="s">
-        <v>1397</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>720</v>
+        <v>1160</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1223</v>
+        <v>1206</v>
       </c>
       <c r="B33" t="s">
-        <v>488</v>
+        <v>389</v>
       </c>
       <c r="C33" t="s">
-        <v>498</v>
+        <v>390</v>
       </c>
       <c r="E33" t="s">
-        <v>499</v>
+        <v>391</v>
       </c>
       <c r="F33">
-        <v>39.45194</v>
+        <v>34.983609999999999</v>
       </c>
       <c r="G33">
-        <v>-120.28972</v>
+        <v>-120.32083</v>
       </c>
       <c r="H33">
-        <v>6949</v>
+        <v>740</v>
       </c>
       <c r="I33" t="s">
         <v>1228</v>
       </c>
       <c r="J33" t="s">
-        <v>1094</v>
+        <v>1069</v>
       </c>
       <c r="K33" t="s">
-        <v>956</v>
+        <v>931</v>
       </c>
       <c r="L33" t="s">
-        <v>1179</v>
+        <v>1162</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>711</v>
+        <v>683</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1223</v>
+        <v>68</v>
       </c>
       <c r="B34" t="s">
-        <v>488</v>
+        <v>52</v>
       </c>
       <c r="C34" t="s">
-        <v>516</v>
+        <v>116</v>
       </c>
       <c r="E34" t="s">
-        <v>517</v>
+        <v>117</v>
       </c>
       <c r="F34">
-        <v>39.331699999999998</v>
+        <v>40.18</v>
       </c>
       <c r="G34">
-        <v>-119.8</v>
+        <v>-120.60693999999999</v>
       </c>
       <c r="H34">
-        <v>5070</v>
+        <v>4960</v>
       </c>
       <c r="I34" t="s">
         <v>1228</v>
       </c>
       <c r="J34" t="s">
-        <v>1099</v>
+        <v>993</v>
       </c>
       <c r="K34" t="s">
-        <v>961</v>
+        <v>855</v>
       </c>
       <c r="L34" t="s">
-        <v>1179</v>
+        <v>1125</v>
+      </c>
+      <c r="M34" t="s">
+        <v>1393</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>717</v>
+        <v>601</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>1223</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>488</v>
+        <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>500</v>
+        <v>69</v>
       </c>
       <c r="E35" t="s">
-        <v>501</v>
+        <v>70</v>
       </c>
       <c r="F35">
-        <v>39.327219999999997</v>
+        <v>40.003059999999998</v>
       </c>
       <c r="G35">
-        <v>-120.11333</v>
+        <v>-120.95332999999999</v>
       </c>
       <c r="H35">
-        <v>5800</v>
+        <v>3130</v>
       </c>
       <c r="I35" t="s">
         <v>1228</v>
       </c>
       <c r="J35" t="s">
-        <v>1095</v>
+        <v>989</v>
       </c>
       <c r="K35" t="s">
-        <v>957</v>
+        <v>851</v>
       </c>
       <c r="L35" t="s">
-        <v>1179</v>
+        <v>1125</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>712</v>
+        <v>599</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1223</v>
+        <v>1226</v>
       </c>
       <c r="B36" t="s">
         <v>488</v>
       </c>
       <c r="C36" t="s">
-        <v>502</v>
+        <v>539</v>
       </c>
       <c r="E36" t="s">
-        <v>503</v>
+        <v>540</v>
       </c>
       <c r="F36">
-        <v>39.379440000000002</v>
+        <v>38.327779999999997</v>
       </c>
       <c r="G36">
-        <v>-120.13667</v>
+        <v>-119.21389000000001</v>
       </c>
       <c r="H36">
-        <v>5630</v>
+        <v>6561</v>
       </c>
       <c r="I36" t="s">
         <v>1228</v>
       </c>
       <c r="J36" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="K36" t="s">
-        <v>958</v>
+        <v>967</v>
       </c>
       <c r="L36" t="s">
-        <v>1179</v>
+        <v>1182</v>
+      </c>
+      <c r="M36" t="s">
+        <v>1396</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>713</v>
+        <v>724</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1223</v>
+        <v>208</v>
       </c>
       <c r="B37" t="s">
-        <v>488</v>
+        <v>174</v>
       </c>
       <c r="C37" t="s">
-        <v>541</v>
+        <v>206</v>
       </c>
       <c r="E37" t="s">
-        <v>542</v>
+        <v>207</v>
       </c>
       <c r="F37">
-        <v>39.431669999999997</v>
+        <v>37.101669999999999</v>
       </c>
       <c r="G37">
-        <v>-120.23694</v>
+        <v>-119.88</v>
       </c>
       <c r="H37">
-        <v>6320</v>
+        <v>561</v>
       </c>
       <c r="I37" t="s">
         <v>1228</v>
       </c>
       <c r="J37" t="s">
-        <v>1106</v>
+        <v>1021</v>
       </c>
       <c r="K37" t="s">
-        <v>968</v>
+        <v>883</v>
       </c>
       <c r="L37" t="s">
-        <v>1179</v>
+        <v>1136</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>725</v>
+        <v>629</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>1223</v>
+        <v>65</v>
       </c>
       <c r="B38" t="s">
-        <v>488</v>
+        <v>52</v>
       </c>
       <c r="C38" t="s">
-        <v>504</v>
+        <v>62</v>
       </c>
       <c r="D38" t="s">
-        <v>505</v>
+        <v>63</v>
       </c>
       <c r="E38" t="s">
-        <v>506</v>
+        <v>64</v>
       </c>
       <c r="F38">
-        <v>39.470559999999999</v>
+        <v>39.533059999999999</v>
       </c>
       <c r="G38">
-        <v>-120.10306</v>
+        <v>-121.51694000000001</v>
       </c>
       <c r="H38">
-        <v>5949</v>
+        <v>900</v>
       </c>
       <c r="I38" t="s">
         <v>1228</v>
       </c>
       <c r="J38" t="s">
-        <v>1097</v>
+        <v>988</v>
       </c>
       <c r="K38" t="s">
-        <v>959</v>
+        <v>850</v>
       </c>
       <c r="L38" t="s">
-        <v>1179</v>
+        <v>1124</v>
+      </c>
+      <c r="M38" t="s">
+        <v>1422</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>714</v>
+        <v>598</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>1224</v>
+        <v>1185</v>
       </c>
       <c r="B39" t="s">
-        <v>488</v>
+        <v>243</v>
       </c>
       <c r="C39" t="s">
-        <v>532</v>
-      </c>
-      <c r="D39" t="s">
-        <v>533</v>
+        <v>246</v>
       </c>
       <c r="E39" t="s">
-        <v>534</v>
+        <v>247</v>
       </c>
       <c r="F39">
-        <v>39.107779999999998</v>
+        <v>41.926389999999998</v>
       </c>
       <c r="G39">
-        <v>-119.71222</v>
+        <v>-121.07528000000001</v>
       </c>
       <c r="H39">
-        <v>4620</v>
+        <v>4469</v>
       </c>
       <c r="I39" t="s">
         <v>1228</v>
       </c>
       <c r="J39" t="s">
-        <v>1103</v>
+        <v>1034</v>
       </c>
       <c r="K39" t="s">
-        <v>965</v>
+        <v>896</v>
       </c>
       <c r="L39" t="s">
-        <v>1180</v>
+        <v>1141</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>721</v>
+        <v>642</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>1224</v>
+        <v>1185</v>
       </c>
       <c r="B40" t="s">
-        <v>488</v>
+        <v>243</v>
       </c>
       <c r="C40" t="s">
-        <v>525</v>
+        <v>244</v>
       </c>
       <c r="E40" t="s">
-        <v>526</v>
+        <v>245</v>
       </c>
       <c r="F40">
-        <v>38.769440000000003</v>
+        <v>42.20111</v>
       </c>
       <c r="G40">
-        <v>-119.83194</v>
+        <v>-121.13028</v>
       </c>
       <c r="H40">
-        <v>5755</v>
+        <v>4850</v>
       </c>
       <c r="I40" t="s">
         <v>1228</v>
       </c>
       <c r="J40" t="s">
-        <v>1100</v>
+        <v>1033</v>
       </c>
       <c r="K40" t="s">
-        <v>962</v>
+        <v>895</v>
       </c>
       <c r="L40" t="s">
-        <v>1180</v>
-      </c>
-      <c r="M40" t="s">
-        <v>1437</v>
+        <v>1141</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>718</v>
+        <v>641</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>1225</v>
+        <v>173</v>
       </c>
       <c r="B41" t="s">
-        <v>488</v>
+        <v>131</v>
       </c>
       <c r="C41" t="s">
-        <v>537</v>
+        <v>171</v>
       </c>
       <c r="E41" t="s">
-        <v>538</v>
+        <v>172</v>
       </c>
       <c r="F41">
-        <v>38.379719999999999</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="G41">
-        <v>-119.44917</v>
+        <v>-121.16694</v>
       </c>
       <c r="H41">
-        <v>6591</v>
+        <v>350</v>
       </c>
       <c r="I41" t="s">
         <v>1228</v>
       </c>
       <c r="J41" t="s">
-        <v>1104</v>
+        <v>1008</v>
       </c>
       <c r="K41" t="s">
-        <v>966</v>
+        <v>870</v>
       </c>
       <c r="L41" t="s">
-        <v>1181</v>
+        <v>1131</v>
       </c>
       <c r="M41" t="s">
-        <v>1438</v>
+        <v>1405</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>723</v>
+        <v>616</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>68</v>
+        <v>1194</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>283</v>
       </c>
       <c r="C42" t="s">
-        <v>116</v>
+        <v>296</v>
       </c>
       <c r="E42" t="s">
-        <v>117</v>
+        <v>297</v>
       </c>
       <c r="F42">
-        <v>40.18</v>
+        <v>40.479439999999997</v>
       </c>
       <c r="G42">
-        <v>-120.60693999999999</v>
+        <v>-123.88972</v>
       </c>
       <c r="H42">
-        <v>4960</v>
+        <v>358</v>
       </c>
       <c r="I42" t="s">
         <v>1228</v>
       </c>
       <c r="J42" t="s">
-        <v>993</v>
+        <v>1045</v>
       </c>
       <c r="K42" t="s">
-        <v>855</v>
+        <v>907</v>
       </c>
       <c r="L42" t="s">
-        <v>1125</v>
-      </c>
-      <c r="M42" t="s">
-        <v>1393</v>
+        <v>1150</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>601</v>
+        <v>659</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>1194</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>283</v>
       </c>
       <c r="C43" t="s">
-        <v>120</v>
+        <v>313</v>
       </c>
       <c r="E43" t="s">
-        <v>121</v>
+        <v>314</v>
       </c>
       <c r="F43">
-        <v>39.883890000000001</v>
+        <v>40.615830000000003</v>
       </c>
       <c r="G43">
-        <v>-120.47528</v>
+        <v>-124.20166999999999</v>
       </c>
       <c r="H43">
-        <v>5768</v>
+        <v>4</v>
       </c>
       <c r="I43" t="s">
         <v>1228</v>
       </c>
       <c r="J43" t="s">
-        <v>995</v>
+        <v>1052</v>
       </c>
       <c r="K43" t="s">
-        <v>857</v>
+        <v>914</v>
       </c>
       <c r="L43" t="s">
-        <v>1123</v>
-      </c>
-      <c r="M43" t="s">
-        <v>1401</v>
+        <v>1150</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>603</v>
+        <v>666</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>1194</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>283</v>
       </c>
       <c r="C44" t="s">
-        <v>118</v>
+        <v>303</v>
+      </c>
+      <c r="D44" t="s">
+        <v>304</v>
       </c>
       <c r="E44" t="s">
-        <v>119</v>
+        <v>305</v>
       </c>
       <c r="F44">
-        <v>39.893889999999999</v>
+        <v>40.218060000000001</v>
       </c>
       <c r="G44">
-        <v>-120.19028</v>
+        <v>-123.63167</v>
       </c>
       <c r="H44">
-        <v>5517</v>
+        <v>217</v>
       </c>
       <c r="I44" t="s">
         <v>1228</v>
       </c>
       <c r="J44" t="s">
-        <v>994</v>
+        <v>1048</v>
       </c>
       <c r="K44" t="s">
-        <v>856</v>
+        <v>910</v>
       </c>
       <c r="L44" t="s">
-        <v>1123</v>
-      </c>
-      <c r="M44" t="s">
-        <v>1404</v>
+        <v>1150</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>602</v>
+        <v>662</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>81</v>
+        <v>1194</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>283</v>
       </c>
       <c r="C45" t="s">
-        <v>79</v>
+        <v>310</v>
+      </c>
+      <c r="D45" t="s">
+        <v>311</v>
       </c>
       <c r="E45" t="s">
-        <v>80</v>
+        <v>312</v>
       </c>
       <c r="F45">
-        <v>39.524999999999999</v>
+        <v>40.491669999999999</v>
       </c>
       <c r="G45">
-        <v>-120.93694000000001</v>
+        <v>-124.09860999999999</v>
       </c>
       <c r="H45">
-        <v>2453</v>
+        <v>36</v>
       </c>
       <c r="I45" t="s">
         <v>1228</v>
       </c>
       <c r="J45" t="s">
-        <v>990</v>
+        <v>1051</v>
       </c>
       <c r="K45" t="s">
-        <v>852</v>
+        <v>913</v>
       </c>
       <c r="L45" t="s">
-        <v>1126</v>
+        <v>1150</v>
       </c>
       <c r="M45" t="s">
-        <v>1408</v>
+        <v>1429</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>600</v>
+        <v>665</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>81</v>
+        <v>1188</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>243</v>
       </c>
       <c r="C46" t="s">
-        <v>100</v>
-      </c>
-      <c r="D46" t="s">
-        <v>101</v>
+        <v>273</v>
       </c>
       <c r="E46" t="s">
-        <v>102</v>
+        <v>274</v>
       </c>
       <c r="F46">
-        <v>39.239440000000002</v>
+        <v>41.835279999999997</v>
       </c>
       <c r="G46">
-        <v>-121.26667</v>
+        <v>-123.38194</v>
       </c>
       <c r="H46">
-        <v>580</v>
+        <v>1198</v>
       </c>
       <c r="I46" t="s">
         <v>1228</v>
       </c>
       <c r="J46" t="s">
-        <v>992</v>
+        <v>1037</v>
       </c>
       <c r="K46" t="s">
-        <v>854</v>
+        <v>899</v>
       </c>
       <c r="L46" t="s">
-        <v>1126</v>
-      </c>
-      <c r="M46" t="s">
-        <v>1410</v>
+        <v>1144</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>580</v>
+        <v>651</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="E47" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F47">
-        <v>39.708329999999997</v>
+        <v>40.843890000000002</v>
       </c>
       <c r="G47">
-        <v>-121.26944</v>
+        <v>-122.00139</v>
       </c>
       <c r="H47">
-        <v>1560</v>
+        <v>1000</v>
       </c>
       <c r="I47" t="s">
         <v>1228</v>
       </c>
       <c r="J47" t="s">
-        <v>987</v>
+        <v>973</v>
       </c>
       <c r="K47" t="s">
-        <v>849</v>
+        <v>835</v>
       </c>
       <c r="L47" t="s">
-        <v>1123</v>
+        <v>1112</v>
       </c>
       <c r="M47" t="s">
-        <v>1415</v>
+        <v>1424</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>597</v>
+        <v>738</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>81</v>
+        <v>1193</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>283</v>
       </c>
       <c r="C48" t="s">
-        <v>82</v>
-      </c>
-      <c r="D48" t="s">
-        <v>83</v>
+        <v>294</v>
       </c>
       <c r="E48" t="s">
-        <v>84</v>
+        <v>295</v>
       </c>
       <c r="F48">
-        <v>39.392780000000002</v>
+        <v>40.90972</v>
       </c>
       <c r="G48">
-        <v>-121.14028</v>
+        <v>-124.05972</v>
       </c>
       <c r="H48">
-        <v>1965</v>
+        <v>13</v>
       </c>
       <c r="I48" t="s">
         <v>1228</v>
       </c>
       <c r="J48" t="s">
-        <v>991</v>
+        <v>1044</v>
       </c>
       <c r="K48" t="s">
-        <v>853</v>
+        <v>906</v>
       </c>
       <c r="L48" t="s">
-        <v>1126</v>
+        <v>1149</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>739</v>
+        <v>658</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>65</v>
+        <v>1193</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>283</v>
       </c>
       <c r="C49" t="s">
-        <v>62</v>
-      </c>
-      <c r="D49" t="s">
-        <v>63</v>
+        <v>290</v>
       </c>
       <c r="E49" t="s">
-        <v>64</v>
+        <v>291</v>
       </c>
       <c r="F49">
-        <v>39.533059999999999</v>
+        <v>41.299439999999997</v>
       </c>
       <c r="G49">
-        <v>-121.51694000000001</v>
+        <v>-124.05</v>
       </c>
       <c r="H49">
-        <v>900</v>
+        <v>5</v>
       </c>
       <c r="I49" t="s">
         <v>1228</v>
       </c>
       <c r="J49" t="s">
-        <v>988</v>
+        <v>1043</v>
       </c>
       <c r="K49" t="s">
-        <v>850</v>
+        <v>905</v>
       </c>
       <c r="L49" t="s">
-        <v>1124</v>
-      </c>
-      <c r="M49" t="s">
-        <v>1422</v>
+        <v>1149</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>598</v>
+        <v>657</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>53</v>
+        <v>6</v>
+      </c>
+      <c r="D50" t="s">
+        <v>7</v>
       </c>
       <c r="E50" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="F50">
-        <v>40.20917</v>
+        <v>40.958329999999997</v>
       </c>
       <c r="G50">
-        <v>-121.15694000000001</v>
+        <v>-122.21832999999999</v>
       </c>
       <c r="H50">
-        <v>4520</v>
+        <v>1100</v>
       </c>
       <c r="I50" t="s">
         <v>1228</v>
       </c>
       <c r="J50" t="s">
-        <v>986</v>
+        <v>970</v>
       </c>
       <c r="K50" t="s">
-        <v>848</v>
+        <v>832</v>
       </c>
       <c r="L50" t="s">
-        <v>1122</v>
+        <v>1110</v>
       </c>
       <c r="M50" t="s">
-        <v>1425</v>
+        <v>1416</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>596</v>
+        <v>737</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>1195</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>283</v>
       </c>
       <c r="C51" t="s">
-        <v>69</v>
+        <v>298</v>
       </c>
       <c r="E51" t="s">
-        <v>70</v>
+        <v>299</v>
       </c>
       <c r="F51">
-        <v>40.003059999999998</v>
+        <v>39.706389999999999</v>
       </c>
       <c r="G51">
-        <v>-120.95332999999999</v>
+        <v>-123.32417</v>
       </c>
       <c r="H51">
-        <v>3130</v>
+        <v>902</v>
       </c>
       <c r="I51" t="s">
         <v>1228</v>
       </c>
       <c r="J51" t="s">
-        <v>989</v>
+        <v>1046</v>
       </c>
       <c r="K51" t="s">
-        <v>851</v>
+        <v>908</v>
       </c>
       <c r="L51" t="s">
-        <v>1125</v>
+        <v>1151</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>599</v>
+        <v>660</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>830</v>
+        <v>61</v>
       </c>
       <c r="B52" t="s">
-        <v>543</v>
+        <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>562</v>
+        <v>120</v>
       </c>
       <c r="E52" t="s">
-        <v>563</v>
+        <v>121</v>
       </c>
       <c r="F52">
-        <v>40.9925</v>
+        <v>39.883890000000001</v>
       </c>
       <c r="G52">
-        <v>-117.31667</v>
+        <v>-120.47528</v>
       </c>
       <c r="H52">
-        <v>4360</v>
+        <v>5768</v>
       </c>
       <c r="I52" t="s">
         <v>1228</v>
       </c>
       <c r="J52" t="s">
-        <v>1108</v>
+        <v>995</v>
       </c>
       <c r="K52" t="s">
-        <v>830</v>
+        <v>857</v>
       </c>
       <c r="L52" t="s">
-        <v>1108</v>
+        <v>1123</v>
+      </c>
+      <c r="M52" t="s">
+        <v>1401</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>734</v>
+        <v>603</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>830</v>
+        <v>61</v>
       </c>
       <c r="B53" t="s">
-        <v>543</v>
+        <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>552</v>
+        <v>118</v>
       </c>
       <c r="E53" t="s">
-        <v>553</v>
+        <v>119</v>
       </c>
       <c r="F53">
-        <v>40.685000000000002</v>
+        <v>39.893889999999999</v>
       </c>
       <c r="G53">
-        <v>-115.8125</v>
+        <v>-120.19028</v>
       </c>
       <c r="H53">
-        <v>5140</v>
+        <v>5517</v>
       </c>
       <c r="I53" t="s">
         <v>1228</v>
       </c>
       <c r="J53" t="s">
-        <v>1108</v>
+        <v>994</v>
       </c>
       <c r="K53" t="s">
-        <v>830</v>
+        <v>856</v>
       </c>
       <c r="L53" t="s">
-        <v>1108</v>
+        <v>1123</v>
+      </c>
+      <c r="M53" t="s">
+        <v>1404</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>729</v>
+        <v>602</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>830</v>
+        <v>61</v>
       </c>
       <c r="B54" t="s">
-        <v>543</v>
+        <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>548</v>
+        <v>59</v>
       </c>
       <c r="E54" t="s">
-        <v>549</v>
+        <v>60</v>
       </c>
       <c r="F54">
-        <v>41.18056</v>
+        <v>39.708329999999997</v>
       </c>
       <c r="G54">
-        <v>-115.49306</v>
+        <v>-121.26944</v>
       </c>
       <c r="H54">
-        <v>5370</v>
+        <v>1560</v>
       </c>
       <c r="I54" t="s">
         <v>1228</v>
       </c>
       <c r="J54" t="s">
-        <v>1108</v>
+        <v>987</v>
       </c>
       <c r="K54" t="s">
-        <v>830</v>
+        <v>849</v>
       </c>
       <c r="L54" t="s">
-        <v>1108</v>
+        <v>1123</v>
+      </c>
+      <c r="M54" t="s">
+        <v>1415</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>727</v>
+        <v>597</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>830</v>
+        <v>1217</v>
       </c>
       <c r="B55" t="s">
-        <v>543</v>
+        <v>465</v>
       </c>
       <c r="C55" t="s">
-        <v>560</v>
+        <v>466</v>
+      </c>
+      <c r="D55" t="s">
+        <v>467</v>
       </c>
       <c r="E55" t="s">
-        <v>561</v>
+        <v>468</v>
       </c>
       <c r="F55">
-        <v>40.666670000000003</v>
+        <v>35.633330000000001</v>
       </c>
       <c r="G55">
-        <v>-116.93056</v>
+        <v>-118.48333</v>
       </c>
       <c r="H55">
-        <v>4500</v>
+        <v>2515</v>
       </c>
       <c r="I55" t="s">
         <v>1228</v>
       </c>
       <c r="J55" t="s">
-        <v>1108</v>
+        <v>1086</v>
       </c>
       <c r="K55" t="s">
-        <v>830</v>
+        <v>948</v>
       </c>
       <c r="L55" t="s">
-        <v>1108</v>
+        <v>1173</v>
+      </c>
+      <c r="M55" t="s">
+        <v>1412</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>733</v>
+        <v>702</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>830</v>
+        <v>211</v>
       </c>
       <c r="B56" t="s">
-        <v>543</v>
+        <v>174</v>
       </c>
       <c r="C56" t="s">
-        <v>556</v>
+        <v>218</v>
       </c>
       <c r="E56" t="s">
-        <v>557</v>
+        <v>219</v>
       </c>
       <c r="F56">
-        <v>40.727780000000003</v>
+        <v>37.36694</v>
       </c>
       <c r="G56">
-        <v>-116.00833</v>
+        <v>-120.21693999999999</v>
       </c>
       <c r="H56">
-        <v>4932</v>
+        <v>319</v>
       </c>
       <c r="I56" t="s">
         <v>1228</v>
       </c>
       <c r="J56" t="s">
-        <v>1108</v>
+        <v>1026</v>
       </c>
       <c r="K56" t="s">
-        <v>830</v>
+        <v>888</v>
       </c>
       <c r="L56" t="s">
-        <v>1108</v>
+        <v>1137</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>731</v>
+        <v>634</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>830</v>
+        <v>211</v>
       </c>
       <c r="B57" t="s">
-        <v>543</v>
+        <v>174</v>
       </c>
       <c r="C57" t="s">
-        <v>550</v>
+        <v>209</v>
       </c>
       <c r="E57" t="s">
-        <v>551</v>
+        <v>210</v>
       </c>
       <c r="F57">
-        <v>40.936109999999999</v>
+        <v>37.213329999999999</v>
       </c>
       <c r="G57">
-        <v>-115.62361</v>
+        <v>-119.97</v>
       </c>
       <c r="H57">
-        <v>5142</v>
+        <v>450</v>
       </c>
       <c r="I57" t="s">
         <v>1228</v>
       </c>
       <c r="J57" t="s">
-        <v>1108</v>
+        <v>1022</v>
       </c>
       <c r="K57" t="s">
-        <v>830</v>
+        <v>884</v>
       </c>
       <c r="L57" t="s">
-        <v>1108</v>
+        <v>1137</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>728</v>
+        <v>630</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>830</v>
+        <v>211</v>
       </c>
       <c r="B58" t="s">
-        <v>543</v>
+        <v>174</v>
       </c>
       <c r="C58" t="s">
-        <v>564</v>
+        <v>214</v>
       </c>
       <c r="E58" t="s">
-        <v>565</v>
+        <v>215</v>
       </c>
       <c r="F58">
-        <v>40.691670000000002</v>
+        <v>37.376669999999997</v>
       </c>
       <c r="G58">
-        <v>-118.20278</v>
+        <v>-120.27500000000001</v>
       </c>
       <c r="H58">
-        <v>4130</v>
+        <v>319</v>
       </c>
       <c r="I58" t="s">
         <v>1228</v>
       </c>
       <c r="J58" t="s">
-        <v>1108</v>
+        <v>1024</v>
       </c>
       <c r="K58" t="s">
-        <v>830</v>
+        <v>886</v>
       </c>
       <c r="L58" t="s">
-        <v>1108</v>
+        <v>1137</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>735</v>
+        <v>632</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>830</v>
+        <v>211</v>
       </c>
       <c r="B59" t="s">
-        <v>543</v>
+        <v>174</v>
       </c>
       <c r="C59" t="s">
-        <v>568</v>
+        <v>220</v>
       </c>
       <c r="E59" t="s">
-        <v>569</v>
+        <v>221</v>
       </c>
       <c r="F59">
-        <v>41.533329999999999</v>
+        <v>37.308889999999998</v>
       </c>
       <c r="G59">
-        <v>-117.42778</v>
+        <v>-120.44389</v>
       </c>
       <c r="H59">
-        <v>4700</v>
+        <v>187</v>
       </c>
       <c r="I59" t="s">
         <v>1228</v>
       </c>
       <c r="J59" t="s">
-        <v>1108</v>
+        <v>1027</v>
       </c>
       <c r="K59" t="s">
-        <v>830</v>
+        <v>889</v>
       </c>
       <c r="L59" t="s">
-        <v>1108</v>
+        <v>1137</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>736</v>
+        <v>635</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>830</v>
+        <v>211</v>
       </c>
       <c r="B60" t="s">
-        <v>543</v>
+        <v>174</v>
       </c>
       <c r="C60" t="s">
-        <v>546</v>
+        <v>216</v>
       </c>
       <c r="E60" t="s">
-        <v>547</v>
+        <v>217</v>
       </c>
       <c r="F60">
-        <v>41.252780000000001</v>
+        <v>37.291939999999997</v>
       </c>
       <c r="G60">
-        <v>-115.25556</v>
+        <v>-120.14694</v>
       </c>
       <c r="H60">
-        <v>5504</v>
+        <v>459</v>
       </c>
       <c r="I60" t="s">
         <v>1228</v>
       </c>
       <c r="J60" t="s">
-        <v>1108</v>
+        <v>1025</v>
       </c>
       <c r="K60" t="s">
-        <v>830</v>
+        <v>887</v>
       </c>
       <c r="L60" t="s">
-        <v>1108</v>
+        <v>1137</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>726</v>
+        <v>633</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>830</v>
+        <v>211</v>
       </c>
       <c r="B61" t="s">
-        <v>543</v>
+        <v>174</v>
       </c>
       <c r="C61" t="s">
-        <v>558</v>
+        <v>212</v>
       </c>
       <c r="E61" t="s">
-        <v>559</v>
+        <v>213</v>
       </c>
       <c r="F61">
-        <v>40.607219999999998</v>
+        <v>37.315280000000001</v>
       </c>
       <c r="G61">
-        <v>-116.20193999999999</v>
+        <v>-120.18694000000001</v>
       </c>
       <c r="H61">
-        <v>4826</v>
+        <v>385</v>
       </c>
       <c r="I61" t="s">
         <v>1228</v>
       </c>
       <c r="J61" t="s">
-        <v>1108</v>
+        <v>1023</v>
       </c>
       <c r="K61" t="s">
-        <v>830</v>
+        <v>885</v>
       </c>
       <c r="L61" t="s">
-        <v>1108</v>
+        <v>1137</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>732</v>
+        <v>631</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>830</v>
+        <v>1215</v>
       </c>
       <c r="B62" t="s">
-        <v>543</v>
+        <v>389</v>
       </c>
       <c r="C62" t="s">
-        <v>554</v>
+        <v>428</v>
       </c>
       <c r="E62" t="s">
-        <v>555</v>
+        <v>429</v>
       </c>
       <c r="F62">
-        <v>40.825000000000003</v>
+        <v>34.34111</v>
       </c>
       <c r="G62">
-        <v>-116.58333</v>
+        <v>-117.22750000000001</v>
       </c>
       <c r="H62">
-        <v>4670</v>
+        <v>3050</v>
       </c>
       <c r="I62" t="s">
         <v>1228</v>
       </c>
       <c r="J62" t="s">
-        <v>1108</v>
+        <v>1081</v>
       </c>
       <c r="K62" t="s">
-        <v>830</v>
+        <v>943</v>
       </c>
       <c r="L62" t="s">
-        <v>1108</v>
+        <v>1171</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>730</v>
+        <v>696</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>830</v>
+        <v>1215</v>
       </c>
       <c r="B63" t="s">
-        <v>243</v>
+        <v>389</v>
       </c>
       <c r="C63" t="s">
-        <v>248</v>
+        <v>432</v>
+      </c>
+      <c r="D63" t="s">
+        <v>433</v>
       </c>
       <c r="E63" t="s">
-        <v>249</v>
+        <v>434</v>
       </c>
       <c r="F63">
-        <v>42.447220000000002</v>
+        <v>34.342500000000001</v>
       </c>
       <c r="G63">
-        <v>-121.2375</v>
+        <v>-117.235</v>
       </c>
       <c r="H63">
-        <v>4305</v>
+        <v>3134</v>
       </c>
       <c r="I63" t="s">
         <v>1228</v>
       </c>
       <c r="J63" t="s">
-        <v>1107</v>
+        <v>1081</v>
       </c>
       <c r="K63" t="s">
-        <v>830</v>
+        <v>943</v>
       </c>
       <c r="L63" t="s">
-        <v>1107</v>
+        <v>1171</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>643</v>
+        <v>698</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>1190</v>
+        <v>1215</v>
       </c>
       <c r="B64" t="s">
-        <v>243</v>
+        <v>389</v>
       </c>
       <c r="C64" t="s">
-        <v>279</v>
+        <v>435</v>
       </c>
       <c r="E64" t="s">
-        <v>280</v>
+        <v>436</v>
       </c>
       <c r="F64">
-        <v>40.801389999999998</v>
+        <v>34.573059999999998</v>
       </c>
       <c r="G64">
-        <v>-122.76222</v>
+        <v>-117.31972</v>
       </c>
       <c r="H64">
-        <v>2370</v>
+        <v>2643</v>
       </c>
       <c r="I64" t="s">
         <v>1228</v>
       </c>
       <c r="J64" t="s">
-        <v>1040</v>
+        <v>1083</v>
       </c>
       <c r="K64" t="s">
-        <v>902</v>
+        <v>945</v>
       </c>
       <c r="L64" t="s">
-        <v>1146</v>
-      </c>
-      <c r="M64" t="s">
-        <v>1398</v>
+        <v>1171</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>654</v>
+        <v>699</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>830</v>
+        <v>1215</v>
       </c>
       <c r="B65" t="s">
-        <v>243</v>
+        <v>389</v>
       </c>
       <c r="C65" t="s">
-        <v>252</v>
+        <v>430</v>
       </c>
       <c r="E65" t="s">
-        <v>253</v>
+        <v>431</v>
       </c>
       <c r="F65">
-        <v>42.584719999999997</v>
+        <v>34.338889999999999</v>
       </c>
       <c r="G65">
-        <v>-121.84860999999999</v>
+        <v>-117.25694</v>
       </c>
       <c r="H65">
-        <v>4202</v>
+        <v>3040</v>
       </c>
       <c r="I65" t="s">
         <v>1228</v>
       </c>
       <c r="J65" t="s">
-        <v>1107</v>
+        <v>1082</v>
       </c>
       <c r="K65" t="s">
-        <v>830</v>
+        <v>944</v>
       </c>
       <c r="L65" t="s">
-        <v>1107</v>
+        <v>1171</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>645</v>
+        <v>697</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>1185</v>
+        <v>134</v>
       </c>
       <c r="B66" t="s">
-        <v>243</v>
+        <v>131</v>
       </c>
       <c r="C66" t="s">
-        <v>246</v>
+        <v>135</v>
       </c>
       <c r="E66" t="s">
-        <v>247</v>
+        <v>136</v>
       </c>
       <c r="F66">
-        <v>41.926389999999998</v>
+        <v>39.110280000000003</v>
       </c>
       <c r="G66">
-        <v>-121.07528000000001</v>
+        <v>-120.43056</v>
       </c>
       <c r="H66">
-        <v>4469</v>
+        <v>5263</v>
       </c>
       <c r="I66" t="s">
         <v>1228</v>
       </c>
       <c r="J66" t="s">
-        <v>1034</v>
+        <v>999</v>
       </c>
       <c r="K66" t="s">
-        <v>896</v>
+        <v>861</v>
       </c>
       <c r="L66" t="s">
-        <v>1141</v>
+        <v>1129</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>642</v>
+        <v>607</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>1187</v>
+        <v>134</v>
       </c>
       <c r="B67" t="s">
-        <v>243</v>
+        <v>131</v>
       </c>
       <c r="C67" t="s">
-        <v>271</v>
+        <v>142</v>
+      </c>
+      <c r="D67" t="s">
+        <v>143</v>
       </c>
       <c r="E67" t="s">
-        <v>272</v>
+        <v>144</v>
       </c>
       <c r="F67">
-        <v>41.640830000000001</v>
+        <v>39.071669999999997</v>
       </c>
       <c r="G67">
-        <v>-123.01389</v>
+        <v>-120.42167000000001</v>
       </c>
       <c r="H67">
-        <v>2624</v>
+        <v>5240</v>
       </c>
       <c r="I67" t="s">
         <v>1228</v>
       </c>
       <c r="J67" t="s">
-        <v>1036</v>
+        <v>1001</v>
       </c>
       <c r="K67" t="s">
-        <v>898</v>
+        <v>863</v>
       </c>
       <c r="L67" t="s">
-        <v>1143</v>
-      </c>
-      <c r="M67" t="s">
-        <v>1407</v>
+        <v>1129</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>650</v>
+        <v>609</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>1185</v>
+        <v>134</v>
       </c>
       <c r="B68" t="s">
-        <v>243</v>
+        <v>131</v>
       </c>
       <c r="C68" t="s">
-        <v>244</v>
+        <v>155</v>
+      </c>
+      <c r="D68" t="s">
+        <v>156</v>
       </c>
       <c r="E68" t="s">
-        <v>245</v>
+        <v>157</v>
       </c>
       <c r="F68">
-        <v>42.20111</v>
+        <v>39.00611</v>
       </c>
       <c r="G68">
-        <v>-121.13028</v>
+        <v>-120.75972</v>
       </c>
       <c r="H68">
-        <v>4850</v>
+        <v>1070</v>
       </c>
       <c r="I68" t="s">
         <v>1228</v>
       </c>
       <c r="J68" t="s">
-        <v>1033</v>
+        <v>1003</v>
       </c>
       <c r="K68" t="s">
-        <v>895</v>
+        <v>865</v>
       </c>
       <c r="L68" t="s">
-        <v>1141</v>
+        <v>1129</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>641</v>
+        <v>611</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>1188</v>
+        <v>134</v>
       </c>
       <c r="B69" t="s">
-        <v>243</v>
+        <v>131</v>
       </c>
       <c r="C69" t="s">
-        <v>273</v>
+        <v>137</v>
+      </c>
+      <c r="D69" t="s">
+        <v>138</v>
       </c>
       <c r="E69" t="s">
-        <v>274</v>
+        <v>139</v>
       </c>
       <c r="F69">
-        <v>41.835279999999997</v>
+        <v>39.025280000000002</v>
       </c>
       <c r="G69">
-        <v>-123.38194</v>
+        <v>-120.59444000000001</v>
       </c>
       <c r="H69">
-        <v>1198</v>
+        <v>2540</v>
       </c>
       <c r="I69" t="s">
         <v>1228</v>
       </c>
       <c r="J69" t="s">
-        <v>1037</v>
+        <v>1000</v>
       </c>
       <c r="K69" t="s">
-        <v>899</v>
+        <v>862</v>
       </c>
       <c r="L69" t="s">
-        <v>1144</v>
+        <v>1129</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>651</v>
+        <v>608</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>1191</v>
+        <v>134</v>
       </c>
       <c r="B70" t="s">
-        <v>243</v>
+        <v>131</v>
       </c>
       <c r="C70" t="s">
-        <v>281</v>
+        <v>132</v>
       </c>
       <c r="E70" t="s">
-        <v>282</v>
+        <v>133</v>
       </c>
       <c r="F70">
-        <v>40.65</v>
+        <v>38.936109999999999</v>
       </c>
       <c r="G70">
-        <v>-123.49306</v>
+        <v>-121.02278</v>
       </c>
       <c r="H70">
-        <v>1211</v>
+        <v>715</v>
       </c>
       <c r="I70" t="s">
         <v>1228</v>
       </c>
       <c r="J70" t="s">
-        <v>1041</v>
+        <v>998</v>
       </c>
       <c r="K70" t="s">
-        <v>903</v>
+        <v>860</v>
       </c>
       <c r="L70" t="s">
-        <v>1147</v>
+        <v>1129</v>
+      </c>
+      <c r="M70" t="s">
+        <v>1419</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>655</v>
+        <v>606</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>830</v>
+        <v>134</v>
       </c>
       <c r="B71" t="s">
-        <v>243</v>
+        <v>131</v>
       </c>
       <c r="C71" t="s">
-        <v>258</v>
+        <v>153</v>
       </c>
       <c r="E71" t="s">
-        <v>259</v>
+        <v>154</v>
       </c>
       <c r="F71">
-        <v>42.25</v>
+        <v>39.024169999999998</v>
       </c>
       <c r="G71">
-        <v>-121.81528</v>
+        <v>-120.7175</v>
       </c>
       <c r="H71">
-        <v>4098</v>
+        <v>1302</v>
       </c>
       <c r="I71" t="s">
         <v>1228</v>
       </c>
       <c r="J71" t="s">
-        <v>1107</v>
+        <v>1002</v>
       </c>
       <c r="K71" t="s">
-        <v>830</v>
+        <v>864</v>
       </c>
       <c r="L71" t="s">
-        <v>1107</v>
+        <v>1129</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>648</v>
+        <v>610</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>1189</v>
+        <v>55</v>
       </c>
       <c r="B72" t="s">
-        <v>243</v>
+        <v>52</v>
       </c>
       <c r="C72" t="s">
-        <v>275</v>
+        <v>53</v>
       </c>
       <c r="E72" t="s">
-        <v>276</v>
+        <v>54</v>
       </c>
       <c r="F72">
-        <v>41.377780000000001</v>
+        <v>40.20917</v>
       </c>
       <c r="G72">
-        <v>-123.47638999999999</v>
+        <v>-121.15694000000001</v>
       </c>
       <c r="H72">
-        <v>483</v>
+        <v>4520</v>
       </c>
       <c r="I72" t="s">
         <v>1228</v>
       </c>
       <c r="J72" t="s">
-        <v>1038</v>
+        <v>986</v>
       </c>
       <c r="K72" t="s">
-        <v>900</v>
+        <v>848</v>
       </c>
       <c r="L72" t="s">
-        <v>1145</v>
+        <v>1122</v>
       </c>
       <c r="M72" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>652</v>
+        <v>596</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>830</v>
+        <v>1203</v>
       </c>
       <c r="B73" t="s">
-        <v>243</v>
+        <v>340</v>
       </c>
       <c r="C73" t="s">
-        <v>250</v>
+        <v>363</v>
       </c>
       <c r="E73" t="s">
-        <v>251</v>
+        <v>364</v>
       </c>
       <c r="F73">
-        <v>42.486109999999996</v>
+        <v>36.900280000000002</v>
       </c>
       <c r="G73">
-        <v>-121.27778000000001</v>
+        <v>-121.59667</v>
       </c>
       <c r="H73">
-        <v>4325</v>
+        <v>82</v>
       </c>
       <c r="I73" t="s">
         <v>1228</v>
       </c>
       <c r="J73" t="s">
-        <v>1107</v>
+        <v>1065</v>
       </c>
       <c r="K73" t="s">
-        <v>830</v>
+        <v>927</v>
       </c>
       <c r="L73" t="s">
-        <v>1107</v>
+        <v>1159</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>644</v>
+        <v>679</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>1190</v>
+        <v>1203</v>
       </c>
       <c r="B74" t="s">
-        <v>243</v>
+        <v>340</v>
       </c>
       <c r="C74" t="s">
-        <v>277</v>
+        <v>359</v>
       </c>
       <c r="E74" t="s">
-        <v>278</v>
+        <v>360</v>
       </c>
       <c r="F74">
-        <v>41.11139</v>
+        <v>36.851939999999999</v>
       </c>
       <c r="G74">
-        <v>-122.70444000000001</v>
+        <v>-121.42889</v>
       </c>
       <c r="H74">
-        <v>2537</v>
+        <v>260</v>
       </c>
       <c r="I74" t="s">
         <v>1228</v>
       </c>
       <c r="J74" t="s">
-        <v>1039</v>
+        <v>1064</v>
       </c>
       <c r="K74" t="s">
-        <v>901</v>
+        <v>926</v>
       </c>
       <c r="L74" t="s">
-        <v>1146</v>
+        <v>1159</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>653</v>
+        <v>678</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>830</v>
+        <v>1203</v>
       </c>
       <c r="B75" t="s">
-        <v>243</v>
+        <v>340</v>
       </c>
       <c r="C75" t="s">
-        <v>254</v>
+        <v>355</v>
       </c>
       <c r="E75" t="s">
-        <v>255</v>
+        <v>356</v>
       </c>
       <c r="F75">
-        <v>42.740279999999998</v>
+        <v>36.609439999999999</v>
       </c>
       <c r="G75">
-        <v>-121.83333</v>
+        <v>-121.20193999999999</v>
       </c>
       <c r="H75">
-        <v>4483</v>
+        <v>925</v>
       </c>
       <c r="I75" t="s">
         <v>1228</v>
       </c>
       <c r="J75" t="s">
-        <v>1107</v>
+        <v>1063</v>
       </c>
       <c r="K75" t="s">
-        <v>830</v>
+        <v>925</v>
       </c>
       <c r="L75" t="s">
-        <v>1107</v>
+        <v>1159</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>646</v>
+        <v>677</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>830</v>
+        <v>23</v>
       </c>
       <c r="B76" t="s">
-        <v>243</v>
+        <v>0</v>
       </c>
       <c r="C76" t="s">
-        <v>256</v>
+        <v>20</v>
+      </c>
+      <c r="D76" t="s">
+        <v>21</v>
       </c>
       <c r="E76" t="s">
-        <v>257</v>
+        <v>22</v>
       </c>
       <c r="F76">
-        <v>42.564999999999998</v>
+        <v>40.288609999999998</v>
       </c>
       <c r="G76">
-        <v>-121.87833000000001</v>
+        <v>-122.18556</v>
       </c>
       <c r="H76">
-        <v>4148</v>
+        <v>286</v>
       </c>
       <c r="I76" t="s">
         <v>1228</v>
       </c>
       <c r="J76" t="s">
-        <v>1107</v>
+        <v>975</v>
       </c>
       <c r="K76" t="s">
-        <v>830</v>
+        <v>837</v>
       </c>
       <c r="L76" t="s">
-        <v>1107</v>
+        <v>1114</v>
+      </c>
+      <c r="M76" t="s">
+        <v>1395</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>647</v>
+        <v>585</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>1186</v>
+        <v>1199</v>
       </c>
       <c r="B77" t="s">
-        <v>243</v>
+        <v>315</v>
       </c>
       <c r="C77" t="s">
-        <v>269</v>
+        <v>320</v>
       </c>
       <c r="E77" t="s">
-        <v>270</v>
+        <v>321</v>
       </c>
       <c r="F77">
-        <v>41.823059999999998</v>
+        <v>39.19556</v>
       </c>
       <c r="G77">
-        <v>-122.59444000000001</v>
+        <v>-123.19389</v>
       </c>
       <c r="H77">
-        <v>2000</v>
+        <v>599</v>
       </c>
       <c r="I77" t="s">
         <v>1228</v>
       </c>
       <c r="J77" t="s">
-        <v>1035</v>
+        <v>1054</v>
       </c>
       <c r="K77" t="s">
-        <v>897</v>
+        <v>916</v>
       </c>
       <c r="L77" t="s">
-        <v>1142</v>
+        <v>1155</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>649</v>
+        <v>668</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>1193</v>
+        <v>1199</v>
       </c>
       <c r="B78" t="s">
-        <v>283</v>
+        <v>315</v>
       </c>
       <c r="C78" t="s">
-        <v>294</v>
+        <v>320</v>
+      </c>
+      <c r="D78" t="s">
+        <v>331</v>
       </c>
       <c r="E78" t="s">
-        <v>295</v>
+        <v>321</v>
       </c>
       <c r="F78">
-        <v>40.90972</v>
+        <v>39.19556</v>
       </c>
       <c r="G78">
-        <v>-124.05972</v>
+        <v>-123.19389</v>
       </c>
       <c r="H78">
-        <v>13</v>
+        <v>599</v>
       </c>
       <c r="I78" t="s">
         <v>1228</v>
       </c>
       <c r="J78" t="s">
-        <v>1044</v>
+        <v>1054</v>
       </c>
       <c r="K78" t="s">
-        <v>906</v>
+        <v>916</v>
       </c>
       <c r="L78" t="s">
-        <v>1149</v>
+        <v>1155</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>658</v>
+        <v>668</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>1194</v>
+        <v>1199</v>
       </c>
       <c r="B79" t="s">
-        <v>283</v>
+        <v>315</v>
       </c>
       <c r="C79" t="s">
-        <v>296</v>
+        <v>332</v>
       </c>
       <c r="E79" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="F79">
-        <v>40.479439999999997</v>
+        <v>38.723059999999997</v>
       </c>
       <c r="G79">
-        <v>-123.88972</v>
+        <v>-123.01</v>
       </c>
       <c r="H79">
-        <v>358</v>
+        <v>440</v>
       </c>
       <c r="I79" t="s">
         <v>1228</v>
       </c>
       <c r="J79" t="s">
-        <v>1045</v>
+        <v>1055</v>
       </c>
       <c r="K79" t="s">
-        <v>907</v>
+        <v>917</v>
       </c>
       <c r="L79" t="s">
-        <v>1150</v>
+        <v>1155</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>659</v>
+        <v>669</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>1192</v>
+        <v>1183</v>
       </c>
       <c r="B80" t="s">
-        <v>283</v>
+        <v>0</v>
       </c>
       <c r="C80" t="s">
-        <v>284</v>
+        <v>1</v>
       </c>
       <c r="E80" t="s">
-        <v>285</v>
+        <v>2</v>
       </c>
       <c r="F80">
-        <v>41.789439999999999</v>
+        <v>40.939720000000001</v>
       </c>
       <c r="G80">
-        <v>-124.05389</v>
+        <v>-122.41611</v>
       </c>
       <c r="H80">
-        <v>110</v>
+        <v>1075</v>
       </c>
       <c r="I80" t="s">
         <v>1228</v>
       </c>
       <c r="J80" t="s">
-        <v>1042</v>
+        <v>969</v>
       </c>
       <c r="K80" t="s">
-        <v>904</v>
+        <v>831</v>
       </c>
       <c r="L80" t="s">
-        <v>1148</v>
+        <v>1109</v>
+      </c>
+      <c r="M80" t="s">
+        <v>1400</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>656</v>
+        <v>581</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>1195</v>
+        <v>1201</v>
       </c>
       <c r="B81" t="s">
-        <v>283</v>
+        <v>340</v>
       </c>
       <c r="C81" t="s">
-        <v>298</v>
+        <v>347</v>
       </c>
       <c r="E81" t="s">
-        <v>299</v>
+        <v>348</v>
       </c>
       <c r="F81">
-        <v>39.706389999999999</v>
+        <v>35.755830000000003</v>
       </c>
       <c r="G81">
-        <v>-123.32417</v>
+        <v>-120.89111</v>
       </c>
       <c r="H81">
-        <v>902</v>
+        <v>825</v>
       </c>
       <c r="I81" t="s">
         <v>1228</v>
       </c>
       <c r="J81" t="s">
-        <v>1046</v>
+        <v>1059</v>
       </c>
       <c r="K81" t="s">
-        <v>908</v>
+        <v>921</v>
       </c>
       <c r="L81" t="s">
-        <v>1151</v>
+        <v>1157</v>
+      </c>
+      <c r="M81" t="s">
+        <v>1417</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>660</v>
+        <v>673</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>1194</v>
+        <v>1201</v>
       </c>
       <c r="B82" t="s">
-        <v>283</v>
+        <v>340</v>
       </c>
       <c r="C82" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="E82" t="s">
-        <v>314</v>
+        <v>350</v>
       </c>
       <c r="F82">
-        <v>40.615830000000003</v>
+        <v>35.627780000000001</v>
       </c>
       <c r="G82">
-        <v>-124.20166999999999</v>
+        <v>-120.68556</v>
       </c>
       <c r="H82">
-        <v>4</v>
+        <v>700</v>
       </c>
       <c r="I82" t="s">
         <v>1228</v>
       </c>
       <c r="J82" t="s">
-        <v>1052</v>
+        <v>1060</v>
       </c>
       <c r="K82" t="s">
-        <v>914</v>
+        <v>922</v>
       </c>
       <c r="L82" t="s">
-        <v>1150</v>
+        <v>1157</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>1194</v>
+        <v>1201</v>
       </c>
       <c r="B83" t="s">
-        <v>283</v>
+        <v>340</v>
       </c>
       <c r="C83" t="s">
-        <v>303</v>
-      </c>
-      <c r="D83" t="s">
-        <v>304</v>
+        <v>345</v>
       </c>
       <c r="E83" t="s">
-        <v>305</v>
+        <v>346</v>
       </c>
       <c r="F83">
-        <v>40.218060000000001</v>
+        <v>35.789439999999999</v>
       </c>
       <c r="G83">
-        <v>-123.63167</v>
+        <v>-120.88333</v>
       </c>
       <c r="H83">
-        <v>217</v>
+        <v>800</v>
       </c>
       <c r="I83" t="s">
         <v>1228</v>
       </c>
       <c r="J83" t="s">
-        <v>1048</v>
+        <v>1058</v>
       </c>
       <c r="K83" t="s">
-        <v>910</v>
+        <v>920</v>
       </c>
       <c r="L83" t="s">
-        <v>1150</v>
+        <v>1157</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>662</v>
+        <v>672</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>1197</v>
+        <v>1189</v>
       </c>
       <c r="B84" t="s">
-        <v>283</v>
+        <v>243</v>
       </c>
       <c r="C84" t="s">
-        <v>306</v>
+        <v>275</v>
       </c>
       <c r="E84" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
       <c r="F84">
-        <v>39.874720000000003</v>
+        <v>41.377780000000001</v>
       </c>
       <c r="G84">
-        <v>-123.71944000000001</v>
+        <v>-123.47638999999999</v>
       </c>
       <c r="H84">
-        <v>700</v>
+        <v>483</v>
       </c>
       <c r="I84" t="s">
         <v>1228</v>
       </c>
       <c r="J84" t="s">
-        <v>1049</v>
+        <v>1038</v>
       </c>
       <c r="K84" t="s">
-        <v>911</v>
+        <v>900</v>
       </c>
       <c r="L84" t="s">
-        <v>1153</v>
+        <v>1145</v>
+      </c>
+      <c r="M84" t="s">
+        <v>1428</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>1197</v>
+        <v>1211</v>
       </c>
       <c r="B85" t="s">
-        <v>283</v>
+        <v>389</v>
       </c>
       <c r="C85" t="s">
-        <v>308</v>
+        <v>404</v>
       </c>
       <c r="E85" t="s">
-        <v>309</v>
+        <v>405</v>
       </c>
       <c r="F85">
-        <v>40.182220000000001</v>
+        <v>32.882219999999997</v>
       </c>
       <c r="G85">
-        <v>-123.77500000000001</v>
+        <v>-116.80695</v>
       </c>
       <c r="H85">
-        <v>218</v>
+        <v>800</v>
       </c>
       <c r="I85" t="s">
         <v>1228</v>
       </c>
       <c r="J85" t="s">
-        <v>1050</v>
+        <v>1075</v>
       </c>
       <c r="K85" t="s">
-        <v>912</v>
+        <v>937</v>
       </c>
       <c r="L85" t="s">
-        <v>1153</v>
+        <v>1167</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>664</v>
+        <v>689</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>1193</v>
+        <v>1211</v>
       </c>
       <c r="B86" t="s">
-        <v>283</v>
+        <v>389</v>
       </c>
       <c r="C86" t="s">
-        <v>290</v>
+        <v>406</v>
       </c>
       <c r="E86" t="s">
-        <v>291</v>
+        <v>407</v>
       </c>
       <c r="F86">
-        <v>41.299439999999997</v>
+        <v>32.912779999999998</v>
       </c>
       <c r="G86">
-        <v>-124.05</v>
+        <v>-116.92416</v>
       </c>
       <c r="H86">
-        <v>5</v>
+        <v>663</v>
       </c>
       <c r="I86" t="s">
         <v>1228</v>
       </c>
       <c r="J86" t="s">
-        <v>1043</v>
+        <v>1076</v>
       </c>
       <c r="K86" t="s">
-        <v>905</v>
+        <v>938</v>
       </c>
       <c r="L86" t="s">
-        <v>1149</v>
+        <v>1167</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>657</v>
+        <v>690</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>1196</v>
+        <v>1205</v>
       </c>
       <c r="B87" t="s">
-        <v>283</v>
+        <v>340</v>
       </c>
       <c r="C87" t="s">
-        <v>300</v>
-      </c>
-      <c r="D87" t="s">
-        <v>301</v>
+        <v>383</v>
       </c>
       <c r="E87" t="s">
-        <v>302</v>
+        <v>384</v>
       </c>
       <c r="F87">
-        <v>39.408329999999999</v>
+        <v>37.4925</v>
       </c>
       <c r="G87">
-        <v>-122.95834000000001</v>
+        <v>-121.81973000000001</v>
       </c>
       <c r="H87">
-        <v>1910</v>
+        <v>775</v>
       </c>
       <c r="I87" t="s">
         <v>1228</v>
       </c>
       <c r="J87" t="s">
-        <v>1047</v>
+        <v>1068</v>
       </c>
       <c r="K87" t="s">
-        <v>909</v>
+        <v>930</v>
       </c>
       <c r="L87" t="s">
-        <v>1152</v>
+        <v>1161</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>661</v>
+        <v>682</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>1194</v>
+        <v>1210</v>
       </c>
       <c r="B88" t="s">
-        <v>283</v>
+        <v>389</v>
       </c>
       <c r="C88" t="s">
-        <v>310</v>
-      </c>
-      <c r="D88" t="s">
-        <v>311</v>
+        <v>402</v>
       </c>
       <c r="E88" t="s">
-        <v>312</v>
+        <v>403</v>
       </c>
       <c r="F88">
-        <v>40.491669999999999</v>
+        <v>33.238610000000001</v>
       </c>
       <c r="G88">
-        <v>-124.09860999999999</v>
+        <v>-116.76167</v>
       </c>
       <c r="H88">
-        <v>36</v>
+        <v>2750</v>
       </c>
       <c r="I88" t="s">
         <v>1228</v>
       </c>
       <c r="J88" t="s">
-        <v>1051</v>
+        <v>1074</v>
       </c>
       <c r="K88" t="s">
-        <v>913</v>
+        <v>936</v>
       </c>
       <c r="L88" t="s">
-        <v>1150</v>
-      </c>
-      <c r="M88" t="s">
-        <v>1429</v>
+        <v>1166</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>665</v>
+        <v>688</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>227</v>
+        <v>1210</v>
       </c>
       <c r="B89" t="s">
-        <v>224</v>
+        <v>389</v>
       </c>
       <c r="C89" t="s">
-        <v>225</v>
+        <v>439</v>
       </c>
       <c r="E89" t="s">
-        <v>226</v>
+        <v>440</v>
       </c>
       <c r="F89">
-        <v>38.25694</v>
+        <v>33.218060000000001</v>
       </c>
       <c r="G89">
-        <v>-120.84972</v>
+        <v>-117.35944000000001</v>
       </c>
       <c r="H89">
-        <v>658</v>
+        <v>20</v>
       </c>
       <c r="I89" t="s">
         <v>1228</v>
       </c>
       <c r="J89" t="s">
-        <v>1028</v>
+        <v>1085</v>
       </c>
       <c r="K89" t="s">
-        <v>890</v>
+        <v>947</v>
       </c>
       <c r="L89" t="s">
-        <v>1138</v>
+        <v>1166</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>636</v>
+        <v>701</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>236</v>
+        <v>1200</v>
       </c>
       <c r="B90" t="s">
-        <v>224</v>
+        <v>315</v>
       </c>
       <c r="C90" t="s">
-        <v>241</v>
+        <v>338</v>
       </c>
       <c r="E90" t="s">
-        <v>242</v>
+        <v>339</v>
       </c>
       <c r="F90">
-        <v>38.588889999999999</v>
+        <v>38.36833</v>
       </c>
       <c r="G90">
-        <v>-120.84389</v>
+        <v>-122.30222000000001</v>
       </c>
       <c r="H90">
-        <v>1004</v>
+        <v>25</v>
       </c>
       <c r="I90" t="s">
         <v>1228</v>
       </c>
       <c r="J90" t="s">
-        <v>1032</v>
+        <v>1057</v>
       </c>
       <c r="K90" t="s">
-        <v>894</v>
+        <v>919</v>
       </c>
       <c r="L90" t="s">
-        <v>1140</v>
+        <v>1156</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>640</v>
+        <v>671</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>236</v>
+        <v>1200</v>
       </c>
       <c r="B91" t="s">
-        <v>224</v>
+        <v>315</v>
       </c>
       <c r="C91" t="s">
-        <v>234</v>
+        <v>336</v>
       </c>
       <c r="E91" t="s">
-        <v>235</v>
+        <v>337</v>
       </c>
       <c r="F91">
-        <v>38.500279999999997</v>
+        <v>38.511389999999999</v>
       </c>
       <c r="G91">
-        <v>-121.04416999999999</v>
+        <v>-122.45471999999999</v>
       </c>
       <c r="H91">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="I91" t="s">
         <v>1228</v>
       </c>
       <c r="J91" t="s">
-        <v>1030</v>
+        <v>1056</v>
       </c>
       <c r="K91" t="s">
-        <v>892</v>
+        <v>918</v>
       </c>
       <c r="L91" t="s">
-        <v>1140</v>
+        <v>1156</v>
       </c>
       <c r="M91" t="s">
-        <v>1414</v>
+        <v>1432</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>638</v>
+        <v>670</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>233</v>
+        <v>1209</v>
       </c>
       <c r="B92" t="s">
-        <v>224</v>
+        <v>389</v>
       </c>
       <c r="C92" t="s">
-        <v>231</v>
+        <v>400</v>
       </c>
       <c r="E92" t="s">
-        <v>232</v>
+        <v>401</v>
       </c>
       <c r="F92">
-        <v>38.155000000000001</v>
+        <v>34.108330000000002</v>
       </c>
       <c r="G92">
-        <v>-120.81389</v>
+        <v>-117.09972</v>
       </c>
       <c r="H92">
-        <v>554</v>
+        <v>1950</v>
       </c>
       <c r="I92" t="s">
         <v>1228</v>
       </c>
       <c r="J92" t="s">
-        <v>1029</v>
+        <v>1073</v>
       </c>
       <c r="K92" t="s">
-        <v>891</v>
+        <v>935</v>
       </c>
       <c r="L92" t="s">
-        <v>1139</v>
+        <v>1165</v>
       </c>
       <c r="M92" t="s">
-        <v>1420</v>
+        <v>1433</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>637</v>
+        <v>687</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>236</v>
+        <v>1214</v>
       </c>
       <c r="B93" t="s">
-        <v>224</v>
+        <v>389</v>
       </c>
       <c r="C93" t="s">
-        <v>239</v>
+        <v>416</v>
       </c>
       <c r="E93" t="s">
-        <v>240</v>
+        <v>417</v>
       </c>
       <c r="F93">
-        <v>38.624169999999999</v>
+        <v>34.522779999999997</v>
       </c>
       <c r="G93">
-        <v>-120.70056</v>
+        <v>-118.61194999999999</v>
       </c>
       <c r="H93">
-        <v>1821</v>
+        <v>1515</v>
       </c>
       <c r="I93" t="s">
         <v>1228</v>
       </c>
       <c r="J93" t="s">
-        <v>1031</v>
+        <v>1080</v>
       </c>
       <c r="K93" t="s">
-        <v>893</v>
+        <v>942</v>
       </c>
       <c r="L93" t="s">
-        <v>1140</v>
+        <v>1170</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>639</v>
+        <v>695</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>1200</v>
+        <v>1214</v>
       </c>
       <c r="B94" t="s">
-        <v>315</v>
+        <v>389</v>
       </c>
       <c r="C94" t="s">
-        <v>338</v>
+        <v>414</v>
       </c>
       <c r="E94" t="s">
-        <v>339</v>
+        <v>415</v>
       </c>
       <c r="F94">
-        <v>38.36833</v>
+        <v>34.562779999999997</v>
       </c>
       <c r="G94">
-        <v>-122.30222000000001</v>
+        <v>-118.63276999999999</v>
       </c>
       <c r="H94">
-        <v>25</v>
+        <v>1400</v>
       </c>
       <c r="I94" t="s">
         <v>1228</v>
       </c>
       <c r="J94" t="s">
-        <v>1057</v>
+        <v>1080</v>
       </c>
       <c r="K94" t="s">
-        <v>919</v>
+        <v>942</v>
       </c>
       <c r="L94" t="s">
-        <v>1156</v>
+        <v>1170</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>671</v>
+        <v>694</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>1198</v>
+        <v>1216</v>
       </c>
       <c r="B95" t="s">
-        <v>315</v>
+        <v>389</v>
       </c>
       <c r="C95" t="s">
-        <v>316</v>
+        <v>437</v>
       </c>
       <c r="E95" t="s">
-        <v>317</v>
+        <v>438</v>
       </c>
       <c r="F95">
-        <v>39.172220000000003</v>
+        <v>33.311109999999999</v>
       </c>
       <c r="G95">
-        <v>-123.66833</v>
+        <v>-117.34639</v>
       </c>
       <c r="H95">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="I95" t="s">
         <v>1228</v>
       </c>
       <c r="J95" t="s">
-        <v>1053</v>
+        <v>1084</v>
       </c>
       <c r="K95" t="s">
-        <v>915</v>
+        <v>946</v>
       </c>
       <c r="L95" t="s">
-        <v>1154</v>
+        <v>1172</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>667</v>
+        <v>700</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>1200</v>
+        <v>1207</v>
       </c>
       <c r="B96" t="s">
-        <v>315</v>
+        <v>389</v>
       </c>
       <c r="C96" t="s">
-        <v>336</v>
+        <v>398</v>
       </c>
       <c r="E96" t="s">
-        <v>337</v>
+        <v>399</v>
       </c>
       <c r="F96">
-        <v>38.511389999999999</v>
+        <v>34.893889999999999</v>
       </c>
       <c r="G96">
-        <v>-122.45471999999999</v>
+        <v>-120.30556</v>
       </c>
       <c r="H96">
-        <v>195</v>
+        <v>355</v>
       </c>
       <c r="I96" t="s">
         <v>1228</v>
       </c>
       <c r="J96" t="s">
-        <v>1056</v>
+        <v>1072</v>
       </c>
       <c r="K96" t="s">
-        <v>918</v>
+        <v>934</v>
       </c>
       <c r="L96" t="s">
-        <v>1156</v>
-      </c>
-      <c r="M96" t="s">
-        <v>1432</v>
+        <v>1163</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>670</v>
+        <v>686</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>1199</v>
+        <v>1207</v>
       </c>
       <c r="B97" t="s">
-        <v>315</v>
+        <v>389</v>
       </c>
       <c r="C97" t="s">
-        <v>320</v>
+        <v>392</v>
       </c>
       <c r="E97" t="s">
-        <v>321</v>
+        <v>393</v>
       </c>
       <c r="F97">
-        <v>39.19556</v>
+        <v>34.83972</v>
       </c>
       <c r="G97">
-        <v>-123.19389</v>
+        <v>-120.16722</v>
       </c>
       <c r="H97">
-        <v>599</v>
+        <v>624</v>
       </c>
       <c r="I97" t="s">
         <v>1228</v>
       </c>
       <c r="J97" t="s">
-        <v>1054</v>
+        <v>1070</v>
       </c>
       <c r="K97" t="s">
-        <v>916</v>
+        <v>932</v>
       </c>
       <c r="L97" t="s">
-        <v>1155</v>
+        <v>1163</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>668</v>
+        <v>684</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>1199</v>
+        <v>1208</v>
       </c>
       <c r="B98" t="s">
-        <v>315</v>
+        <v>389</v>
       </c>
       <c r="C98" t="s">
-        <v>320</v>
-      </c>
-      <c r="D98" t="s">
-        <v>331</v>
+        <v>394</v>
       </c>
       <c r="E98" t="s">
-        <v>321</v>
+        <v>395</v>
       </c>
       <c r="F98">
-        <v>39.19556</v>
+        <v>34.543610000000001</v>
       </c>
       <c r="G98">
-        <v>-123.19389</v>
+        <v>-119.86389</v>
       </c>
       <c r="H98">
-        <v>599</v>
+        <v>788</v>
       </c>
       <c r="I98" t="s">
         <v>1228</v>
       </c>
       <c r="J98" t="s">
-        <v>1054</v>
+        <v>1071</v>
       </c>
       <c r="K98" t="s">
-        <v>916</v>
+        <v>933</v>
       </c>
       <c r="L98" t="s">
-        <v>1155</v>
+        <v>1164</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>668</v>
+        <v>685</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>1199</v>
+        <v>1208</v>
       </c>
       <c r="B99" t="s">
-        <v>315</v>
+        <v>389</v>
       </c>
       <c r="C99" t="s">
-        <v>332</v>
+        <v>408</v>
       </c>
       <c r="E99" t="s">
-        <v>333</v>
+        <v>409</v>
       </c>
       <c r="F99">
-        <v>38.723059999999997</v>
+        <v>34.588610000000003</v>
       </c>
       <c r="G99">
-        <v>-123.01</v>
+        <v>-120.4075</v>
       </c>
       <c r="H99">
-        <v>440</v>
+        <v>220</v>
       </c>
       <c r="I99" t="s">
         <v>1228</v>
       </c>
       <c r="J99" t="s">
-        <v>1055</v>
+        <v>1077</v>
       </c>
       <c r="K99" t="s">
-        <v>917</v>
+        <v>939</v>
       </c>
       <c r="L99" t="s">
-        <v>1155</v>
+        <v>1164</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>669</v>
+        <v>691</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>197</v>
+        <v>1187</v>
       </c>
       <c r="B100" t="s">
-        <v>174</v>
+        <v>243</v>
       </c>
       <c r="C100" t="s">
-        <v>200</v>
-      </c>
-      <c r="D100" t="s">
-        <v>201</v>
+        <v>271</v>
       </c>
       <c r="E100" t="s">
-        <v>202</v>
+        <v>272</v>
       </c>
       <c r="F100">
-        <v>38.24389</v>
+        <v>41.640830000000001</v>
       </c>
       <c r="G100">
-        <v>-120.29</v>
+        <v>-123.01389</v>
       </c>
       <c r="H100">
-        <v>3388</v>
+        <v>2624</v>
       </c>
       <c r="I100" t="s">
         <v>1228</v>
       </c>
       <c r="J100" t="s">
-        <v>1019</v>
+        <v>1036</v>
       </c>
       <c r="K100" t="s">
-        <v>881</v>
+        <v>898</v>
       </c>
       <c r="L100" t="s">
-        <v>1135</v>
+        <v>1143</v>
+      </c>
+      <c r="M100" t="s">
+        <v>1407</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>627</v>
+        <v>650</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>211</v>
+        <v>1186</v>
       </c>
       <c r="B101" t="s">
-        <v>174</v>
+        <v>243</v>
       </c>
       <c r="C101" t="s">
-        <v>218</v>
+        <v>269</v>
       </c>
       <c r="E101" t="s">
-        <v>219</v>
+        <v>270</v>
       </c>
       <c r="F101">
-        <v>37.36694</v>
+        <v>41.823059999999998</v>
       </c>
       <c r="G101">
-        <v>-120.21693999999999</v>
+        <v>-122.59444000000001</v>
       </c>
       <c r="H101">
-        <v>319</v>
+        <v>2000</v>
       </c>
       <c r="I101" t="s">
         <v>1228</v>
       </c>
       <c r="J101" t="s">
-        <v>1026</v>
+        <v>1035</v>
       </c>
       <c r="K101" t="s">
-        <v>888</v>
+        <v>897</v>
       </c>
       <c r="L101" t="s">
-        <v>1137</v>
+        <v>1142</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>634</v>
+        <v>649</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>211</v>
+        <v>1192</v>
       </c>
       <c r="B102" t="s">
-        <v>174</v>
+        <v>283</v>
       </c>
       <c r="C102" t="s">
-        <v>209</v>
+        <v>284</v>
       </c>
       <c r="E102" t="s">
-        <v>210</v>
+        <v>285</v>
       </c>
       <c r="F102">
-        <v>37.213329999999999</v>
+        <v>41.789439999999999</v>
       </c>
       <c r="G102">
-        <v>-119.97</v>
+        <v>-124.05389</v>
       </c>
       <c r="H102">
-        <v>450</v>
+        <v>110</v>
       </c>
       <c r="I102" t="s">
         <v>1228</v>
       </c>
       <c r="J102" t="s">
-        <v>1022</v>
+        <v>1042</v>
       </c>
       <c r="K102" t="s">
-        <v>884</v>
+        <v>904</v>
       </c>
       <c r="L102" t="s">
-        <v>1137</v>
+        <v>1148</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>630</v>
+        <v>656</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>211</v>
+        <v>160</v>
       </c>
       <c r="B103" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="C103" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="E103" t="s">
-        <v>215</v>
+        <v>167</v>
       </c>
       <c r="F103">
-        <v>37.376669999999997</v>
+        <v>38.763890000000004</v>
       </c>
       <c r="G103">
-        <v>-120.27500000000001</v>
+        <v>-120.32832999999999</v>
       </c>
       <c r="H103">
-        <v>319</v>
+        <v>3840</v>
       </c>
       <c r="I103" t="s">
         <v>1228</v>
       </c>
       <c r="J103" t="s">
-        <v>1024</v>
+        <v>1006</v>
       </c>
       <c r="K103" t="s">
-        <v>886</v>
+        <v>868</v>
       </c>
       <c r="L103" t="s">
-        <v>1137</v>
+        <v>1130</v>
+      </c>
+      <c r="M103" t="s">
+        <v>1392</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>632</v>
+        <v>614</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="B104" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="C104" t="s">
-        <v>191</v>
+        <v>168</v>
+      </c>
+      <c r="D104" t="s">
+        <v>169</v>
       </c>
       <c r="E104" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="F104">
-        <v>37.974719999999998</v>
+        <v>38.77111</v>
       </c>
       <c r="G104">
-        <v>-119.91611</v>
+        <v>-120.81528</v>
       </c>
       <c r="H104">
-        <v>4765</v>
+        <v>931</v>
       </c>
       <c r="I104" t="s">
         <v>1228</v>
       </c>
       <c r="J104" t="s">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="K104" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="L104" t="s">
-        <v>1134</v>
-      </c>
-      <c r="M104" t="s">
-        <v>1399</v>
+        <v>1130</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="B105" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="C105" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="E105" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="F105">
-        <v>37.585000000000001</v>
+        <v>38.823889999999999</v>
       </c>
       <c r="G105">
-        <v>-120.26721999999999</v>
+        <v>-120.36</v>
       </c>
       <c r="H105">
-        <v>879</v>
+        <v>5454</v>
       </c>
       <c r="I105" t="s">
         <v>1228</v>
       </c>
       <c r="J105" t="s">
-        <v>1012</v>
+        <v>1005</v>
       </c>
       <c r="K105" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="L105" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="M105" t="s">
-        <v>1402</v>
+        <v>1411</v>
       </c>
       <c r="N105" s="2" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="B106" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="C106" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="E106" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="F106">
-        <v>36.994999999999997</v>
+        <v>38.86806</v>
       </c>
       <c r="G106">
-        <v>-119.69167</v>
+        <v>-120.44306</v>
       </c>
       <c r="H106">
-        <v>581</v>
+        <v>4870</v>
       </c>
       <c r="I106" t="s">
         <v>1228</v>
       </c>
       <c r="J106" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="K106" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="L106" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="M106" t="s">
-        <v>1406</v>
+        <v>1435</v>
       </c>
       <c r="N106" s="2" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>188</v>
+        <v>1197</v>
       </c>
       <c r="B107" t="s">
-        <v>174</v>
+        <v>283</v>
       </c>
       <c r="C107" t="s">
-        <v>185</v>
-      </c>
-      <c r="D107" t="s">
-        <v>186</v>
+        <v>306</v>
       </c>
       <c r="E107" t="s">
-        <v>187</v>
+        <v>307</v>
       </c>
       <c r="F107">
-        <v>37.947780000000002</v>
+        <v>39.874720000000003</v>
       </c>
       <c r="G107">
-        <v>-119.78694</v>
+        <v>-123.71944000000001</v>
       </c>
       <c r="H107">
-        <v>3870</v>
+        <v>700</v>
       </c>
       <c r="I107" t="s">
         <v>1228</v>
       </c>
       <c r="J107" t="s">
-        <v>1013</v>
+        <v>1049</v>
       </c>
       <c r="K107" t="s">
-        <v>875</v>
+        <v>911</v>
       </c>
       <c r="L107" t="s">
-        <v>1134</v>
-      </c>
-      <c r="M107" t="s">
-        <v>1409</v>
+        <v>1153</v>
       </c>
       <c r="N107" s="2" t="s">
-        <v>621</v>
+        <v>663</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>208</v>
+        <v>1197</v>
       </c>
       <c r="B108" t="s">
-        <v>174</v>
+        <v>283</v>
       </c>
       <c r="C108" t="s">
-        <v>206</v>
+        <v>308</v>
       </c>
       <c r="E108" t="s">
-        <v>207</v>
+        <v>309</v>
       </c>
       <c r="F108">
-        <v>37.101669999999999</v>
+        <v>40.182220000000001</v>
       </c>
       <c r="G108">
-        <v>-119.88</v>
+        <v>-123.77500000000001</v>
       </c>
       <c r="H108">
-        <v>561</v>
+        <v>218</v>
       </c>
       <c r="I108" t="s">
         <v>1228</v>
       </c>
       <c r="J108" t="s">
-        <v>1021</v>
+        <v>1050</v>
       </c>
       <c r="K108" t="s">
-        <v>883</v>
+        <v>912</v>
       </c>
       <c r="L108" t="s">
-        <v>1136</v>
+        <v>1153</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>629</v>
+        <v>664</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>180</v>
+        <v>1222</v>
       </c>
       <c r="B109" t="s">
-        <v>174</v>
+        <v>465</v>
       </c>
       <c r="C109" t="s">
-        <v>178</v>
+        <v>480</v>
       </c>
       <c r="E109" t="s">
-        <v>179</v>
+        <v>481</v>
       </c>
       <c r="F109">
-        <v>37.731670000000001</v>
+        <v>35.737499999999997</v>
       </c>
       <c r="G109">
-        <v>-119.55777999999999</v>
+        <v>-118.17278</v>
       </c>
       <c r="H109">
-        <v>4016</v>
+        <v>2900</v>
       </c>
       <c r="I109" t="s">
         <v>1228</v>
       </c>
       <c r="J109" t="s">
-        <v>1010</v>
+        <v>1092</v>
       </c>
       <c r="K109" t="s">
-        <v>872</v>
+        <v>954</v>
       </c>
       <c r="L109" t="s">
-        <v>1133</v>
+        <v>1178</v>
       </c>
       <c r="N109" s="2" t="s">
-        <v>618</v>
+        <v>708</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>188</v>
+        <v>1191</v>
       </c>
       <c r="B110" t="s">
-        <v>174</v>
+        <v>243</v>
       </c>
       <c r="C110" t="s">
-        <v>189</v>
+        <v>281</v>
       </c>
       <c r="E110" t="s">
-        <v>190</v>
+        <v>282</v>
       </c>
       <c r="F110">
-        <v>37.974170000000001</v>
+        <v>40.65</v>
       </c>
       <c r="G110">
-        <v>-119.88</v>
+        <v>-123.49306</v>
       </c>
       <c r="H110">
-        <v>4660</v>
+        <v>1211</v>
       </c>
       <c r="I110" t="s">
         <v>1228</v>
       </c>
       <c r="J110" t="s">
-        <v>1014</v>
+        <v>1041</v>
       </c>
       <c r="K110" t="s">
-        <v>876</v>
+        <v>903</v>
       </c>
       <c r="L110" t="s">
-        <v>1134</v>
+        <v>1147</v>
       </c>
       <c r="N110" s="2" t="s">
-        <v>622</v>
+        <v>655</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>211</v>
+        <v>1184</v>
       </c>
       <c r="B111" t="s">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="C111" t="s">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="E111" t="s">
-        <v>221</v>
+        <v>41</v>
       </c>
       <c r="F111">
-        <v>37.308889999999998</v>
+        <v>40.024720000000002</v>
       </c>
       <c r="G111">
-        <v>-120.44389</v>
+        <v>-122.50861</v>
       </c>
       <c r="H111">
-        <v>187</v>
+        <v>718</v>
       </c>
       <c r="I111" t="s">
         <v>1228</v>
       </c>
       <c r="J111" t="s">
-        <v>1027</v>
+        <v>982</v>
       </c>
       <c r="K111" t="s">
-        <v>889</v>
+        <v>844</v>
       </c>
       <c r="L111" t="s">
-        <v>1137</v>
+        <v>1118</v>
       </c>
       <c r="N111" s="2" t="s">
-        <v>635</v>
+        <v>592</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>211</v>
+        <v>1184</v>
       </c>
       <c r="B112" t="s">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="C112" t="s">
-        <v>216</v>
+        <v>35</v>
       </c>
       <c r="E112" t="s">
-        <v>217</v>
+        <v>36</v>
       </c>
       <c r="F112">
-        <v>37.291939999999997</v>
+        <v>40.054720000000003</v>
       </c>
       <c r="G112">
-        <v>-120.14694</v>
+        <v>-122.02306</v>
       </c>
       <c r="H112">
-        <v>459</v>
+        <v>385</v>
       </c>
       <c r="I112" t="s">
         <v>1228</v>
       </c>
       <c r="J112" t="s">
-        <v>1025</v>
+        <v>980</v>
       </c>
       <c r="K112" t="s">
-        <v>887</v>
+        <v>842</v>
       </c>
       <c r="L112" t="s">
-        <v>1137</v>
+        <v>1118</v>
       </c>
       <c r="N112" s="2" t="s">
-        <v>633</v>
+        <v>590</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>188</v>
+        <v>1184</v>
       </c>
       <c r="B113" t="s">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="C113" t="s">
-        <v>193</v>
+        <v>42</v>
       </c>
       <c r="E113" t="s">
-        <v>194</v>
+        <v>43</v>
       </c>
       <c r="F113">
-        <v>37.70167</v>
+        <v>39.88861</v>
       </c>
       <c r="G113">
-        <v>-120.42111</v>
+        <v>-122.52139</v>
       </c>
       <c r="H113">
-        <v>272</v>
+        <v>720</v>
       </c>
       <c r="I113" t="s">
         <v>1228</v>
       </c>
       <c r="J113" t="s">
-        <v>1016</v>
+        <v>983</v>
       </c>
       <c r="K113" t="s">
-        <v>878</v>
+        <v>845</v>
       </c>
       <c r="L113" t="s">
-        <v>1134</v>
-      </c>
-      <c r="M113" t="s">
-        <v>1418</v>
+        <v>1118</v>
       </c>
       <c r="N113" s="2" t="s">
-        <v>624</v>
+        <v>593</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>197</v>
+        <v>1190</v>
       </c>
       <c r="B114" t="s">
-        <v>174</v>
+        <v>243</v>
       </c>
       <c r="C114" t="s">
-        <v>195</v>
+        <v>279</v>
       </c>
       <c r="E114" t="s">
-        <v>196</v>
+        <v>280</v>
       </c>
       <c r="F114">
-        <v>38.438330000000001</v>
+        <v>40.801389999999998</v>
       </c>
       <c r="G114">
-        <v>-120.01667</v>
+        <v>-122.76222</v>
       </c>
       <c r="H114">
-        <v>6672</v>
+        <v>2370</v>
       </c>
       <c r="I114" t="s">
         <v>1228</v>
       </c>
       <c r="J114" t="s">
-        <v>1017</v>
+        <v>1040</v>
       </c>
       <c r="K114" t="s">
-        <v>879</v>
+        <v>902</v>
       </c>
       <c r="L114" t="s">
-        <v>1135</v>
+        <v>1146</v>
+      </c>
+      <c r="M114" t="s">
+        <v>1398</v>
       </c>
       <c r="N114" s="2" t="s">
-        <v>625</v>
+        <v>654</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>197</v>
+        <v>1190</v>
       </c>
       <c r="B115" t="s">
-        <v>174</v>
+        <v>243</v>
       </c>
       <c r="C115" t="s">
-        <v>203</v>
-      </c>
-      <c r="D115" t="s">
-        <v>204</v>
+        <v>277</v>
       </c>
       <c r="E115" t="s">
-        <v>205</v>
+        <v>278</v>
       </c>
       <c r="F115">
-        <v>37.950000000000003</v>
+        <v>41.11139</v>
       </c>
       <c r="G115">
-        <v>-120.53694</v>
+        <v>-122.70444000000001</v>
       </c>
       <c r="H115">
-        <v>1400</v>
+        <v>2537</v>
       </c>
       <c r="I115" t="s">
         <v>1228</v>
       </c>
       <c r="J115" t="s">
-        <v>1020</v>
+        <v>1039</v>
       </c>
       <c r="K115" t="s">
-        <v>882</v>
+        <v>901</v>
       </c>
       <c r="L115" t="s">
-        <v>1135</v>
-      </c>
-      <c r="M115" t="s">
-        <v>1421</v>
+        <v>1146</v>
       </c>
       <c r="N115" s="2" t="s">
-        <v>628</v>
+        <v>653</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>197</v>
+        <v>1223</v>
       </c>
       <c r="B116" t="s">
-        <v>174</v>
+        <v>488</v>
       </c>
       <c r="C116" t="s">
-        <v>198</v>
+        <v>507</v>
+      </c>
+      <c r="D116" t="s">
+        <v>508</v>
       </c>
       <c r="E116" t="s">
-        <v>199</v>
+        <v>509</v>
       </c>
       <c r="F116">
-        <v>38.393059999999998</v>
+        <v>39.386940000000003</v>
       </c>
       <c r="G116">
-        <v>-119.99806</v>
+        <v>-120.09444000000001</v>
       </c>
       <c r="H116">
-        <v>6614</v>
+        <v>5500</v>
       </c>
       <c r="I116" t="s">
         <v>1228</v>
       </c>
       <c r="J116" t="s">
-        <v>1018</v>
+        <v>1097</v>
       </c>
       <c r="K116" t="s">
-        <v>880</v>
+        <v>959</v>
       </c>
       <c r="L116" t="s">
-        <v>1135</v>
+        <v>1179</v>
       </c>
       <c r="N116" s="2" t="s">
-        <v>626</v>
+        <v>715</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>211</v>
+        <v>1223</v>
       </c>
       <c r="B117" t="s">
-        <v>174</v>
+        <v>488</v>
       </c>
       <c r="C117" t="s">
-        <v>212</v>
+        <v>496</v>
       </c>
       <c r="E117" t="s">
-        <v>213</v>
+        <v>497</v>
       </c>
       <c r="F117">
-        <v>37.315280000000001</v>
+        <v>39.325000000000003</v>
       </c>
       <c r="G117">
-        <v>-120.18694000000001</v>
+        <v>-120.28139</v>
       </c>
       <c r="H117">
-        <v>385</v>
+        <v>5924</v>
       </c>
       <c r="I117" t="s">
         <v>1228</v>
       </c>
       <c r="J117" t="s">
-        <v>1023</v>
+        <v>1093</v>
       </c>
       <c r="K117" t="s">
-        <v>885</v>
+        <v>955</v>
       </c>
       <c r="L117" t="s">
-        <v>1137</v>
+        <v>1179</v>
       </c>
       <c r="N117" s="2" t="s">
-        <v>631</v>
+        <v>710</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>180</v>
+        <v>1223</v>
       </c>
       <c r="B118" t="s">
-        <v>174</v>
+        <v>488</v>
       </c>
       <c r="C118" t="s">
-        <v>181</v>
+        <v>510</v>
+      </c>
+      <c r="D118" t="s">
+        <v>511</v>
       </c>
       <c r="E118" t="s">
-        <v>182</v>
+        <v>512</v>
       </c>
       <c r="F118">
-        <v>37.716940000000001</v>
+        <v>39.428060000000002</v>
       </c>
       <c r="G118">
-        <v>-119.66528</v>
+        <v>-120.03306000000001</v>
       </c>
       <c r="H118">
-        <v>3862</v>
+        <v>5153</v>
       </c>
       <c r="I118" t="s">
         <v>1228</v>
       </c>
       <c r="J118" t="s">
-        <v>1011</v>
+        <v>1098</v>
       </c>
       <c r="K118" t="s">
-        <v>873</v>
+        <v>960</v>
       </c>
       <c r="L118" t="s">
-        <v>1133</v>
+        <v>1179</v>
       </c>
       <c r="M118" t="s">
-        <v>1427</v>
+        <v>1403</v>
       </c>
       <c r="N118" s="2" t="s">
-        <v>619</v>
+        <v>716</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>1213</v>
+        <v>1223</v>
       </c>
       <c r="B119" t="s">
-        <v>389</v>
+        <v>488</v>
       </c>
       <c r="C119" t="s">
-        <v>412</v>
+        <v>498</v>
       </c>
       <c r="E119" t="s">
-        <v>413</v>
+        <v>499</v>
       </c>
       <c r="F119">
-        <v>34.17944</v>
+        <v>39.45194</v>
       </c>
       <c r="G119">
-        <v>-119.03888999999999</v>
+        <v>-120.28972</v>
       </c>
       <c r="H119">
-        <v>70</v>
+        <v>6949</v>
       </c>
       <c r="I119" t="s">
         <v>1228</v>
       </c>
       <c r="J119" t="s">
-        <v>1079</v>
+        <v>1094</v>
       </c>
       <c r="K119" t="s">
-        <v>941</v>
+        <v>956</v>
       </c>
       <c r="L119" t="s">
-        <v>1169</v>
+        <v>1179</v>
       </c>
       <c r="N119" s="2" t="s">
-        <v>693</v>
+        <v>711</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>1214</v>
+        <v>1223</v>
       </c>
       <c r="B120" t="s">
-        <v>389</v>
+        <v>488</v>
       </c>
       <c r="C120" t="s">
-        <v>416</v>
+        <v>516</v>
       </c>
       <c r="E120" t="s">
-        <v>417</v>
+        <v>517</v>
       </c>
       <c r="F120">
-        <v>34.522779999999997</v>
+        <v>39.331699999999998</v>
       </c>
       <c r="G120">
-        <v>-118.61194999999999</v>
+        <v>-119.8</v>
       </c>
       <c r="H120">
-        <v>1515</v>
+        <v>5070</v>
       </c>
       <c r="I120" t="s">
         <v>1228</v>
       </c>
       <c r="J120" t="s">
-        <v>1080</v>
+        <v>1099</v>
       </c>
       <c r="K120" t="s">
-        <v>942</v>
+        <v>961</v>
       </c>
       <c r="L120" t="s">
-        <v>1170</v>
+        <v>1179</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>695</v>
+        <v>717</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>1215</v>
+        <v>1223</v>
       </c>
       <c r="B121" t="s">
-        <v>389</v>
+        <v>488</v>
       </c>
       <c r="C121" t="s">
-        <v>428</v>
+        <v>500</v>
       </c>
       <c r="E121" t="s">
-        <v>429</v>
+        <v>501</v>
       </c>
       <c r="F121">
-        <v>34.34111</v>
+        <v>39.327219999999997</v>
       </c>
       <c r="G121">
-        <v>-117.22750000000001</v>
+        <v>-120.11333</v>
       </c>
       <c r="H121">
-        <v>3050</v>
+        <v>5800</v>
       </c>
       <c r="I121" t="s">
         <v>1228</v>
       </c>
       <c r="J121" t="s">
-        <v>1081</v>
+        <v>1095</v>
       </c>
       <c r="K121" t="s">
-        <v>943</v>
+        <v>957</v>
       </c>
       <c r="L121" t="s">
-        <v>1171</v>
+        <v>1179</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>696</v>
+        <v>712</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>1214</v>
+        <v>1223</v>
       </c>
       <c r="B122" t="s">
-        <v>389</v>
+        <v>488</v>
       </c>
       <c r="C122" t="s">
-        <v>414</v>
+        <v>502</v>
       </c>
       <c r="E122" t="s">
-        <v>415</v>
+        <v>503</v>
       </c>
       <c r="F122">
-        <v>34.562779999999997</v>
+        <v>39.379440000000002</v>
       </c>
       <c r="G122">
-        <v>-118.63276999999999</v>
+        <v>-120.13667</v>
       </c>
       <c r="H122">
-        <v>1400</v>
+        <v>5630</v>
       </c>
       <c r="I122" t="s">
         <v>1228</v>
       </c>
       <c r="J122" t="s">
-        <v>1080</v>
+        <v>1096</v>
       </c>
       <c r="K122" t="s">
-        <v>942</v>
+        <v>958</v>
       </c>
       <c r="L122" t="s">
-        <v>1170</v>
+        <v>1179</v>
       </c>
       <c r="N122" s="2" t="s">
-        <v>694</v>
+        <v>713</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>1211</v>
+        <v>1223</v>
       </c>
       <c r="B123" t="s">
-        <v>389</v>
+        <v>488</v>
       </c>
       <c r="C123" t="s">
-        <v>404</v>
+        <v>541</v>
       </c>
       <c r="E123" t="s">
-        <v>405</v>
+        <v>542</v>
       </c>
       <c r="F123">
-        <v>32.882219999999997</v>
+        <v>39.431669999999997</v>
       </c>
       <c r="G123">
-        <v>-116.80695</v>
+        <v>-120.23694</v>
       </c>
       <c r="H123">
-        <v>800</v>
+        <v>6320</v>
       </c>
       <c r="I123" t="s">
         <v>1228</v>
       </c>
       <c r="J123" t="s">
-        <v>1075</v>
+        <v>1106</v>
       </c>
       <c r="K123" t="s">
-        <v>937</v>
+        <v>968</v>
       </c>
       <c r="L123" t="s">
-        <v>1167</v>
+        <v>1179</v>
       </c>
       <c r="N123" s="2" t="s">
-        <v>689</v>
+        <v>725</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>1207</v>
+        <v>1223</v>
       </c>
       <c r="B124" t="s">
-        <v>389</v>
+        <v>488</v>
       </c>
       <c r="C124" t="s">
-        <v>398</v>
+        <v>504</v>
+      </c>
+      <c r="D124" t="s">
+        <v>505</v>
       </c>
       <c r="E124" t="s">
-        <v>399</v>
+        <v>506</v>
       </c>
       <c r="F124">
-        <v>34.893889999999999</v>
+        <v>39.470559999999999</v>
       </c>
       <c r="G124">
-        <v>-120.30556</v>
+        <v>-120.10306</v>
       </c>
       <c r="H124">
-        <v>355</v>
+        <v>5949</v>
       </c>
       <c r="I124" t="s">
         <v>1228</v>
       </c>
       <c r="J124" t="s">
-        <v>1072</v>
+        <v>1097</v>
       </c>
       <c r="K124" t="s">
-        <v>934</v>
+        <v>959</v>
       </c>
       <c r="L124" t="s">
-        <v>1163</v>
+        <v>1179</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>686</v>
+        <v>714</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>1210</v>
+        <v>127</v>
       </c>
       <c r="B125" t="s">
-        <v>389</v>
+        <v>122</v>
       </c>
       <c r="C125" t="s">
-        <v>402</v>
+        <v>125</v>
       </c>
       <c r="E125" t="s">
-        <v>403</v>
+        <v>126</v>
       </c>
       <c r="F125">
-        <v>33.238610000000001</v>
+        <v>39.08</v>
       </c>
       <c r="G125">
-        <v>-116.76167</v>
+        <v>-122.53361</v>
       </c>
       <c r="H125">
-        <v>2750</v>
+        <v>1502</v>
       </c>
       <c r="I125" t="s">
         <v>1228</v>
       </c>
       <c r="J125" t="s">
-        <v>1074</v>
+        <v>996</v>
       </c>
       <c r="K125" t="s">
-        <v>936</v>
+        <v>858</v>
       </c>
       <c r="L125" t="s">
-        <v>1166</v>
+        <v>1127</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>688</v>
+        <v>604</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>1208</v>
+        <v>233</v>
       </c>
       <c r="B126" t="s">
-        <v>389</v>
+        <v>224</v>
       </c>
       <c r="C126" t="s">
-        <v>394</v>
+        <v>231</v>
       </c>
       <c r="E126" t="s">
-        <v>395</v>
+        <v>232</v>
       </c>
       <c r="F126">
-        <v>34.543610000000001</v>
+        <v>38.155000000000001</v>
       </c>
       <c r="G126">
-        <v>-119.86389</v>
+        <v>-120.81389</v>
       </c>
       <c r="H126">
-        <v>788</v>
+        <v>554</v>
       </c>
       <c r="I126" t="s">
         <v>1228</v>
       </c>
       <c r="J126" t="s">
-        <v>1071</v>
+        <v>1029</v>
       </c>
       <c r="K126" t="s">
-        <v>933</v>
+        <v>891</v>
       </c>
       <c r="L126" t="s">
-        <v>1164</v>
+        <v>1139</v>
+      </c>
+      <c r="M126" t="s">
+        <v>1420</v>
       </c>
       <c r="N126" s="2" t="s">
-        <v>685</v>
+        <v>637</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>1215</v>
+        <v>1224</v>
       </c>
       <c r="B127" t="s">
-        <v>389</v>
+        <v>488</v>
       </c>
       <c r="C127" t="s">
-        <v>432</v>
-      </c>
-      <c r="D127" t="s">
-        <v>433</v>
+        <v>527</v>
       </c>
       <c r="E127" t="s">
-        <v>434</v>
+        <v>528</v>
       </c>
       <c r="F127">
-        <v>34.342500000000001</v>
+        <v>38.713889999999999</v>
       </c>
       <c r="G127">
-        <v>-117.235</v>
+        <v>-119.76389</v>
       </c>
       <c r="H127">
-        <v>3134</v>
+        <v>5400</v>
       </c>
       <c r="I127" t="s">
         <v>1228</v>
       </c>
       <c r="J127" t="s">
-        <v>1081</v>
+        <v>1101</v>
       </c>
       <c r="K127" t="s">
-        <v>943</v>
+        <v>963</v>
       </c>
       <c r="L127" t="s">
-        <v>1171</v>
+        <v>1180</v>
       </c>
       <c r="N127" s="2" t="s">
-        <v>698</v>
+        <v>719</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>1215</v>
+        <v>1224</v>
       </c>
       <c r="B128" t="s">
-        <v>389</v>
+        <v>488</v>
       </c>
       <c r="C128" t="s">
-        <v>435</v>
+        <v>529</v>
+      </c>
+      <c r="D128" t="s">
+        <v>530</v>
       </c>
       <c r="E128" t="s">
-        <v>436</v>
+        <v>531</v>
       </c>
       <c r="F128">
-        <v>34.573059999999998</v>
+        <v>38.84722</v>
       </c>
       <c r="G128">
-        <v>-117.31972</v>
+        <v>-119.70278</v>
       </c>
       <c r="H128">
-        <v>2643</v>
+        <v>4988</v>
       </c>
       <c r="I128" t="s">
         <v>1228</v>
       </c>
       <c r="J128" t="s">
-        <v>1083</v>
+        <v>1102</v>
       </c>
       <c r="K128" t="s">
-        <v>945</v>
+        <v>964</v>
       </c>
       <c r="L128" t="s">
-        <v>1171</v>
+        <v>1180</v>
+      </c>
+      <c r="M128" t="s">
+        <v>1397</v>
       </c>
       <c r="N128" s="2" t="s">
-        <v>699</v>
+        <v>720</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>1210</v>
+        <v>1224</v>
       </c>
       <c r="B129" t="s">
-        <v>389</v>
+        <v>488</v>
       </c>
       <c r="C129" t="s">
-        <v>439</v>
+        <v>532</v>
+      </c>
+      <c r="D129" t="s">
+        <v>533</v>
       </c>
       <c r="E129" t="s">
-        <v>440</v>
+        <v>534</v>
       </c>
       <c r="F129">
-        <v>33.218060000000001</v>
+        <v>39.107779999999998</v>
       </c>
       <c r="G129">
-        <v>-117.35944000000001</v>
+        <v>-119.71222</v>
       </c>
       <c r="H129">
-        <v>20</v>
+        <v>4620</v>
       </c>
       <c r="I129" t="s">
         <v>1228</v>
       </c>
       <c r="J129" t="s">
-        <v>1085</v>
+        <v>1103</v>
       </c>
       <c r="K129" t="s">
-        <v>947</v>
+        <v>965</v>
       </c>
       <c r="L129" t="s">
-        <v>1166</v>
+        <v>1180</v>
       </c>
       <c r="N129" s="2" t="s">
-        <v>701</v>
+        <v>721</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>1208</v>
+        <v>1224</v>
       </c>
       <c r="B130" t="s">
-        <v>389</v>
+        <v>488</v>
       </c>
       <c r="C130" t="s">
-        <v>408</v>
+        <v>525</v>
       </c>
       <c r="E130" t="s">
-        <v>409</v>
+        <v>526</v>
       </c>
       <c r="F130">
-        <v>34.588610000000003</v>
+        <v>38.769440000000003</v>
       </c>
       <c r="G130">
-        <v>-120.4075</v>
+        <v>-119.83194</v>
       </c>
       <c r="H130">
-        <v>220</v>
+        <v>5755</v>
       </c>
       <c r="I130" t="s">
         <v>1228</v>
       </c>
       <c r="J130" t="s">
-        <v>1077</v>
+        <v>1100</v>
       </c>
       <c r="K130" t="s">
-        <v>939</v>
+        <v>962</v>
       </c>
       <c r="L130" t="s">
-        <v>1164</v>
+        <v>1180</v>
+      </c>
+      <c r="M130" t="s">
+        <v>1437</v>
       </c>
       <c r="N130" s="2" t="s">
-        <v>691</v>
+        <v>718</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>1209</v>
+        <v>236</v>
       </c>
       <c r="B131" t="s">
-        <v>389</v>
+        <v>224</v>
       </c>
       <c r="C131" t="s">
-        <v>400</v>
+        <v>241</v>
       </c>
       <c r="E131" t="s">
-        <v>401</v>
+        <v>242</v>
       </c>
       <c r="F131">
-        <v>34.108330000000002</v>
+        <v>38.588889999999999</v>
       </c>
       <c r="G131">
-        <v>-117.09972</v>
+        <v>-120.84389</v>
       </c>
       <c r="H131">
-        <v>1950</v>
+        <v>1004</v>
       </c>
       <c r="I131" t="s">
         <v>1228</v>
       </c>
       <c r="J131" t="s">
-        <v>1073</v>
+        <v>1032</v>
       </c>
       <c r="K131" t="s">
-        <v>935</v>
+        <v>894</v>
       </c>
       <c r="L131" t="s">
-        <v>1165</v>
-      </c>
-      <c r="M131" t="s">
-        <v>1433</v>
+        <v>1140</v>
       </c>
       <c r="N131" s="2" t="s">
-        <v>687</v>
+        <v>640</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>1207</v>
+        <v>236</v>
       </c>
       <c r="B132" t="s">
-        <v>389</v>
+        <v>224</v>
       </c>
       <c r="C132" t="s">
-        <v>392</v>
+        <v>234</v>
       </c>
       <c r="E132" t="s">
-        <v>393</v>
+        <v>235</v>
       </c>
       <c r="F132">
-        <v>34.83972</v>
+        <v>38.500279999999997</v>
       </c>
       <c r="G132">
-        <v>-120.16722</v>
+        <v>-121.04416999999999</v>
       </c>
       <c r="H132">
-        <v>624</v>
+        <v>168</v>
       </c>
       <c r="I132" t="s">
         <v>1228</v>
       </c>
       <c r="J132" t="s">
-        <v>1070</v>
+        <v>1030</v>
       </c>
       <c r="K132" t="s">
-        <v>932</v>
+        <v>892</v>
       </c>
       <c r="L132" t="s">
-        <v>1163</v>
+        <v>1140</v>
+      </c>
+      <c r="M132" t="s">
+        <v>1414</v>
       </c>
       <c r="N132" s="2" t="s">
-        <v>684</v>
+        <v>638</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>1211</v>
+        <v>236</v>
       </c>
       <c r="B133" t="s">
-        <v>389</v>
+        <v>224</v>
       </c>
       <c r="C133" t="s">
-        <v>406</v>
+        <v>239</v>
       </c>
       <c r="E133" t="s">
-        <v>407</v>
+        <v>240</v>
       </c>
       <c r="F133">
-        <v>32.912779999999998</v>
+        <v>38.624169999999999</v>
       </c>
       <c r="G133">
-        <v>-116.92416</v>
+        <v>-120.70056</v>
       </c>
       <c r="H133">
-        <v>663</v>
+        <v>1821</v>
       </c>
       <c r="I133" t="s">
         <v>1228</v>
       </c>
       <c r="J133" t="s">
-        <v>1076</v>
+        <v>1031</v>
       </c>
       <c r="K133" t="s">
-        <v>938</v>
+        <v>893</v>
       </c>
       <c r="L133" t="s">
-        <v>1167</v>
+        <v>1140</v>
       </c>
       <c r="N133" s="2" t="s">
-        <v>690</v>
+        <v>639</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>1206</v>
+        <v>1196</v>
       </c>
       <c r="B134" t="s">
-        <v>389</v>
+        <v>283</v>
       </c>
       <c r="C134" t="s">
-        <v>390</v>
+        <v>300</v>
+      </c>
+      <c r="D134" t="s">
+        <v>301</v>
       </c>
       <c r="E134" t="s">
-        <v>391</v>
+        <v>302</v>
       </c>
       <c r="F134">
-        <v>34.983609999999999</v>
+        <v>39.408329999999999</v>
       </c>
       <c r="G134">
-        <v>-120.32083</v>
+        <v>-122.95834000000001</v>
       </c>
       <c r="H134">
-        <v>740</v>
+        <v>1910</v>
       </c>
       <c r="I134" t="s">
         <v>1228</v>
       </c>
       <c r="J134" t="s">
-        <v>1069</v>
+        <v>1047</v>
       </c>
       <c r="K134" t="s">
-        <v>931</v>
+        <v>909</v>
       </c>
       <c r="L134" t="s">
-        <v>1162</v>
+        <v>1152</v>
       </c>
       <c r="N134" s="2" t="s">
-        <v>683</v>
+        <v>661</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>1212</v>
+        <v>1219</v>
       </c>
       <c r="B135" t="s">
-        <v>389</v>
+        <v>465</v>
       </c>
       <c r="C135" t="s">
-        <v>410</v>
+        <v>482</v>
       </c>
       <c r="E135" t="s">
-        <v>411</v>
+        <v>483</v>
       </c>
       <c r="F135">
-        <v>34.351390000000002</v>
+        <v>36.443890000000003</v>
       </c>
       <c r="G135">
-        <v>-119.30638999999999</v>
+        <v>-118.90443999999999</v>
       </c>
       <c r="H135">
-        <v>220</v>
+        <v>833</v>
       </c>
       <c r="I135" t="s">
         <v>1228</v>
       </c>
       <c r="J135" t="s">
-        <v>1078</v>
+        <v>1089</v>
       </c>
       <c r="K135" t="s">
-        <v>940</v>
+        <v>951</v>
       </c>
       <c r="L135" t="s">
-        <v>1168</v>
+        <v>1175</v>
       </c>
       <c r="N135" s="2" t="s">
-        <v>692</v>
+        <v>709</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>1215</v>
+        <v>1219</v>
       </c>
       <c r="B136" t="s">
-        <v>389</v>
+        <v>465</v>
       </c>
       <c r="C136" t="s">
-        <v>430</v>
+        <v>473</v>
+      </c>
+      <c r="D136" t="s">
+        <v>474</v>
       </c>
       <c r="E136" t="s">
-        <v>431</v>
+        <v>475</v>
       </c>
       <c r="F136">
-        <v>34.338889999999999</v>
+        <v>36.414999999999999</v>
       </c>
       <c r="G136">
-        <v>-117.25694</v>
+        <v>-119.00194</v>
       </c>
       <c r="H136">
-        <v>3040</v>
+        <v>752</v>
       </c>
       <c r="I136" t="s">
         <v>1228</v>
       </c>
       <c r="J136" t="s">
-        <v>1082</v>
+        <v>1089</v>
       </c>
       <c r="K136" t="s">
-        <v>944</v>
+        <v>951</v>
       </c>
       <c r="L136" t="s">
-        <v>1171</v>
+        <v>1175</v>
+      </c>
+      <c r="M136" t="s">
+        <v>1434</v>
       </c>
       <c r="N136" s="2" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>1216</v>
+        <v>1221</v>
       </c>
       <c r="B137" t="s">
-        <v>389</v>
+        <v>465</v>
       </c>
       <c r="C137" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="E137" t="s">
-        <v>438</v>
+        <v>479</v>
       </c>
       <c r="F137">
-        <v>33.311109999999999</v>
+        <v>35.945279999999997</v>
       </c>
       <c r="G137">
-        <v>-117.34639</v>
+        <v>-118.47667</v>
       </c>
       <c r="H137">
-        <v>75</v>
+        <v>3620</v>
       </c>
       <c r="I137" t="s">
         <v>1228</v>
       </c>
       <c r="J137" t="s">
-        <v>1084</v>
+        <v>1091</v>
       </c>
       <c r="K137" t="s">
-        <v>946</v>
+        <v>953</v>
       </c>
       <c r="L137" t="s">
-        <v>1172</v>
+        <v>1177</v>
+      </c>
+      <c r="M137" t="s">
+        <v>1413</v>
       </c>
       <c r="N137" s="2" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>1217</v>
+        <v>1220</v>
       </c>
       <c r="B138" t="s">
         <v>465</v>
       </c>
       <c r="C138" t="s">
-        <v>466</v>
-      </c>
-      <c r="D138" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="E138" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="F138">
-        <v>35.633330000000001</v>
+        <v>36.831940000000003</v>
       </c>
       <c r="G138">
-        <v>-118.48333</v>
+        <v>-119.32361</v>
       </c>
       <c r="H138">
-        <v>2515</v>
+        <v>615</v>
       </c>
       <c r="I138" t="s">
         <v>1228</v>
       </c>
       <c r="J138" t="s">
-        <v>1086</v>
+        <v>1090</v>
       </c>
       <c r="K138" t="s">
-        <v>948</v>
+        <v>952</v>
       </c>
       <c r="L138" t="s">
-        <v>1173</v>
+        <v>1176</v>
       </c>
       <c r="M138" t="s">
-        <v>1412</v>
+        <v>1423</v>
       </c>
       <c r="N138" s="2" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>1221</v>
+        <v>180</v>
       </c>
       <c r="B139" t="s">
-        <v>465</v>
+        <v>174</v>
       </c>
       <c r="C139" t="s">
-        <v>478</v>
+        <v>183</v>
       </c>
       <c r="E139" t="s">
-        <v>479</v>
+        <v>184</v>
       </c>
       <c r="F139">
-        <v>35.945279999999997</v>
+        <v>37.585000000000001</v>
       </c>
       <c r="G139">
-        <v>-118.47667</v>
+        <v>-120.26721999999999</v>
       </c>
       <c r="H139">
-        <v>3620</v>
+        <v>879</v>
       </c>
       <c r="I139" t="s">
         <v>1228</v>
       </c>
       <c r="J139" t="s">
-        <v>1091</v>
+        <v>1012</v>
       </c>
       <c r="K139" t="s">
-        <v>953</v>
+        <v>874</v>
       </c>
       <c r="L139" t="s">
-        <v>1177</v>
+        <v>1133</v>
       </c>
       <c r="M139" t="s">
-        <v>1413</v>
+        <v>1402</v>
       </c>
       <c r="N139" s="2" t="s">
-        <v>707</v>
+        <v>620</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>1219</v>
+        <v>180</v>
       </c>
       <c r="B140" t="s">
-        <v>465</v>
+        <v>174</v>
       </c>
       <c r="C140" t="s">
-        <v>482</v>
+        <v>178</v>
       </c>
       <c r="E140" t="s">
-        <v>483</v>
+        <v>179</v>
       </c>
       <c r="F140">
-        <v>36.443890000000003</v>
+        <v>37.731670000000001</v>
       </c>
       <c r="G140">
-        <v>-118.90443999999999</v>
+        <v>-119.55777999999999</v>
       </c>
       <c r="H140">
-        <v>833</v>
+        <v>4016</v>
       </c>
       <c r="I140" t="s">
         <v>1228</v>
       </c>
       <c r="J140" t="s">
-        <v>1089</v>
+        <v>1010</v>
       </c>
       <c r="K140" t="s">
-        <v>951</v>
+        <v>872</v>
       </c>
       <c r="L140" t="s">
-        <v>1175</v>
+        <v>1133</v>
       </c>
       <c r="N140" s="2" t="s">
-        <v>709</v>
+        <v>618</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>1220</v>
+        <v>180</v>
       </c>
       <c r="B141" t="s">
-        <v>465</v>
+        <v>174</v>
       </c>
       <c r="C141" t="s">
-        <v>476</v>
+        <v>181</v>
       </c>
       <c r="E141" t="s">
-        <v>477</v>
+        <v>182</v>
       </c>
       <c r="F141">
-        <v>36.831940000000003</v>
+        <v>37.716940000000001</v>
       </c>
       <c r="G141">
-        <v>-119.32361</v>
+        <v>-119.66528</v>
       </c>
       <c r="H141">
-        <v>615</v>
+        <v>3862</v>
       </c>
       <c r="I141" t="s">
         <v>1228</v>
       </c>
       <c r="J141" t="s">
-        <v>1090</v>
+        <v>1011</v>
       </c>
       <c r="K141" t="s">
-        <v>952</v>
+        <v>873</v>
       </c>
       <c r="L141" t="s">
-        <v>1176</v>
+        <v>1133</v>
       </c>
       <c r="M141" t="s">
-        <v>1423</v>
+        <v>1427</v>
       </c>
       <c r="N141" s="2" t="s">
-        <v>706</v>
+        <v>619</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>1218</v>
+        <v>227</v>
       </c>
       <c r="B142" t="s">
-        <v>465</v>
+        <v>224</v>
       </c>
       <c r="C142" t="s">
-        <v>471</v>
+        <v>225</v>
       </c>
       <c r="E142" t="s">
-        <v>472</v>
+        <v>226</v>
       </c>
       <c r="F142">
-        <v>36.061109999999999</v>
+        <v>38.25694</v>
       </c>
       <c r="G142">
-        <v>-118.92194000000001</v>
+        <v>-120.84972</v>
       </c>
       <c r="H142">
-        <v>692</v>
+        <v>658</v>
       </c>
       <c r="I142" t="s">
         <v>1228</v>
       </c>
       <c r="J142" t="s">
-        <v>1088</v>
+        <v>1028</v>
       </c>
       <c r="K142" t="s">
-        <v>950</v>
+        <v>890</v>
       </c>
       <c r="L142" t="s">
-        <v>1174</v>
-      </c>
-      <c r="M142" t="s">
-        <v>1430</v>
+        <v>1138</v>
       </c>
       <c r="N142" s="2" t="s">
-        <v>704</v>
+        <v>636</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>1222</v>
+        <v>11</v>
       </c>
       <c r="B143" t="s">
-        <v>465</v>
+        <v>0</v>
       </c>
       <c r="C143" t="s">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="E143" t="s">
-        <v>481</v>
+        <v>13</v>
       </c>
       <c r="F143">
-        <v>35.737499999999997</v>
+        <v>41.406109999999998</v>
       </c>
       <c r="G143">
-        <v>-118.17278</v>
+        <v>-120.92667</v>
       </c>
       <c r="H143">
-        <v>2900</v>
+        <v>4266</v>
       </c>
       <c r="I143" t="s">
         <v>1228</v>
       </c>
       <c r="J143" t="s">
-        <v>1092</v>
+        <v>972</v>
       </c>
       <c r="K143" t="s">
-        <v>954</v>
+        <v>834</v>
       </c>
       <c r="L143" t="s">
-        <v>1178</v>
+        <v>1111</v>
       </c>
       <c r="N143" s="2" t="s">
-        <v>708</v>
+        <v>583</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>1219</v>
+        <v>11</v>
       </c>
       <c r="B144" t="s">
-        <v>465</v>
+        <v>0</v>
       </c>
       <c r="C144" t="s">
-        <v>473</v>
-      </c>
-      <c r="D144" t="s">
-        <v>474</v>
+        <v>9</v>
       </c>
       <c r="E144" t="s">
-        <v>475</v>
+        <v>10</v>
       </c>
       <c r="F144">
-        <v>36.414999999999999</v>
+        <v>41.230829999999997</v>
       </c>
       <c r="G144">
-        <v>-119.00194</v>
+        <v>-120.43611</v>
       </c>
       <c r="H144">
-        <v>752</v>
+        <v>4508</v>
       </c>
       <c r="I144" t="s">
         <v>1228</v>
       </c>
       <c r="J144" t="s">
-        <v>1089</v>
+        <v>971</v>
       </c>
       <c r="K144" t="s">
-        <v>951</v>
+        <v>833</v>
       </c>
       <c r="L144" t="s">
-        <v>1175</v>
+        <v>1111</v>
       </c>
       <c r="M144" t="s">
-        <v>1434</v>
+        <v>1426</v>
       </c>
       <c r="N144" s="2" t="s">
-        <v>705</v>
+        <v>582</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>1218</v>
+        <v>130</v>
       </c>
       <c r="B145" t="s">
-        <v>465</v>
+        <v>122</v>
       </c>
       <c r="C145" t="s">
-        <v>469</v>
+        <v>128</v>
       </c>
       <c r="E145" t="s">
-        <v>470</v>
+        <v>129</v>
       </c>
       <c r="F145">
-        <v>36.024169999999998</v>
+        <v>38.512999999999998</v>
       </c>
       <c r="G145">
-        <v>-118.8125</v>
+        <v>-122.104</v>
       </c>
       <c r="H145">
-        <v>972</v>
+        <v>455</v>
       </c>
       <c r="I145" t="s">
         <v>1228</v>
       </c>
       <c r="J145" t="s">
-        <v>1087</v>
+        <v>997</v>
       </c>
       <c r="K145" t="s">
-        <v>949</v>
+        <v>859</v>
       </c>
       <c r="L145" t="s">
-        <v>1174</v>
+        <v>1128</v>
       </c>
       <c r="N145" s="2" t="s">
-        <v>703</v>
+        <v>605</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>23</v>
+        <v>177</v>
       </c>
       <c r="B146" t="s">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="C146" t="s">
-        <v>20</v>
-      </c>
-      <c r="D146" t="s">
-        <v>21</v>
+        <v>175</v>
       </c>
       <c r="E146" t="s">
-        <v>22</v>
+        <v>176</v>
       </c>
       <c r="F146">
-        <v>40.288609999999998</v>
+        <v>36.994999999999997</v>
       </c>
       <c r="G146">
-        <v>-122.18556</v>
+        <v>-119.69167</v>
       </c>
       <c r="H146">
-        <v>286</v>
+        <v>581</v>
       </c>
       <c r="I146" t="s">
         <v>1228</v>
       </c>
       <c r="J146" t="s">
-        <v>975</v>
+        <v>1009</v>
       </c>
       <c r="K146" t="s">
-        <v>837</v>
+        <v>871</v>
       </c>
       <c r="L146" t="s">
-        <v>1114</v>
+        <v>1132</v>
       </c>
       <c r="M146" t="s">
-        <v>1395</v>
+        <v>1406</v>
       </c>
       <c r="N146" s="2" t="s">
-        <v>585</v>
+        <v>617</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>51</v>
+        <v>197</v>
       </c>
       <c r="B147" t="s">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="C147" t="s">
-        <v>49</v>
+        <v>200</v>
+      </c>
+      <c r="D147" t="s">
+        <v>201</v>
       </c>
       <c r="E147" t="s">
-        <v>50</v>
+        <v>202</v>
       </c>
       <c r="F147">
-        <v>39.726109999999998</v>
+        <v>38.24389</v>
       </c>
       <c r="G147">
-        <v>-121.70778</v>
+        <v>-120.29</v>
       </c>
       <c r="H147">
-        <v>320</v>
+        <v>3388</v>
       </c>
       <c r="I147" t="s">
         <v>1228</v>
       </c>
       <c r="J147" t="s">
-        <v>985</v>
+        <v>1019</v>
       </c>
       <c r="K147" t="s">
-        <v>847</v>
+        <v>881</v>
       </c>
       <c r="L147" t="s">
-        <v>1121</v>
+        <v>1135</v>
       </c>
       <c r="N147" s="2" t="s">
-        <v>595</v>
+        <v>627</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>11</v>
+        <v>197</v>
       </c>
       <c r="B148" t="s">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="C148" t="s">
-        <v>12</v>
+        <v>195</v>
       </c>
       <c r="E148" t="s">
-        <v>13</v>
+        <v>196</v>
       </c>
       <c r="F148">
-        <v>41.406109999999998</v>
+        <v>38.438330000000001</v>
       </c>
       <c r="G148">
-        <v>-120.92667</v>
+        <v>-120.01667</v>
       </c>
       <c r="H148">
-        <v>4266</v>
+        <v>6672</v>
       </c>
       <c r="I148" t="s">
         <v>1228</v>
       </c>
       <c r="J148" t="s">
-        <v>972</v>
+        <v>1017</v>
       </c>
       <c r="K148" t="s">
-        <v>834</v>
+        <v>879</v>
       </c>
       <c r="L148" t="s">
-        <v>1111</v>
+        <v>1135</v>
       </c>
       <c r="N148" s="2" t="s">
-        <v>583</v>
+        <v>625</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>28</v>
+        <v>197</v>
       </c>
       <c r="B149" t="s">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="C149" t="s">
-        <v>26</v>
+        <v>203</v>
+      </c>
+      <c r="D149" t="s">
+        <v>204</v>
       </c>
       <c r="E149" t="s">
-        <v>27</v>
+        <v>205</v>
       </c>
       <c r="F149">
-        <v>40.398330000000001</v>
+        <v>37.950000000000003</v>
       </c>
       <c r="G149">
-        <v>-122.14528</v>
+        <v>-120.53694</v>
       </c>
       <c r="H149">
-        <v>415</v>
+        <v>1400</v>
       </c>
       <c r="I149" t="s">
         <v>1228</v>
       </c>
       <c r="J149" t="s">
-        <v>977</v>
+        <v>1020</v>
       </c>
       <c r="K149" t="s">
-        <v>839</v>
+        <v>882</v>
       </c>
       <c r="L149" t="s">
-        <v>1115</v>
+        <v>1135</v>
+      </c>
+      <c r="M149" t="s">
+        <v>1421</v>
       </c>
       <c r="N149" s="2" t="s">
-        <v>587</v>
+        <v>628</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>31</v>
+        <v>197</v>
       </c>
       <c r="B150" t="s">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="C150" t="s">
-        <v>29</v>
+        <v>198</v>
       </c>
       <c r="E150" t="s">
-        <v>30</v>
+        <v>199</v>
       </c>
       <c r="F150">
-        <v>40.384999999999998</v>
+        <v>38.393059999999998</v>
       </c>
       <c r="G150">
-        <v>-122.23889</v>
+        <v>-119.99806</v>
       </c>
       <c r="H150">
-        <v>364</v>
+        <v>6614</v>
       </c>
       <c r="I150" t="s">
         <v>1228</v>
       </c>
       <c r="J150" t="s">
-        <v>978</v>
+        <v>1018</v>
       </c>
       <c r="K150" t="s">
-        <v>840</v>
+        <v>880</v>
       </c>
       <c r="L150" t="s">
-        <v>1116</v>
+        <v>1135</v>
       </c>
       <c r="N150" s="2" t="s">
-        <v>588</v>
+        <v>626</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B151" t="s">
         <v>0</v>
       </c>
       <c r="C151" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="E151" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F151">
-        <v>40.505279999999999</v>
+        <v>39.359169999999999</v>
       </c>
       <c r="G151">
-        <v>-122.23222</v>
+        <v>-122.51778</v>
       </c>
       <c r="H151">
-        <v>386</v>
+        <v>1205</v>
       </c>
       <c r="I151" t="s">
         <v>1228</v>
       </c>
       <c r="J151" t="s">
-        <v>979</v>
+        <v>984</v>
       </c>
       <c r="K151" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="L151" t="s">
-        <v>1117</v>
+        <v>1120</v>
       </c>
       <c r="N151" s="2" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>39</v>
+        <v>1218</v>
       </c>
       <c r="B152" t="s">
-        <v>0</v>
+        <v>465</v>
       </c>
       <c r="C152" t="s">
-        <v>37</v>
+        <v>471</v>
       </c>
       <c r="E152" t="s">
-        <v>38</v>
+        <v>472</v>
       </c>
       <c r="F152">
-        <v>40.01417</v>
+        <v>36.061109999999999</v>
       </c>
       <c r="G152">
-        <v>-121.94722</v>
+        <v>-118.92194000000001</v>
       </c>
       <c r="H152">
-        <v>479</v>
+        <v>692</v>
       </c>
       <c r="I152" t="s">
         <v>1228</v>
       </c>
       <c r="J152" t="s">
-        <v>981</v>
+        <v>1088</v>
       </c>
       <c r="K152" t="s">
-        <v>843</v>
+        <v>950</v>
       </c>
       <c r="L152" t="s">
-        <v>1119</v>
+        <v>1174</v>
+      </c>
+      <c r="M152" t="s">
+        <v>1430</v>
       </c>
       <c r="N152" s="2" t="s">
-        <v>591</v>
+        <v>704</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>1183</v>
+        <v>1218</v>
       </c>
       <c r="B153" t="s">
-        <v>0</v>
+        <v>465</v>
       </c>
       <c r="C153" t="s">
-        <v>1</v>
+        <v>469</v>
       </c>
       <c r="E153" t="s">
-        <v>2</v>
+        <v>470</v>
       </c>
       <c r="F153">
-        <v>40.939720000000001</v>
+        <v>36.024169999999998</v>
       </c>
       <c r="G153">
-        <v>-122.41611</v>
+        <v>-118.8125</v>
       </c>
       <c r="H153">
-        <v>1075</v>
+        <v>972</v>
       </c>
       <c r="I153" t="s">
         <v>1228</v>
       </c>
       <c r="J153" t="s">
-        <v>969</v>
+        <v>1087</v>
       </c>
       <c r="K153" t="s">
-        <v>831</v>
+        <v>949</v>
       </c>
       <c r="L153" t="s">
-        <v>1109</v>
-      </c>
-      <c r="M153" t="s">
-        <v>1400</v>
+        <v>1174</v>
       </c>
       <c r="N153" s="2" t="s">
-        <v>581</v>
+        <v>703</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>1184</v>
+        <v>188</v>
       </c>
       <c r="B154" t="s">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="C154" t="s">
-        <v>40</v>
+        <v>191</v>
       </c>
       <c r="E154" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="F154">
-        <v>40.024720000000002</v>
+        <v>37.974719999999998</v>
       </c>
       <c r="G154">
-        <v>-122.50861</v>
+        <v>-119.91611</v>
       </c>
       <c r="H154">
-        <v>718</v>
+        <v>4765</v>
       </c>
       <c r="I154" t="s">
         <v>1228</v>
       </c>
       <c r="J154" t="s">
-        <v>982</v>
+        <v>1015</v>
       </c>
       <c r="K154" t="s">
-        <v>844</v>
+        <v>877</v>
       </c>
       <c r="L154" t="s">
-        <v>1118</v>
+        <v>1134</v>
+      </c>
+      <c r="M154" t="s">
+        <v>1399</v>
       </c>
       <c r="N154" s="2" t="s">
-        <v>592</v>
+        <v>623</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>46</v>
+        <v>188</v>
       </c>
       <c r="B155" t="s">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="C155" t="s">
-        <v>44</v>
+        <v>185</v>
+      </c>
+      <c r="D155" t="s">
+        <v>186</v>
       </c>
       <c r="E155" t="s">
-        <v>45</v>
+        <v>187</v>
       </c>
       <c r="F155">
-        <v>39.359169999999999</v>
+        <v>37.947780000000002</v>
       </c>
       <c r="G155">
-        <v>-122.51778</v>
+        <v>-119.78694</v>
       </c>
       <c r="H155">
-        <v>1205</v>
+        <v>3870</v>
       </c>
       <c r="I155" t="s">
         <v>1228</v>
       </c>
       <c r="J155" t="s">
-        <v>984</v>
+        <v>1013</v>
       </c>
       <c r="K155" t="s">
-        <v>846</v>
+        <v>875</v>
       </c>
       <c r="L155" t="s">
-        <v>1120</v>
+        <v>1134</v>
+      </c>
+      <c r="M155" t="s">
+        <v>1409</v>
       </c>
       <c r="N155" s="2" t="s">
-        <v>594</v>
+        <v>621</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>1184</v>
+        <v>188</v>
       </c>
       <c r="B156" t="s">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="C156" t="s">
-        <v>35</v>
+        <v>189</v>
       </c>
       <c r="E156" t="s">
-        <v>36</v>
+        <v>190</v>
       </c>
       <c r="F156">
-        <v>40.054720000000003</v>
+        <v>37.974170000000001</v>
       </c>
       <c r="G156">
-        <v>-122.02306</v>
+        <v>-119.88</v>
       </c>
       <c r="H156">
-        <v>385</v>
+        <v>4660</v>
       </c>
       <c r="I156" t="s">
         <v>1228</v>
       </c>
       <c r="J156" t="s">
-        <v>980</v>
+        <v>1014</v>
       </c>
       <c r="K156" t="s">
-        <v>842</v>
+        <v>876</v>
       </c>
       <c r="L156" t="s">
-        <v>1118</v>
+        <v>1134</v>
       </c>
       <c r="N156" s="2" t="s">
-        <v>590</v>
+        <v>622</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>5</v>
+        <v>188</v>
       </c>
       <c r="B157" t="s">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="C157" t="s">
-        <v>6</v>
-      </c>
-      <c r="D157" t="s">
-        <v>7</v>
+        <v>193</v>
       </c>
       <c r="E157" t="s">
-        <v>8</v>
+        <v>194</v>
       </c>
       <c r="F157">
-        <v>40.958329999999997</v>
+        <v>37.70167</v>
       </c>
       <c r="G157">
-        <v>-122.21832999999999</v>
+        <v>-120.42111</v>
       </c>
       <c r="H157">
-        <v>1100</v>
+        <v>272</v>
       </c>
       <c r="I157" t="s">
         <v>1228</v>
       </c>
       <c r="J157" t="s">
-        <v>970</v>
+        <v>1016</v>
       </c>
       <c r="K157" t="s">
-        <v>832</v>
+        <v>878</v>
       </c>
       <c r="L157" t="s">
-        <v>1110</v>
+        <v>1134</v>
       </c>
       <c r="M157" t="s">
-        <v>1416</v>
+        <v>1418</v>
       </c>
       <c r="N157" s="2" t="s">
-        <v>737</v>
+        <v>624</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="B158" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="C158" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="E158" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="F158">
-        <v>40.843890000000002</v>
+        <v>39.524999999999999</v>
       </c>
       <c r="G158">
-        <v>-122.00139</v>
+        <v>-120.93694000000001</v>
       </c>
       <c r="H158">
-        <v>1000</v>
+        <v>2453</v>
       </c>
       <c r="I158" t="s">
         <v>1228</v>
       </c>
       <c r="J158" t="s">
-        <v>973</v>
+        <v>990</v>
       </c>
       <c r="K158" t="s">
-        <v>835</v>
+        <v>852</v>
       </c>
       <c r="L158" t="s">
-        <v>1112</v>
+        <v>1126</v>
       </c>
       <c r="M158" t="s">
-        <v>1424</v>
+        <v>1408</v>
       </c>
       <c r="N158" s="2" t="s">
-        <v>738</v>
+        <v>600</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="B159" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>100</v>
+      </c>
+      <c r="D159" t="s">
+        <v>101</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="F159">
-        <v>41.230829999999997</v>
+        <v>39.239440000000002</v>
       </c>
       <c r="G159">
-        <v>-120.43611</v>
+        <v>-121.26667</v>
       </c>
       <c r="H159">
-        <v>4508</v>
+        <v>580</v>
       </c>
       <c r="I159" t="s">
         <v>1228</v>
       </c>
       <c r="J159" t="s">
-        <v>971</v>
+        <v>992</v>
       </c>
       <c r="K159" t="s">
-        <v>833</v>
+        <v>854</v>
       </c>
       <c r="L159" t="s">
-        <v>1111</v>
+        <v>1126</v>
       </c>
       <c r="M159" t="s">
-        <v>1426</v>
+        <v>1410</v>
       </c>
       <c r="N159" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="B160" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="C160" t="s">
-        <v>17</v>
+        <v>82</v>
+      </c>
+      <c r="D160" t="s">
+        <v>83</v>
       </c>
       <c r="E160" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="F160">
-        <v>40.714170000000003</v>
+        <v>39.392780000000002</v>
       </c>
       <c r="G160">
-        <v>-122.41611</v>
+        <v>-121.14028</v>
       </c>
       <c r="H160">
-        <v>1075</v>
+        <v>1965</v>
       </c>
       <c r="I160" t="s">
         <v>1228</v>
       </c>
       <c r="J160" t="s">
-        <v>974</v>
+        <v>991</v>
       </c>
       <c r="K160" t="s">
-        <v>836</v>
+        <v>853</v>
       </c>
       <c r="L160" t="s">
-        <v>1113</v>
-      </c>
-      <c r="M160" t="s">
-        <v>1431</v>
+        <v>1126</v>
       </c>
       <c r="N160" s="2" t="s">
-        <v>584</v>
+        <v>739</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>1184</v>
+        <v>1212</v>
       </c>
       <c r="B161" t="s">
-        <v>0</v>
+        <v>389</v>
       </c>
       <c r="C161" t="s">
-        <v>42</v>
+        <v>410</v>
       </c>
       <c r="E161" t="s">
-        <v>43</v>
+        <v>411</v>
       </c>
       <c r="F161">
-        <v>39.88861</v>
+        <v>34.351390000000002</v>
       </c>
       <c r="G161">
-        <v>-122.52139</v>
+        <v>-119.30638999999999</v>
       </c>
       <c r="H161">
-        <v>720</v>
+        <v>220</v>
       </c>
       <c r="I161" t="s">
         <v>1228</v>
       </c>
       <c r="J161" t="s">
-        <v>983</v>
+        <v>1078</v>
       </c>
       <c r="K161" t="s">
-        <v>845</v>
+        <v>940</v>
       </c>
       <c r="L161" t="s">
-        <v>1118</v>
+        <v>1168</v>
       </c>
       <c r="N161" s="2" t="s">
-        <v>593</v>
+        <v>692</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>19</v>
+        <v>1225</v>
       </c>
       <c r="B162" t="s">
-        <v>0</v>
+        <v>488</v>
       </c>
       <c r="C162" t="s">
-        <v>24</v>
+        <v>537</v>
       </c>
       <c r="E162" t="s">
-        <v>25</v>
+        <v>538</v>
       </c>
       <c r="F162">
-        <v>40.598059999999997</v>
+        <v>38.379719999999999</v>
       </c>
       <c r="G162">
-        <v>-122.53694</v>
+        <v>-119.44917</v>
       </c>
       <c r="H162">
-        <v>1310</v>
+        <v>6591</v>
       </c>
       <c r="I162" t="s">
         <v>1228</v>
       </c>
       <c r="J162" t="s">
-        <v>976</v>
+        <v>1104</v>
       </c>
       <c r="K162" t="s">
-        <v>838</v>
+        <v>966</v>
       </c>
       <c r="L162" t="s">
-        <v>1113</v>
+        <v>1181</v>
       </c>
       <c r="M162" t="s">
-        <v>1436</v>
+        <v>1438</v>
       </c>
       <c r="N162" s="2" t="s">
-        <v>586</v>
+        <v>723</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="N153" r:id="rId1" xr:uid="{782BEFD9-0191-40DC-AEEA-D7FCB26AFF5E}"/>
-    <hyperlink ref="N157" r:id="rId2" xr:uid="{30F48719-5F36-45A7-923B-DB15BC06B7D4}"/>
-    <hyperlink ref="N159" r:id="rId3" xr:uid="{7764D5C0-7285-469E-9421-9E0B901ED400}"/>
-    <hyperlink ref="N148" r:id="rId4" xr:uid="{FD40D17E-2002-406A-B1DC-2D858CA6CA0C}"/>
-    <hyperlink ref="N158" r:id="rId5" xr:uid="{9EF7AD6E-0406-4A2D-9409-BE0C3A167BB9}"/>
-    <hyperlink ref="N160" r:id="rId6" xr:uid="{D33BABA6-B46F-4A1B-9CB9-E9D713023A17}"/>
-    <hyperlink ref="N146" r:id="rId7" xr:uid="{728B138D-5718-4E93-8FAF-EC054E6BAC8D}"/>
-    <hyperlink ref="N162" r:id="rId8" xr:uid="{74AFEAA7-2EEE-4B8A-92A4-CAD8CFE76658}"/>
-    <hyperlink ref="N149" r:id="rId9" xr:uid="{D3A8C606-C232-49C9-B5B3-92E8F7041FBE}"/>
-    <hyperlink ref="N150" r:id="rId10" xr:uid="{99032865-4476-4D85-97F8-264A1A87AF92}"/>
-    <hyperlink ref="N151" r:id="rId11" xr:uid="{294729AD-B6E6-4B22-AA8D-C807569DC699}"/>
-    <hyperlink ref="N156" r:id="rId12" xr:uid="{659A9B5E-E69C-4339-BA1E-818A51067C36}"/>
-    <hyperlink ref="N152" r:id="rId13" xr:uid="{C5599D1F-C3F1-45E4-80D7-5B794E86CE68}"/>
-    <hyperlink ref="N154" r:id="rId14" xr:uid="{F0314838-922A-44EE-8EFF-6DF31360CC5E}"/>
-    <hyperlink ref="N161" r:id="rId15" xr:uid="{EC185780-9B08-4A4E-B709-070D9A573814}"/>
-    <hyperlink ref="N155" r:id="rId16" xr:uid="{EE264705-E002-4EB0-B263-3C648E93BE50}"/>
-    <hyperlink ref="N147" r:id="rId17" xr:uid="{858C6839-C837-453C-9E03-00DA84F6749D}"/>
-    <hyperlink ref="N50" r:id="rId18" xr:uid="{6EE57FFB-ED9E-4CD4-97D0-09846F0CD5C3}"/>
-    <hyperlink ref="N47" r:id="rId19" xr:uid="{4102568D-AF48-48CF-A025-BECBB961955D}"/>
-    <hyperlink ref="N49" r:id="rId20" xr:uid="{05DACC38-049B-41A7-9634-EAB93F9E2759}"/>
-    <hyperlink ref="N51" r:id="rId21" xr:uid="{B359DD90-2E3C-4783-BA51-DED7F38727CD}"/>
-    <hyperlink ref="N45" r:id="rId22" xr:uid="{8C152567-453C-4447-AFA4-33F3DBC280FC}"/>
-    <hyperlink ref="N48" r:id="rId23" xr:uid="{CD58D97D-5A48-4A52-9BF0-7A03C678D704}"/>
-    <hyperlink ref="N46" r:id="rId24" xr:uid="{98667A9D-AA42-47AB-9874-A4CD3F44BB46}"/>
-    <hyperlink ref="N42" r:id="rId25" xr:uid="{CF3FFB1D-1FB9-425F-A442-D25D2F080899}"/>
-    <hyperlink ref="N44" r:id="rId26" xr:uid="{3DDB6EDD-E533-4A6D-A51E-4980F36ED69F}"/>
-    <hyperlink ref="N43" r:id="rId27" xr:uid="{704B1BE5-6D11-41D0-BF9D-BED1FB55727C}"/>
-    <hyperlink ref="N13" r:id="rId28" xr:uid="{27BC749D-244F-4DD4-9B81-45833095C536}"/>
-    <hyperlink ref="N14" r:id="rId29" xr:uid="{5D273646-9312-4614-9466-111E6BF199BB}"/>
-    <hyperlink ref="N10" r:id="rId30" xr:uid="{156020CE-2A1B-49BB-8CF8-2003421F380E}"/>
-    <hyperlink ref="N4" r:id="rId31" xr:uid="{F78C7B52-F9AD-40DF-920D-14D4E3BD97BD}"/>
-    <hyperlink ref="N9" r:id="rId32" xr:uid="{5C4F8494-CD01-4C91-9CAD-0DA4CA0E0717}"/>
-    <hyperlink ref="N6" r:id="rId33" xr:uid="{1F6256B1-99E7-45F3-8303-54F657CFB25B}"/>
-    <hyperlink ref="N11" r:id="rId34" xr:uid="{A3C18D31-9D1A-40AB-A8B5-D6B0139D2A11}"/>
-    <hyperlink ref="N8" r:id="rId35" xr:uid="{4CB68EB4-10FB-4E40-9A31-F1F9EEEE31F4}"/>
-    <hyperlink ref="N12" r:id="rId36" xr:uid="{8A08C955-8E03-47D3-A223-0F70E7237FD9}"/>
-    <hyperlink ref="N7" r:id="rId37" xr:uid="{223F81C3-F2AE-4938-A066-FD5915C88E72}"/>
-    <hyperlink ref="N2" r:id="rId38" xr:uid="{9DAFF504-239E-49BF-9FCF-C1C928A1DC49}"/>
-    <hyperlink ref="N3" r:id="rId39" xr:uid="{9129D5B0-8332-4BD8-B754-63D08E846D68}"/>
-    <hyperlink ref="N5" r:id="rId40" xr:uid="{D9CB9BEF-09B0-479E-8A23-B7C15DB510FA}"/>
-    <hyperlink ref="N106" r:id="rId41" xr:uid="{7BD54F62-1607-4C9C-A6EC-5B436CE06BFC}"/>
-    <hyperlink ref="N109" r:id="rId42" xr:uid="{0B3B3470-3AAA-42BD-974A-B2BAEF313487}"/>
-    <hyperlink ref="N118" r:id="rId43" xr:uid="{47E38D8E-0699-4E59-8264-626A513B2C80}"/>
-    <hyperlink ref="N105" r:id="rId44" xr:uid="{04852B29-90B0-449E-A543-7563F6E71526}"/>
-    <hyperlink ref="N107" r:id="rId45" xr:uid="{7D344EFD-925D-49C1-8294-39AC869EB924}"/>
-    <hyperlink ref="N104" r:id="rId46" xr:uid="{0E3C8D24-DC05-43D5-9FFA-8991A75E31FF}"/>
-    <hyperlink ref="N113" r:id="rId47" xr:uid="{FB8A47BD-41DE-420C-A016-B84A6B173F3E}"/>
-    <hyperlink ref="N116" r:id="rId48" xr:uid="{01014497-F5D0-45A2-B537-3410C89A4B7B}"/>
-    <hyperlink ref="N100" r:id="rId49" xr:uid="{99831488-E040-4A4C-B0F5-80B5F5B2A229}"/>
-    <hyperlink ref="N115" r:id="rId50" xr:uid="{F83C9AAF-8FBA-4057-92C2-08A2B45847A7}"/>
-    <hyperlink ref="N108" r:id="rId51" xr:uid="{A0376BF2-A60B-4BC4-9D31-52007C6D9B61}"/>
-    <hyperlink ref="N102" r:id="rId52" xr:uid="{912FCEDA-6BBC-43A1-96D4-0020F11097FF}"/>
-    <hyperlink ref="N117" r:id="rId53" xr:uid="{E97A0E4D-93BA-43A5-9888-42EB030D022D}"/>
-    <hyperlink ref="N103" r:id="rId54" xr:uid="{29708B17-4953-4F81-B9AC-C371BDD0E98C}"/>
-    <hyperlink ref="N112" r:id="rId55" xr:uid="{B7CCC2C8-6A17-4D08-8FF3-DE6C88047F91}"/>
-    <hyperlink ref="N101" r:id="rId56" xr:uid="{08B324A9-E252-4FA9-B5C4-B1321683B1BF}"/>
-    <hyperlink ref="N111" r:id="rId57" xr:uid="{A00F5DA6-DD9E-410B-984A-39AE2761A347}"/>
-    <hyperlink ref="N89" r:id="rId58" xr:uid="{FE5AA27F-1D23-4886-89AE-E94F92CE93BA}"/>
-    <hyperlink ref="N110" r:id="rId59" xr:uid="{3E6467B4-0A22-4E05-89E9-CBF4E81E3F1D}"/>
-    <hyperlink ref="N114" r:id="rId60" xr:uid="{2477F4E2-B2AB-4E20-B7B2-29B420BD734B}"/>
-    <hyperlink ref="N92" r:id="rId61" xr:uid="{C7AA749E-C94A-4F09-85CB-624C3C87DBA9}"/>
-    <hyperlink ref="N91" r:id="rId62" xr:uid="{204A1B1F-43BC-4D68-BF72-D94DC6654D5D}"/>
-    <hyperlink ref="N93" r:id="rId63" xr:uid="{2FACB604-7369-433C-AF25-6B1B8D1C5A5A}"/>
-    <hyperlink ref="N90" r:id="rId64" xr:uid="{F0554868-B44D-4B6C-B646-4D6D309FCC82}"/>
-    <hyperlink ref="N68" r:id="rId65" xr:uid="{54148166-CEEC-4BBD-BC7F-ED36CB96B7AE}"/>
-    <hyperlink ref="N66" r:id="rId66" xr:uid="{23FFD55C-1CC6-4282-BAB3-0733E41303AD}"/>
-    <hyperlink ref="N63" r:id="rId67" xr:uid="{917B7D69-5F5A-4652-A3EF-E31EF45E6B8E}"/>
-    <hyperlink ref="N73" r:id="rId68" xr:uid="{B5CBE976-C762-4366-913B-4F6104A82C78}"/>
-    <hyperlink ref="N65" r:id="rId69" xr:uid="{E503D3C0-09BA-467E-B166-1E7625782EA6}"/>
-    <hyperlink ref="N75" r:id="rId70" xr:uid="{5052E43F-5FAD-4732-84A9-D9AB13C38269}"/>
-    <hyperlink ref="N76" r:id="rId71" xr:uid="{E49DFBF6-07D1-4E2B-8BED-D6DAD8886382}"/>
-    <hyperlink ref="N71" r:id="rId72" xr:uid="{7B2D18E2-729F-4FE2-9647-992873934FDE}"/>
-    <hyperlink ref="N77" r:id="rId73" xr:uid="{48D4349D-F81A-4489-861C-F9D460007057}"/>
-    <hyperlink ref="N67" r:id="rId74" xr:uid="{F549FEDD-B699-4DB9-BA88-5F2279BF6D7F}"/>
-    <hyperlink ref="N69" r:id="rId75" xr:uid="{470DC1EB-8B16-4338-AACB-370AD6EAEE26}"/>
-    <hyperlink ref="N72" r:id="rId76" xr:uid="{74CD068D-FE60-41F5-88B3-8ECC161AA1D0}"/>
-    <hyperlink ref="N74" r:id="rId77" xr:uid="{C48C9FC7-826B-491F-A6C0-4A8575701484}"/>
-    <hyperlink ref="N64" r:id="rId78" xr:uid="{A5297240-D490-46B0-9452-7345CD803152}"/>
-    <hyperlink ref="N70" r:id="rId79" xr:uid="{9BCF2D64-3659-4F41-9F7D-28CABB9CE642}"/>
-    <hyperlink ref="N80" r:id="rId80" xr:uid="{56C6CEC9-4F93-4FAF-9CDE-E7B3C08BCA48}"/>
-    <hyperlink ref="N86" r:id="rId81" xr:uid="{01737C01-846D-4602-BC15-D068AAB85644}"/>
-    <hyperlink ref="N78" r:id="rId82" xr:uid="{565A4290-0E0C-4F17-8A51-33B26DF2FBAD}"/>
-    <hyperlink ref="N79" r:id="rId83" xr:uid="{021C8248-CA0B-480C-8F94-03B2887E9525}"/>
-    <hyperlink ref="N81" r:id="rId84" xr:uid="{9ECCA4BF-A0DE-419B-A325-D65569307CD4}"/>
-    <hyperlink ref="N87" r:id="rId85" xr:uid="{EC18EB73-F141-4C97-9559-3AD291D43466}"/>
-    <hyperlink ref="N83" r:id="rId86" xr:uid="{4B93B614-54FA-427F-8C50-B72E6F7BDD5C}"/>
-    <hyperlink ref="N84" r:id="rId87" xr:uid="{469A51D1-3DC5-4DFB-8DE3-5BFD8A8CD5D1}"/>
-    <hyperlink ref="N85" r:id="rId88" xr:uid="{0B7F7174-A05B-47A8-82CC-68FD36FEB4FA}"/>
-    <hyperlink ref="N88" r:id="rId89" xr:uid="{2A1293C8-8ABD-4D03-920B-57629C565C96}"/>
-    <hyperlink ref="N82" r:id="rId90" xr:uid="{FD296445-A968-452B-BE90-1AE8A297580C}"/>
-    <hyperlink ref="N95" r:id="rId91" xr:uid="{C05E2BBF-DABB-4529-9BF2-803E73D7252C}"/>
-    <hyperlink ref="N97" r:id="rId92" xr:uid="{F4249461-E1DA-4521-8424-2C0F987D2658}"/>
-    <hyperlink ref="N98" r:id="rId93" xr:uid="{18516010-14DB-429F-93E6-9CDF149A9A0B}"/>
-    <hyperlink ref="N99" r:id="rId94" xr:uid="{B15FACA5-215F-4B0E-BE03-4BFA86B5050E}"/>
-    <hyperlink ref="N96" r:id="rId95" xr:uid="{D1276D76-C02A-440D-82EE-6CB90D5B9A11}"/>
-    <hyperlink ref="N94" r:id="rId96" xr:uid="{778B7EE2-98C9-4E77-964B-B48B7EE2EEEF}"/>
-    <hyperlink ref="N25" r:id="rId97" xr:uid="{8CD0D9B1-0A7B-4B9A-B735-EC6777EFF3F3}"/>
-    <hyperlink ref="N21" r:id="rId98" xr:uid="{FDA47B4C-B68B-409A-BB38-6866DD9C842A}"/>
-    <hyperlink ref="N23" r:id="rId99" xr:uid="{ED57AAAF-F770-40DF-BD63-5089DA06A1CF}"/>
-    <hyperlink ref="N24" r:id="rId100" xr:uid="{30F8896C-2442-4288-AE04-92C49F879D1B}"/>
-    <hyperlink ref="N16" r:id="rId101" xr:uid="{7EB52272-9894-48AD-9DB8-E539E5225F5D}"/>
-    <hyperlink ref="N22" r:id="rId102" xr:uid="{E5FE7DC5-F10F-4486-81D3-747B94486D6E}"/>
-    <hyperlink ref="N19" r:id="rId103" xr:uid="{C8659EA9-68A2-418B-B4A9-48C7B99A99E3}"/>
-    <hyperlink ref="N15" r:id="rId104" xr:uid="{BA779913-6271-4631-A8C7-4564521477D4}"/>
-    <hyperlink ref="N17" r:id="rId105" xr:uid="{1ADF2687-4A61-452E-B001-6CF61E37259C}"/>
-    <hyperlink ref="N20" r:id="rId106" xr:uid="{007DBCD6-7AED-4D5A-A7BA-1EC8C069158C}"/>
-    <hyperlink ref="N18" r:id="rId107" xr:uid="{B65F0812-671B-4392-B979-2CDAF5F57FD3}"/>
-    <hyperlink ref="N134" r:id="rId108" xr:uid="{ABA84E72-7B45-4A7E-A27E-38297A50FC4B}"/>
-    <hyperlink ref="N132" r:id="rId109" xr:uid="{9DBD3ADE-01B1-4FC1-9E9C-7DF066C2BF8B}"/>
-    <hyperlink ref="N126" r:id="rId110" xr:uid="{B74D57A4-F8F7-45DB-ADE2-B63CED65C31D}"/>
-    <hyperlink ref="N124" r:id="rId111" xr:uid="{CC8EBD6F-6CFC-488C-8EEC-B1D8A456A408}"/>
-    <hyperlink ref="N131" r:id="rId112" xr:uid="{400834AD-38E1-4121-B057-5DE6A50E346F}"/>
-    <hyperlink ref="N125" r:id="rId113" xr:uid="{E9ECE079-4817-4C8E-9587-8D6D5DFAC6C4}"/>
-    <hyperlink ref="N123" r:id="rId114" xr:uid="{7D0858BD-2C37-43DF-B1F6-182E91F3310B}"/>
-    <hyperlink ref="N133" r:id="rId115" xr:uid="{42CB5ABD-2B22-428B-BCCD-7082B1708A77}"/>
-    <hyperlink ref="N130" r:id="rId116" xr:uid="{6A1A4FA7-F78B-442B-B885-813B94558A92}"/>
-    <hyperlink ref="N135" r:id="rId117" xr:uid="{30638F14-224A-4B47-A917-4075A6AAD012}"/>
-    <hyperlink ref="N119" r:id="rId118" xr:uid="{B3E6EEEA-A30F-4F6B-BD4E-B01922E61D56}"/>
-    <hyperlink ref="N122" r:id="rId119" xr:uid="{FC25A67A-4A9E-4582-845A-8233782F85CF}"/>
-    <hyperlink ref="N120" r:id="rId120" xr:uid="{15612737-712F-48C5-8D29-1054CFA6485A}"/>
-    <hyperlink ref="N121" r:id="rId121" xr:uid="{E9F25AF6-7DEE-4D27-972A-A9791672A199}"/>
-    <hyperlink ref="N136" r:id="rId122" xr:uid="{3C864460-6AFC-459C-A6E5-AEC15336E816}"/>
-    <hyperlink ref="N127" r:id="rId123" xr:uid="{470BF05F-765F-43C0-A6C3-4D203D871D80}"/>
-    <hyperlink ref="N128" r:id="rId124" xr:uid="{56371C55-0CC7-429C-960D-EFCC5EEAEC6B}"/>
-    <hyperlink ref="N137" r:id="rId125" xr:uid="{0096DF0B-DC86-4C4D-AF31-DCC65E44028A}"/>
-    <hyperlink ref="N129" r:id="rId126" xr:uid="{EC32D69F-D898-4D89-A542-6400AA3A9BCC}"/>
-    <hyperlink ref="N138" r:id="rId127" xr:uid="{AA4A7A79-EC84-45FA-B711-3E011784CF54}"/>
-    <hyperlink ref="N145" r:id="rId128" xr:uid="{516CC3E9-E45F-468D-9F4D-1B084FE27960}"/>
-    <hyperlink ref="N142" r:id="rId129" xr:uid="{D8396695-5119-48AA-8167-C122AD781A74}"/>
-    <hyperlink ref="N144" r:id="rId130" xr:uid="{338597F2-CF79-429E-BC5F-9EBCBF930940}"/>
-    <hyperlink ref="N141" r:id="rId131" xr:uid="{E7553EE5-D140-4D24-BD05-74599C3C3710}"/>
-    <hyperlink ref="N139" r:id="rId132" xr:uid="{D3D0D4ED-30E9-4DA2-B0EC-4625F11BAE9B}"/>
-    <hyperlink ref="N143" r:id="rId133" xr:uid="{2C6C2812-E71E-4EA1-B71B-2BC15D7DD201}"/>
-    <hyperlink ref="N140" r:id="rId134" xr:uid="{A949E121-99EF-4209-9EF3-55D76373DC06}"/>
-    <hyperlink ref="N29" r:id="rId135" xr:uid="{24030C22-0331-4CA3-AE04-D9EEC582D966}"/>
-    <hyperlink ref="N33" r:id="rId136" xr:uid="{DBC5B615-C4FB-4882-AE53-5222062948DF}"/>
-    <hyperlink ref="N35" r:id="rId137" xr:uid="{C754B338-67CA-4055-9819-E61F3D9A27CD}"/>
-    <hyperlink ref="N36" r:id="rId138" xr:uid="{E560F34A-F2B0-472D-BD65-4638579EAE26}"/>
-    <hyperlink ref="N38" r:id="rId139" xr:uid="{F058DDB1-579A-4AC6-912D-3A44DBD2C51C}"/>
-    <hyperlink ref="N26" r:id="rId140" xr:uid="{CED9A20A-AD8A-4E67-955F-6FB7D977FE64}"/>
-    <hyperlink ref="N30" r:id="rId141" xr:uid="{B955E836-CCE1-409D-A82C-B3F654658666}"/>
-    <hyperlink ref="N34" r:id="rId142" xr:uid="{43FB2A1A-254D-42B8-86CF-89EFD4A7BBB3}"/>
-    <hyperlink ref="N40" r:id="rId143" xr:uid="{2A856162-FF06-4CBA-AA44-369A6C1A974A}"/>
-    <hyperlink ref="N28" r:id="rId144" xr:uid="{88E49E79-3EFC-4A36-837E-9F0ACE159DC4}"/>
-    <hyperlink ref="N32" r:id="rId145" xr:uid="{E93B1E19-B0DA-4A52-A2F4-9095BFFE4055}"/>
-    <hyperlink ref="N39" r:id="rId146" xr:uid="{78DCD40C-38EB-4F64-86A6-7D1A910E8199}"/>
-    <hyperlink ref="N31" r:id="rId147" xr:uid="{FB7ADDEC-2132-4BB5-B68F-FE478CBA5F38}"/>
-    <hyperlink ref="N41" r:id="rId148" xr:uid="{92B1BF7D-AC84-4ACC-926C-2C5D54C49D4C}"/>
-    <hyperlink ref="N27" r:id="rId149" xr:uid="{5AA3621F-5644-4F44-A523-5125BBE4D7ED}"/>
-    <hyperlink ref="N37" r:id="rId150" xr:uid="{F2D598D3-6153-48E0-B633-A2B58821796A}"/>
-    <hyperlink ref="N60" r:id="rId151" xr:uid="{45D22834-85E3-4736-86C1-5C75549F12AA}"/>
-    <hyperlink ref="N54" r:id="rId152" xr:uid="{0482E94F-D28A-4B57-9A5E-AAB1C20D3DFC}"/>
-    <hyperlink ref="N57" r:id="rId153" xr:uid="{FC280671-AC80-45A8-B750-280F6FD464C5}"/>
-    <hyperlink ref="N53" r:id="rId154" xr:uid="{A5F04F13-B84E-4AA2-BAD3-0406EB7131D5}"/>
-    <hyperlink ref="N62" r:id="rId155" xr:uid="{FA269A1D-E2EB-467C-8931-81E1E28B4FB9}"/>
-    <hyperlink ref="N56" r:id="rId156" xr:uid="{0CE3F278-22D1-47D3-9477-486638C05E5A}"/>
-    <hyperlink ref="N61" r:id="rId157" xr:uid="{CA51C54F-4CB4-4177-87B9-C0501A48D3D2}"/>
-    <hyperlink ref="N55" r:id="rId158" xr:uid="{403EA093-F1E0-4129-BA7A-0325BAD8B850}"/>
-    <hyperlink ref="N52" r:id="rId159" xr:uid="{79A3C48A-D249-4685-877D-2DD53FAAFFAD}"/>
-    <hyperlink ref="N58" r:id="rId160" xr:uid="{FA0F52B4-976F-4D78-9502-11718C07D04A}"/>
-    <hyperlink ref="N59" r:id="rId161" xr:uid="{BE71296B-7F1B-4DAE-BF39-FD687CADD0CB}"/>
+    <hyperlink ref="N80" r:id="rId1" xr:uid="{782BEFD9-0191-40DC-AEEA-D7FCB26AFF5E}"/>
+    <hyperlink ref="N50" r:id="rId2" xr:uid="{30F48719-5F36-45A7-923B-DB15BC06B7D4}"/>
+    <hyperlink ref="N144" r:id="rId3" xr:uid="{7764D5C0-7285-469E-9421-9E0B901ED400}"/>
+    <hyperlink ref="N143" r:id="rId4" xr:uid="{FD40D17E-2002-406A-B1DC-2D858CA6CA0C}"/>
+    <hyperlink ref="N47" r:id="rId5" xr:uid="{9EF7AD6E-0406-4A2D-9409-BE0C3A167BB9}"/>
+    <hyperlink ref="N27" r:id="rId6" xr:uid="{D33BABA6-B46F-4A1B-9CB9-E9D713023A17}"/>
+    <hyperlink ref="N76" r:id="rId7" xr:uid="{728B138D-5718-4E93-8FAF-EC054E6BAC8D}"/>
+    <hyperlink ref="N28" r:id="rId8" xr:uid="{74AFEAA7-2EEE-4B8A-92A4-CAD8CFE76658}"/>
+    <hyperlink ref="N20" r:id="rId9" xr:uid="{D3A8C606-C232-49C9-B5B3-92E8F7041FBE}"/>
+    <hyperlink ref="N29" r:id="rId10" xr:uid="{99032865-4476-4D85-97F8-264A1A87AF92}"/>
+    <hyperlink ref="N30" r:id="rId11" xr:uid="{294729AD-B6E6-4B22-AA8D-C807569DC699}"/>
+    <hyperlink ref="N112" r:id="rId12" xr:uid="{659A9B5E-E69C-4339-BA1E-818A51067C36}"/>
+    <hyperlink ref="N21" r:id="rId13" xr:uid="{C5599D1F-C3F1-45E4-80D7-5B794E86CE68}"/>
+    <hyperlink ref="N111" r:id="rId14" xr:uid="{F0314838-922A-44EE-8EFF-6DF31360CC5E}"/>
+    <hyperlink ref="N113" r:id="rId15" xr:uid="{EC185780-9B08-4A4E-B709-070D9A573814}"/>
+    <hyperlink ref="N151" r:id="rId16" xr:uid="{EE264705-E002-4EB0-B263-3C648E93BE50}"/>
+    <hyperlink ref="N23" r:id="rId17" xr:uid="{858C6839-C837-453C-9E03-00DA84F6749D}"/>
+    <hyperlink ref="N72" r:id="rId18" xr:uid="{6EE57FFB-ED9E-4CD4-97D0-09846F0CD5C3}"/>
+    <hyperlink ref="N54" r:id="rId19" xr:uid="{4102568D-AF48-48CF-A025-BECBB961955D}"/>
+    <hyperlink ref="N38" r:id="rId20" xr:uid="{05DACC38-049B-41A7-9634-EAB93F9E2759}"/>
+    <hyperlink ref="N35" r:id="rId21" xr:uid="{B359DD90-2E3C-4783-BA51-DED7F38727CD}"/>
+    <hyperlink ref="N158" r:id="rId22" xr:uid="{8C152567-453C-4447-AFA4-33F3DBC280FC}"/>
+    <hyperlink ref="N160" r:id="rId23" xr:uid="{CD58D97D-5A48-4A52-9BF0-7A03C678D704}"/>
+    <hyperlink ref="N159" r:id="rId24" xr:uid="{98667A9D-AA42-47AB-9874-A4CD3F44BB46}"/>
+    <hyperlink ref="N34" r:id="rId25" xr:uid="{CF3FFB1D-1FB9-425F-A442-D25D2F080899}"/>
+    <hyperlink ref="N53" r:id="rId26" xr:uid="{3DDB6EDD-E533-4A6D-A51E-4980F36ED69F}"/>
+    <hyperlink ref="N52" r:id="rId27" xr:uid="{704B1BE5-6D11-41D0-BF9D-BED1FB55727C}"/>
+    <hyperlink ref="N125" r:id="rId28" xr:uid="{27BC749D-244F-4DD4-9B81-45833095C536}"/>
+    <hyperlink ref="N145" r:id="rId29" xr:uid="{5D273646-9312-4614-9466-111E6BF199BB}"/>
+    <hyperlink ref="N70" r:id="rId30" xr:uid="{156020CE-2A1B-49BB-8CF8-2003421F380E}"/>
+    <hyperlink ref="N66" r:id="rId31" xr:uid="{F78C7B52-F9AD-40DF-920D-14D4E3BD97BD}"/>
+    <hyperlink ref="N69" r:id="rId32" xr:uid="{5C4F8494-CD01-4C91-9CAD-0DA4CA0E0717}"/>
+    <hyperlink ref="N67" r:id="rId33" xr:uid="{1F6256B1-99E7-45F3-8303-54F657CFB25B}"/>
+    <hyperlink ref="N71" r:id="rId34" xr:uid="{A3C18D31-9D1A-40AB-A8B5-D6B0139D2A11}"/>
+    <hyperlink ref="N68" r:id="rId35" xr:uid="{4CB68EB4-10FB-4E40-9A31-F1F9EEEE31F4}"/>
+    <hyperlink ref="N106" r:id="rId36" xr:uid="{8A08C955-8E03-47D3-A223-0F70E7237FD9}"/>
+    <hyperlink ref="N105" r:id="rId37" xr:uid="{223F81C3-F2AE-4938-A066-FD5915C88E72}"/>
+    <hyperlink ref="N103" r:id="rId38" xr:uid="{9DAFF504-239E-49BF-9FCF-C1C928A1DC49}"/>
+    <hyperlink ref="N104" r:id="rId39" xr:uid="{9129D5B0-8332-4BD8-B754-63D08E846D68}"/>
+    <hyperlink ref="N41" r:id="rId40" xr:uid="{D9CB9BEF-09B0-479E-8A23-B7C15DB510FA}"/>
+    <hyperlink ref="N146" r:id="rId41" xr:uid="{7BD54F62-1607-4C9C-A6EC-5B436CE06BFC}"/>
+    <hyperlink ref="N140" r:id="rId42" xr:uid="{0B3B3470-3AAA-42BD-974A-B2BAEF313487}"/>
+    <hyperlink ref="N141" r:id="rId43" xr:uid="{47E38D8E-0699-4E59-8264-626A513B2C80}"/>
+    <hyperlink ref="N139" r:id="rId44" xr:uid="{04852B29-90B0-449E-A543-7563F6E71526}"/>
+    <hyperlink ref="N155" r:id="rId45" xr:uid="{7D344EFD-925D-49C1-8294-39AC869EB924}"/>
+    <hyperlink ref="N154" r:id="rId46" xr:uid="{0E3C8D24-DC05-43D5-9FFA-8991A75E31FF}"/>
+    <hyperlink ref="N157" r:id="rId47" xr:uid="{FB8A47BD-41DE-420C-A016-B84A6B173F3E}"/>
+    <hyperlink ref="N150" r:id="rId48" xr:uid="{01014497-F5D0-45A2-B537-3410C89A4B7B}"/>
+    <hyperlink ref="N147" r:id="rId49" xr:uid="{99831488-E040-4A4C-B0F5-80B5F5B2A229}"/>
+    <hyperlink ref="N149" r:id="rId50" xr:uid="{F83C9AAF-8FBA-4057-92C2-08A2B45847A7}"/>
+    <hyperlink ref="N37" r:id="rId51" xr:uid="{A0376BF2-A60B-4BC4-9D31-52007C6D9B61}"/>
+    <hyperlink ref="N57" r:id="rId52" xr:uid="{912FCEDA-6BBC-43A1-96D4-0020F11097FF}"/>
+    <hyperlink ref="N61" r:id="rId53" xr:uid="{E97A0E4D-93BA-43A5-9888-42EB030D022D}"/>
+    <hyperlink ref="N58" r:id="rId54" xr:uid="{29708B17-4953-4F81-B9AC-C371BDD0E98C}"/>
+    <hyperlink ref="N60" r:id="rId55" xr:uid="{B7CCC2C8-6A17-4D08-8FF3-DE6C88047F91}"/>
+    <hyperlink ref="N56" r:id="rId56" xr:uid="{08B324A9-E252-4FA9-B5C4-B1321683B1BF}"/>
+    <hyperlink ref="N59" r:id="rId57" xr:uid="{A00F5DA6-DD9E-410B-984A-39AE2761A347}"/>
+    <hyperlink ref="N142" r:id="rId58" xr:uid="{FE5AA27F-1D23-4886-89AE-E94F92CE93BA}"/>
+    <hyperlink ref="N156" r:id="rId59" xr:uid="{3E6467B4-0A22-4E05-89E9-CBF4E81E3F1D}"/>
+    <hyperlink ref="N148" r:id="rId60" xr:uid="{2477F4E2-B2AB-4E20-B7B2-29B420BD734B}"/>
+    <hyperlink ref="N126" r:id="rId61" xr:uid="{C7AA749E-C94A-4F09-85CB-624C3C87DBA9}"/>
+    <hyperlink ref="N132" r:id="rId62" xr:uid="{204A1B1F-43BC-4D68-BF72-D94DC6654D5D}"/>
+    <hyperlink ref="N133" r:id="rId63" xr:uid="{2FACB604-7369-433C-AF25-6B1B8D1C5A5A}"/>
+    <hyperlink ref="N131" r:id="rId64" xr:uid="{F0554868-B44D-4B6C-B646-4D6D309FCC82}"/>
+    <hyperlink ref="N40" r:id="rId65" xr:uid="{54148166-CEEC-4BBD-BC7F-ED36CB96B7AE}"/>
+    <hyperlink ref="N39" r:id="rId66" xr:uid="{23FFD55C-1CC6-4282-BAB3-0733E41303AD}"/>
+    <hyperlink ref="N14" r:id="rId67" xr:uid="{917B7D69-5F5A-4652-A3EF-E31EF45E6B8E}"/>
+    <hyperlink ref="N17" r:id="rId68" xr:uid="{B5CBE976-C762-4366-913B-4F6104A82C78}"/>
+    <hyperlink ref="N15" r:id="rId69" xr:uid="{E503D3C0-09BA-467E-B166-1E7625782EA6}"/>
+    <hyperlink ref="N18" r:id="rId70" xr:uid="{5052E43F-5FAD-4732-84A9-D9AB13C38269}"/>
+    <hyperlink ref="N19" r:id="rId71" xr:uid="{E49DFBF6-07D1-4E2B-8BED-D6DAD8886382}"/>
+    <hyperlink ref="N16" r:id="rId72" xr:uid="{7B2D18E2-729F-4FE2-9647-992873934FDE}"/>
+    <hyperlink ref="N101" r:id="rId73" xr:uid="{48D4349D-F81A-4489-861C-F9D460007057}"/>
+    <hyperlink ref="N100" r:id="rId74" xr:uid="{F549FEDD-B699-4DB9-BA88-5F2279BF6D7F}"/>
+    <hyperlink ref="N46" r:id="rId75" xr:uid="{470DC1EB-8B16-4338-AACB-370AD6EAEE26}"/>
+    <hyperlink ref="N84" r:id="rId76" xr:uid="{74CD068D-FE60-41F5-88B3-8ECC161AA1D0}"/>
+    <hyperlink ref="N115" r:id="rId77" xr:uid="{C48C9FC7-826B-491F-A6C0-4A8575701484}"/>
+    <hyperlink ref="N114" r:id="rId78" xr:uid="{A5297240-D490-46B0-9452-7345CD803152}"/>
+    <hyperlink ref="N110" r:id="rId79" xr:uid="{9BCF2D64-3659-4F41-9F7D-28CABB9CE642}"/>
+    <hyperlink ref="N102" r:id="rId80" xr:uid="{56C6CEC9-4F93-4FAF-9CDE-E7B3C08BCA48}"/>
+    <hyperlink ref="N49" r:id="rId81" xr:uid="{01737C01-846D-4602-BC15-D068AAB85644}"/>
+    <hyperlink ref="N48" r:id="rId82" xr:uid="{565A4290-0E0C-4F17-8A51-33B26DF2FBAD}"/>
+    <hyperlink ref="N42" r:id="rId83" xr:uid="{021C8248-CA0B-480C-8F94-03B2887E9525}"/>
+    <hyperlink ref="N51" r:id="rId84" xr:uid="{9ECCA4BF-A0DE-419B-A325-D65569307CD4}"/>
+    <hyperlink ref="N134" r:id="rId85" xr:uid="{EC18EB73-F141-4C97-9559-3AD291D43466}"/>
+    <hyperlink ref="N44" r:id="rId86" xr:uid="{4B93B614-54FA-427F-8C50-B72E6F7BDD5C}"/>
+    <hyperlink ref="N107" r:id="rId87" xr:uid="{469A51D1-3DC5-4DFB-8DE3-5BFD8A8CD5D1}"/>
+    <hyperlink ref="N108" r:id="rId88" xr:uid="{0B7F7174-A05B-47A8-82CC-68FD36FEB4FA}"/>
+    <hyperlink ref="N45" r:id="rId89" xr:uid="{2A1293C8-8ABD-4D03-920B-57629C565C96}"/>
+    <hyperlink ref="N43" r:id="rId90" xr:uid="{FD296445-A968-452B-BE90-1AE8A297580C}"/>
+    <hyperlink ref="N22" r:id="rId91" xr:uid="{C05E2BBF-DABB-4529-9BF2-803E73D7252C}"/>
+    <hyperlink ref="N77" r:id="rId92" xr:uid="{F4249461-E1DA-4521-8424-2C0F987D2658}"/>
+    <hyperlink ref="N78" r:id="rId93" xr:uid="{18516010-14DB-429F-93E6-9CDF149A9A0B}"/>
+    <hyperlink ref="N79" r:id="rId94" xr:uid="{B15FACA5-215F-4B0E-BE03-4BFA86B5050E}"/>
+    <hyperlink ref="N91" r:id="rId95" xr:uid="{D1276D76-C02A-440D-82EE-6CB90D5B9A11}"/>
+    <hyperlink ref="N90" r:id="rId96" xr:uid="{778B7EE2-98C9-4E77-964B-B48B7EE2EEEF}"/>
+    <hyperlink ref="N83" r:id="rId97" xr:uid="{8CD0D9B1-0A7B-4B9A-B735-EC6777EFF3F3}"/>
+    <hyperlink ref="N81" r:id="rId98" xr:uid="{FDA47B4C-B68B-409A-BB38-6866DD9C842A}"/>
+    <hyperlink ref="N82" r:id="rId99" xr:uid="{ED57AAAF-F770-40DF-BD63-5089DA06A1CF}"/>
+    <hyperlink ref="N26" r:id="rId100" xr:uid="{30F8896C-2442-4288-AE04-92C49F879D1B}"/>
+    <hyperlink ref="N25" r:id="rId101" xr:uid="{7EB52272-9894-48AD-9DB8-E539E5225F5D}"/>
+    <hyperlink ref="N75" r:id="rId102" xr:uid="{E5FE7DC5-F10F-4486-81D3-747B94486D6E}"/>
+    <hyperlink ref="N74" r:id="rId103" xr:uid="{C8659EA9-68A2-418B-B4A9-48C7B99A99E3}"/>
+    <hyperlink ref="N73" r:id="rId104" xr:uid="{BA779913-6271-4631-A8C7-4564521477D4}"/>
+    <hyperlink ref="N31" r:id="rId105" xr:uid="{1ADF2687-4A61-452E-B001-6CF61E37259C}"/>
+    <hyperlink ref="N32" r:id="rId106" xr:uid="{007DBCD6-7AED-4D5A-A7BA-1EC8C069158C}"/>
+    <hyperlink ref="N87" r:id="rId107" xr:uid="{B65F0812-671B-4392-B979-2CDAF5F57FD3}"/>
+    <hyperlink ref="N33" r:id="rId108" xr:uid="{ABA84E72-7B45-4A7E-A27E-38297A50FC4B}"/>
+    <hyperlink ref="N97" r:id="rId109" xr:uid="{9DBD3ADE-01B1-4FC1-9E9C-7DF066C2BF8B}"/>
+    <hyperlink ref="N98" r:id="rId110" xr:uid="{B74D57A4-F8F7-45DB-ADE2-B63CED65C31D}"/>
+    <hyperlink ref="N96" r:id="rId111" xr:uid="{CC8EBD6F-6CFC-488C-8EEC-B1D8A456A408}"/>
+    <hyperlink ref="N92" r:id="rId112" xr:uid="{400834AD-38E1-4121-B057-5DE6A50E346F}"/>
+    <hyperlink ref="N88" r:id="rId113" xr:uid="{E9ECE079-4817-4C8E-9587-8D6D5DFAC6C4}"/>
+    <hyperlink ref="N85" r:id="rId114" xr:uid="{7D0858BD-2C37-43DF-B1F6-182E91F3310B}"/>
+    <hyperlink ref="N86" r:id="rId115" xr:uid="{42CB5ABD-2B22-428B-BCCD-7082B1708A77}"/>
+    <hyperlink ref="N99" r:id="rId116" xr:uid="{6A1A4FA7-F78B-442B-B885-813B94558A92}"/>
+    <hyperlink ref="N161" r:id="rId117" xr:uid="{30638F14-224A-4B47-A917-4075A6AAD012}"/>
+    <hyperlink ref="N24" r:id="rId118" xr:uid="{B3E6EEEA-A30F-4F6B-BD4E-B01922E61D56}"/>
+    <hyperlink ref="N94" r:id="rId119" xr:uid="{FC25A67A-4A9E-4582-845A-8233782F85CF}"/>
+    <hyperlink ref="N93" r:id="rId120" xr:uid="{15612737-712F-48C5-8D29-1054CFA6485A}"/>
+    <hyperlink ref="N62" r:id="rId121" xr:uid="{E9F25AF6-7DEE-4D27-972A-A9791672A199}"/>
+    <hyperlink ref="N65" r:id="rId122" xr:uid="{3C864460-6AFC-459C-A6E5-AEC15336E816}"/>
+    <hyperlink ref="N63" r:id="rId123" xr:uid="{470BF05F-765F-43C0-A6C3-4D203D871D80}"/>
+    <hyperlink ref="N64" r:id="rId124" xr:uid="{56371C55-0CC7-429C-960D-EFCC5EEAEC6B}"/>
+    <hyperlink ref="N95" r:id="rId125" xr:uid="{0096DF0B-DC86-4C4D-AF31-DCC65E44028A}"/>
+    <hyperlink ref="N89" r:id="rId126" xr:uid="{EC32D69F-D898-4D89-A542-6400AA3A9BCC}"/>
+    <hyperlink ref="N55" r:id="rId127" xr:uid="{AA4A7A79-EC84-45FA-B711-3E011784CF54}"/>
+    <hyperlink ref="N153" r:id="rId128" xr:uid="{516CC3E9-E45F-468D-9F4D-1B084FE27960}"/>
+    <hyperlink ref="N152" r:id="rId129" xr:uid="{D8396695-5119-48AA-8167-C122AD781A74}"/>
+    <hyperlink ref="N136" r:id="rId130" xr:uid="{338597F2-CF79-429E-BC5F-9EBCBF930940}"/>
+    <hyperlink ref="N138" r:id="rId131" xr:uid="{E7553EE5-D140-4D24-BD05-74599C3C3710}"/>
+    <hyperlink ref="N137" r:id="rId132" xr:uid="{D3D0D4ED-30E9-4DA2-B0EC-4625F11BAE9B}"/>
+    <hyperlink ref="N109" r:id="rId133" xr:uid="{2C6C2812-E71E-4EA1-B71B-2BC15D7DD201}"/>
+    <hyperlink ref="N135" r:id="rId134" xr:uid="{A949E121-99EF-4209-9EF3-55D76373DC06}"/>
+    <hyperlink ref="N117" r:id="rId135" xr:uid="{24030C22-0331-4CA3-AE04-D9EEC582D966}"/>
+    <hyperlink ref="N119" r:id="rId136" xr:uid="{DBC5B615-C4FB-4882-AE53-5222062948DF}"/>
+    <hyperlink ref="N121" r:id="rId137" xr:uid="{C754B338-67CA-4055-9819-E61F3D9A27CD}"/>
+    <hyperlink ref="N122" r:id="rId138" xr:uid="{E560F34A-F2B0-472D-BD65-4638579EAE26}"/>
+    <hyperlink ref="N124" r:id="rId139" xr:uid="{F058DDB1-579A-4AC6-912D-3A44DBD2C51C}"/>
+    <hyperlink ref="N116" r:id="rId140" xr:uid="{CED9A20A-AD8A-4E67-955F-6FB7D977FE64}"/>
+    <hyperlink ref="N118" r:id="rId141" xr:uid="{B955E836-CCE1-409D-A82C-B3F654658666}"/>
+    <hyperlink ref="N120" r:id="rId142" xr:uid="{43FB2A1A-254D-42B8-86CF-89EFD4A7BBB3}"/>
+    <hyperlink ref="N130" r:id="rId143" xr:uid="{2A856162-FF06-4CBA-AA44-369A6C1A974A}"/>
+    <hyperlink ref="N127" r:id="rId144" xr:uid="{88E49E79-3EFC-4A36-837E-9F0ACE159DC4}"/>
+    <hyperlink ref="N128" r:id="rId145" xr:uid="{E93B1E19-B0DA-4A52-A2F4-9095BFFE4055}"/>
+    <hyperlink ref="N129" r:id="rId146" xr:uid="{78DCD40C-38EB-4F64-86A6-7D1A910E8199}"/>
+    <hyperlink ref="N2" r:id="rId147" xr:uid="{FB7ADDEC-2132-4BB5-B68F-FE478CBA5F38}"/>
+    <hyperlink ref="N162" r:id="rId148" xr:uid="{92B1BF7D-AC84-4ACC-926C-2C5D54C49D4C}"/>
+    <hyperlink ref="N36" r:id="rId149" xr:uid="{5AA3621F-5644-4F44-A523-5125BBE4D7ED}"/>
+    <hyperlink ref="N123" r:id="rId150" xr:uid="{F2D598D3-6153-48E0-B633-A2B58821796A}"/>
+    <hyperlink ref="N11" r:id="rId151" xr:uid="{45D22834-85E3-4736-86C1-5C75549F12AA}"/>
+    <hyperlink ref="N5" r:id="rId152" xr:uid="{0482E94F-D28A-4B57-9A5E-AAB1C20D3DFC}"/>
+    <hyperlink ref="N8" r:id="rId153" xr:uid="{FC280671-AC80-45A8-B750-280F6FD464C5}"/>
+    <hyperlink ref="N4" r:id="rId154" xr:uid="{A5F04F13-B84E-4AA2-BAD3-0406EB7131D5}"/>
+    <hyperlink ref="N13" r:id="rId155" xr:uid="{FA269A1D-E2EB-467C-8931-81E1E28B4FB9}"/>
+    <hyperlink ref="N7" r:id="rId156" xr:uid="{0CE3F278-22D1-47D3-9477-486638C05E5A}"/>
+    <hyperlink ref="N12" r:id="rId157" xr:uid="{CA51C54F-4CB4-4177-87B9-C0501A48D3D2}"/>
+    <hyperlink ref="N6" r:id="rId158" xr:uid="{403EA093-F1E0-4129-BA7A-0325BAD8B850}"/>
+    <hyperlink ref="N3" r:id="rId159" xr:uid="{79A3C48A-D249-4685-877D-2DD53FAAFFAD}"/>
+    <hyperlink ref="N9" r:id="rId160" xr:uid="{FA0F52B4-976F-4D78-9502-11718C07D04A}"/>
+    <hyperlink ref="N10" r:id="rId161" xr:uid="{BE71296B-7F1B-4DAE-BF39-FD687CADD0CB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId162"/>
@@ -14997,6 +15001,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A857BD3BCD843B4EA662F2FA78A1626E" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7cdaaed0529d108e900003750ae96dd8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0ab5f4c0-2a19-4c76-96b2-05c4002a0b26" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="14e2b18ea0719de2f6da39bc9dea4fcb" ns2:_="">
     <xsd:import namespace="0ab5f4c0-2a19-4c76-96b2-05c4002a0b26"/>
@@ -15128,22 +15147,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC347B6B-AF6C-418A-A2FF-F7C6F5CAE140}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="0ab5f4c0-2a19-4c76-96b2-05c4002a0b26"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24D1AB1E-B022-4E97-AEF3-B876377563B1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85B363A2-6BC8-48A4-96BC-12C833EFDB16}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15159,28 +15187,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24D1AB1E-B022-4E97-AEF3-B876377563B1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC347B6B-AF6C-418A-A2FF-F7C6F5CAE140}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="0ab5f4c0-2a19-4c76-96b2-05c4002a0b26"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>